--- a/BackTest/2020-01-15 BackTest LBA.xlsx
+++ b/BackTest/2020-01-15 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22.5</v>
+        <v>22.55</v>
       </c>
       <c r="C2" t="n">
         <v>22.5</v>
       </c>
       <c r="D2" t="n">
-        <v>22.5</v>
+        <v>22.55</v>
       </c>
       <c r="E2" t="n">
         <v>22.5</v>
       </c>
       <c r="F2" t="n">
-        <v>7192.2859</v>
+        <v>13599.5981</v>
       </c>
       <c r="G2" t="n">
-        <v>23.1266666666667</v>
+        <v>23.13500000000003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>22.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1900</v>
+        <v>7192.2859</v>
       </c>
       <c r="G3" t="n">
-        <v>23.11833333333336</v>
+        <v>23.1266666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>22.5</v>
       </c>
       <c r="F4" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="G4" t="n">
-        <v>23.11000000000003</v>
+        <v>23.11833333333336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>22.5</v>
       </c>
       <c r="F5" t="n">
-        <v>5050</v>
+        <v>3000</v>
       </c>
       <c r="G5" t="n">
-        <v>23.0981666666667</v>
+        <v>23.11000000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.43</v>
+        <v>22.5</v>
       </c>
       <c r="C6" t="n">
-        <v>22.43</v>
+        <v>22.5</v>
       </c>
       <c r="D6" t="n">
-        <v>22.43</v>
+        <v>22.5</v>
       </c>
       <c r="E6" t="n">
-        <v>22.43</v>
+        <v>22.5</v>
       </c>
       <c r="F6" t="n">
-        <v>20404.88</v>
+        <v>5050</v>
       </c>
       <c r="G6" t="n">
-        <v>23.0831666666667</v>
+        <v>23.0981666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>22.43</v>
       </c>
       <c r="F7" t="n">
-        <v>6594.6269</v>
+        <v>20404.88</v>
       </c>
       <c r="G7" t="n">
-        <v>23.07100000000003</v>
+        <v>23.0831666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>22.43</v>
       </c>
       <c r="F8" t="n">
-        <v>48099.5735</v>
+        <v>6594.6269</v>
       </c>
       <c r="G8" t="n">
-        <v>23.0541666666667</v>
+        <v>23.07100000000003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.52</v>
+        <v>22.43</v>
       </c>
       <c r="C9" t="n">
-        <v>22.52</v>
+        <v>22.43</v>
       </c>
       <c r="D9" t="n">
-        <v>22.52</v>
+        <v>22.43</v>
       </c>
       <c r="E9" t="n">
-        <v>22.52</v>
+        <v>22.43</v>
       </c>
       <c r="F9" t="n">
-        <v>43250</v>
+        <v>48099.5735</v>
       </c>
       <c r="G9" t="n">
-        <v>23.04583333333336</v>
+        <v>23.0541666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>22.52</v>
       </c>
       <c r="F10" t="n">
-        <v>34881.3943</v>
+        <v>43250</v>
       </c>
       <c r="G10" t="n">
-        <v>23.03450000000003</v>
+        <v>23.04583333333336</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.55</v>
+        <v>22.52</v>
       </c>
       <c r="C11" t="n">
-        <v>22.89</v>
+        <v>22.52</v>
       </c>
       <c r="D11" t="n">
-        <v>22.89</v>
+        <v>22.52</v>
       </c>
       <c r="E11" t="n">
-        <v>22.55</v>
+        <v>22.52</v>
       </c>
       <c r="F11" t="n">
-        <v>61</v>
+        <v>34881.3943</v>
       </c>
       <c r="G11" t="n">
-        <v>23.0321666666667</v>
+        <v>23.03450000000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22.84</v>
+        <v>22.55</v>
       </c>
       <c r="C12" t="n">
-        <v>22.84</v>
+        <v>22.89</v>
       </c>
       <c r="D12" t="n">
-        <v>22.84</v>
+        <v>22.89</v>
       </c>
       <c r="E12" t="n">
-        <v>22.84</v>
+        <v>22.55</v>
       </c>
       <c r="F12" t="n">
-        <v>821.2564</v>
+        <v>61</v>
       </c>
       <c r="G12" t="n">
-        <v>23.0291666666667</v>
+        <v>23.0321666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>22.84</v>
       </c>
       <c r="F13" t="n">
-        <v>43605.8269</v>
+        <v>821.2564</v>
       </c>
       <c r="G13" t="n">
-        <v>23.02733333333336</v>
+        <v>23.0291666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22.85</v>
+        <v>22.84</v>
       </c>
       <c r="C14" t="n">
-        <v>22.85</v>
+        <v>22.84</v>
       </c>
       <c r="D14" t="n">
-        <v>22.85</v>
+        <v>22.84</v>
       </c>
       <c r="E14" t="n">
-        <v>22.85</v>
+        <v>22.84</v>
       </c>
       <c r="F14" t="n">
-        <v>10008</v>
+        <v>43605.8269</v>
       </c>
       <c r="G14" t="n">
-        <v>23.02566666666669</v>
+        <v>23.02733333333336</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>22.85</v>
       </c>
       <c r="F15" t="n">
-        <v>20261.1791</v>
+        <v>10008</v>
       </c>
       <c r="G15" t="n">
-        <v>23.02400000000002</v>
+        <v>23.02566666666669</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22.69</v>
+        <v>22.85</v>
       </c>
       <c r="C16" t="n">
-        <v>22.69</v>
+        <v>22.85</v>
       </c>
       <c r="D16" t="n">
-        <v>22.69</v>
+        <v>22.85</v>
       </c>
       <c r="E16" t="n">
-        <v>22.69</v>
+        <v>22.85</v>
       </c>
       <c r="F16" t="n">
-        <v>31601.2754</v>
+        <v>20261.1791</v>
       </c>
       <c r="G16" t="n">
-        <v>23.01966666666669</v>
+        <v>23.02400000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>22.9</v>
+        <v>22.69</v>
       </c>
       <c r="C17" t="n">
-        <v>22.9</v>
+        <v>22.69</v>
       </c>
       <c r="D17" t="n">
-        <v>22.9</v>
+        <v>22.69</v>
       </c>
       <c r="E17" t="n">
-        <v>22.9</v>
+        <v>22.69</v>
       </c>
       <c r="F17" t="n">
-        <v>1221</v>
+        <v>31601.2754</v>
       </c>
       <c r="G17" t="n">
-        <v>23.01416666666669</v>
+        <v>23.01966666666669</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="C18" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="D18" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="E18" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="F18" t="n">
-        <v>587.961</v>
+        <v>1221</v>
       </c>
       <c r="G18" t="n">
-        <v>23.00550000000003</v>
+        <v>23.01416666666669</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="C19" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="D19" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="E19" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1797.8298</v>
+        <v>587.961</v>
       </c>
       <c r="G19" t="n">
-        <v>23.00016666666669</v>
+        <v>23.00550000000003</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="C20" t="n">
-        <v>23.13</v>
+        <v>22.9</v>
       </c>
       <c r="D20" t="n">
-        <v>23.13</v>
+        <v>22.9</v>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="F20" t="n">
-        <v>600</v>
+        <v>1797.8298</v>
       </c>
       <c r="G20" t="n">
-        <v>22.99866666666669</v>
+        <v>23.00016666666669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>22.62</v>
+        <v>23.13</v>
       </c>
       <c r="D21" t="n">
-        <v>22.7</v>
+        <v>23.13</v>
       </c>
       <c r="E21" t="n">
-        <v>22.62</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
-        <v>41532.0076</v>
+        <v>600</v>
       </c>
       <c r="G21" t="n">
-        <v>22.98866666666669</v>
+        <v>22.99866666666669</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>22.7</v>
       </c>
       <c r="C22" t="n">
-        <v>22.7</v>
+        <v>22.62</v>
       </c>
       <c r="D22" t="n">
         <v>22.7</v>
       </c>
       <c r="E22" t="n">
-        <v>22.7</v>
+        <v>22.62</v>
       </c>
       <c r="F22" t="n">
-        <v>271.8395</v>
+        <v>41532.0076</v>
       </c>
       <c r="G22" t="n">
-        <v>22.98000000000003</v>
+        <v>22.98866666666669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22.65</v>
+        <v>22.7</v>
       </c>
       <c r="C23" t="n">
-        <v>22.65</v>
+        <v>22.7</v>
       </c>
       <c r="D23" t="n">
-        <v>22.65</v>
+        <v>22.7</v>
       </c>
       <c r="E23" t="n">
-        <v>22.65</v>
+        <v>22.7</v>
       </c>
       <c r="F23" t="n">
-        <v>23419.1328</v>
+        <v>271.8395</v>
       </c>
       <c r="G23" t="n">
-        <v>22.97050000000003</v>
+        <v>22.98000000000003</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22.8</v>
+        <v>22.65</v>
       </c>
       <c r="C24" t="n">
-        <v>22.8</v>
+        <v>22.65</v>
       </c>
       <c r="D24" t="n">
-        <v>22.8</v>
+        <v>22.65</v>
       </c>
       <c r="E24" t="n">
-        <v>22.8</v>
+        <v>22.65</v>
       </c>
       <c r="F24" t="n">
-        <v>23</v>
+        <v>23419.1328</v>
       </c>
       <c r="G24" t="n">
-        <v>22.96350000000002</v>
+        <v>22.97050000000003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>22.8</v>
       </c>
       <c r="F25" t="n">
-        <v>248.8395</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>22.95650000000002</v>
+        <v>22.96350000000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>22.56</v>
+        <v>22.8</v>
       </c>
       <c r="C26" t="n">
-        <v>22.56</v>
+        <v>22.8</v>
       </c>
       <c r="D26" t="n">
-        <v>22.56</v>
+        <v>22.8</v>
       </c>
       <c r="E26" t="n">
-        <v>22.56</v>
+        <v>22.8</v>
       </c>
       <c r="F26" t="n">
-        <v>28106.6996</v>
+        <v>248.8395</v>
       </c>
       <c r="G26" t="n">
-        <v>22.94900000000002</v>
+        <v>22.95650000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22.57</v>
+        <v>22.56</v>
       </c>
       <c r="C27" t="n">
-        <v>22.57</v>
+        <v>22.56</v>
       </c>
       <c r="D27" t="n">
-        <v>22.57</v>
+        <v>22.56</v>
       </c>
       <c r="E27" t="n">
-        <v>22.57</v>
+        <v>22.56</v>
       </c>
       <c r="F27" t="n">
-        <v>8385.7443</v>
+        <v>28106.6996</v>
       </c>
       <c r="G27" t="n">
-        <v>22.93816666666669</v>
+        <v>22.94900000000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>22.8</v>
+        <v>22.57</v>
       </c>
       <c r="C28" t="n">
-        <v>22.8</v>
+        <v>22.57</v>
       </c>
       <c r="D28" t="n">
-        <v>22.8</v>
+        <v>22.57</v>
       </c>
       <c r="E28" t="n">
-        <v>22.8</v>
+        <v>22.57</v>
       </c>
       <c r="F28" t="n">
-        <v>772.3848</v>
+        <v>8385.7443</v>
       </c>
       <c r="G28" t="n">
-        <v>22.93116666666669</v>
+        <v>22.93816666666669</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>22.8</v>
       </c>
       <c r="F29" t="n">
-        <v>2175.4569</v>
+        <v>772.3848</v>
       </c>
       <c r="G29" t="n">
-        <v>22.92533333333335</v>
+        <v>22.93116666666669</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>22.68</v>
+        <v>22.8</v>
       </c>
       <c r="C30" t="n">
-        <v>22.68</v>
+        <v>22.8</v>
       </c>
       <c r="D30" t="n">
-        <v>22.68</v>
+        <v>22.8</v>
       </c>
       <c r="E30" t="n">
-        <v>22.68</v>
+        <v>22.8</v>
       </c>
       <c r="F30" t="n">
-        <v>3259.8039</v>
+        <v>2175.4569</v>
       </c>
       <c r="G30" t="n">
-        <v>22.91666666666669</v>
+        <v>22.92533333333335</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>22.68</v>
       </c>
       <c r="F31" t="n">
-        <v>4839.3267</v>
+        <v>3259.8039</v>
       </c>
       <c r="G31" t="n">
-        <v>22.90766666666669</v>
+        <v>22.91666666666669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>22.6</v>
+        <v>22.68</v>
       </c>
       <c r="C32" t="n">
-        <v>22.56</v>
+        <v>22.68</v>
       </c>
       <c r="D32" t="n">
-        <v>22.6</v>
+        <v>22.68</v>
       </c>
       <c r="E32" t="n">
-        <v>22.56</v>
+        <v>22.68</v>
       </c>
       <c r="F32" t="n">
-        <v>18000</v>
+        <v>4839.3267</v>
       </c>
       <c r="G32" t="n">
-        <v>22.89733333333335</v>
+        <v>22.90766666666669</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C33" t="n">
         <v>22.56</v>
       </c>
-      <c r="C33" t="n">
-        <v>22.55</v>
-      </c>
       <c r="D33" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E33" t="n">
         <v>22.56</v>
       </c>
-      <c r="E33" t="n">
-        <v>22.55</v>
-      </c>
       <c r="F33" t="n">
-        <v>23462.5617</v>
+        <v>18000</v>
       </c>
       <c r="G33" t="n">
-        <v>22.88650000000002</v>
+        <v>22.89733333333335</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>22.55</v>
+        <v>22.56</v>
       </c>
       <c r="C34" t="n">
         <v>22.55</v>
       </c>
       <c r="D34" t="n">
-        <v>22.55</v>
+        <v>22.56</v>
       </c>
       <c r="E34" t="n">
         <v>22.55</v>
       </c>
       <c r="F34" t="n">
-        <v>4762.9812</v>
+        <v>23462.5617</v>
       </c>
       <c r="G34" t="n">
-        <v>22.87566666666668</v>
+        <v>22.88650000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>22.5</v>
+        <v>22.55</v>
       </c>
       <c r="C35" t="n">
-        <v>22.5</v>
+        <v>22.55</v>
       </c>
       <c r="D35" t="n">
-        <v>22.5</v>
+        <v>22.55</v>
       </c>
       <c r="E35" t="n">
-        <v>22.5</v>
+        <v>22.55</v>
       </c>
       <c r="F35" t="n">
-        <v>998.6856</v>
+        <v>4762.9812</v>
       </c>
       <c r="G35" t="n">
-        <v>22.86533333333335</v>
+        <v>22.87566666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>22.5</v>
       </c>
       <c r="F36" t="n">
-        <v>359.8685</v>
+        <v>998.6856</v>
       </c>
       <c r="G36" t="n">
-        <v>22.85033333333335</v>
+        <v>22.86533333333335</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>22.5</v>
       </c>
       <c r="F37" t="n">
-        <v>1522.955</v>
+        <v>359.8685</v>
       </c>
       <c r="G37" t="n">
-        <v>22.83233333333335</v>
+        <v>22.85033333333335</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>22.5</v>
       </c>
       <c r="F38" t="n">
-        <v>905.0506</v>
+        <v>1522.955</v>
       </c>
       <c r="G38" t="n">
-        <v>22.81433333333335</v>
+        <v>22.83233333333335</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="C39" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="D39" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="E39" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="F39" t="n">
-        <v>24400</v>
+        <v>905.0506</v>
       </c>
       <c r="G39" t="n">
-        <v>22.80266666666668</v>
+        <v>22.81433333333335</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="C40" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="D40" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="E40" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="F40" t="n">
-        <v>18377.5079</v>
+        <v>24400</v>
       </c>
       <c r="G40" t="n">
-        <v>22.78433333333335</v>
+        <v>22.80266666666668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>22.45</v>
+        <v>22.5</v>
       </c>
       <c r="C41" t="n">
         <v>22.4</v>
       </c>
       <c r="D41" t="n">
-        <v>22.45</v>
+        <v>22.5</v>
       </c>
       <c r="E41" t="n">
         <v>22.4</v>
       </c>
       <c r="F41" t="n">
-        <v>4390</v>
+        <v>18377.5079</v>
       </c>
       <c r="G41" t="n">
-        <v>22.75800000000002</v>
+        <v>22.78433333333335</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="C42" t="n">
         <v>22.4</v>
       </c>
-      <c r="C42" t="n">
-        <v>22.5</v>
-      </c>
       <c r="D42" t="n">
-        <v>22.5</v>
+        <v>22.45</v>
       </c>
       <c r="E42" t="n">
         <v>22.4</v>
       </c>
       <c r="F42" t="n">
-        <v>1461</v>
+        <v>4390</v>
       </c>
       <c r="G42" t="n">
-        <v>22.73783333333335</v>
+        <v>22.75800000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="C43" t="n">
         <v>22.5</v>
@@ -1877,13 +1877,13 @@
         <v>22.5</v>
       </c>
       <c r="E43" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="F43" t="n">
-        <v>1446.7557</v>
+        <v>1461</v>
       </c>
       <c r="G43" t="n">
-        <v>22.71950000000002</v>
+        <v>22.73783333333335</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>22.5</v>
       </c>
       <c r="C44" t="n">
-        <v>22.72</v>
+        <v>22.5</v>
       </c>
       <c r="D44" t="n">
-        <v>22.72</v>
+        <v>22.5</v>
       </c>
       <c r="E44" t="n">
         <v>22.5</v>
       </c>
       <c r="F44" t="n">
-        <v>17370.2704</v>
+        <v>1446.7557</v>
       </c>
       <c r="G44" t="n">
-        <v>22.70483333333335</v>
+        <v>22.71950000000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>22.72</v>
+        <v>22.5</v>
       </c>
       <c r="C45" t="n">
         <v>22.72</v>
@@ -1947,13 +1947,13 @@
         <v>22.72</v>
       </c>
       <c r="E45" t="n">
-        <v>22.72</v>
+        <v>22.5</v>
       </c>
       <c r="F45" t="n">
-        <v>1066.4967</v>
+        <v>17370.2704</v>
       </c>
       <c r="G45" t="n">
-        <v>22.69216666666669</v>
+        <v>22.70483333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>22.79</v>
+        <v>22.72</v>
       </c>
       <c r="C46" t="n">
-        <v>22.79</v>
+        <v>22.72</v>
       </c>
       <c r="D46" t="n">
-        <v>22.79</v>
+        <v>22.72</v>
       </c>
       <c r="E46" t="n">
-        <v>22.79</v>
+        <v>22.72</v>
       </c>
       <c r="F46" t="n">
-        <v>23</v>
+        <v>1066.4967</v>
       </c>
       <c r="G46" t="n">
-        <v>22.68366666666669</v>
+        <v>22.69216666666669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>22.51</v>
+        <v>22.79</v>
       </c>
       <c r="C47" t="n">
-        <v>22.51</v>
+        <v>22.79</v>
       </c>
       <c r="D47" t="n">
-        <v>22.51</v>
+        <v>22.79</v>
       </c>
       <c r="E47" t="n">
-        <v>22.51</v>
+        <v>22.79</v>
       </c>
       <c r="F47" t="n">
-        <v>302.432</v>
+        <v>23</v>
       </c>
       <c r="G47" t="n">
-        <v>22.67083333333336</v>
+        <v>22.68366666666669</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>22.6</v>
+        <v>22.51</v>
       </c>
       <c r="C48" t="n">
-        <v>22.6</v>
+        <v>22.51</v>
       </c>
       <c r="D48" t="n">
-        <v>22.6</v>
+        <v>22.51</v>
       </c>
       <c r="E48" t="n">
-        <v>22.6</v>
+        <v>22.51</v>
       </c>
       <c r="F48" t="n">
-        <v>576.8822</v>
+        <v>302.432</v>
       </c>
       <c r="G48" t="n">
-        <v>22.65950000000002</v>
+        <v>22.67083333333336</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="C49" t="n">
-        <v>22.53</v>
+        <v>22.6</v>
       </c>
       <c r="D49" t="n">
-        <v>22.93</v>
+        <v>22.6</v>
       </c>
       <c r="E49" t="n">
-        <v>22.53</v>
+        <v>22.6</v>
       </c>
       <c r="F49" t="n">
-        <v>115110.7514</v>
+        <v>576.8822</v>
       </c>
       <c r="G49" t="n">
-        <v>22.65166666666669</v>
+        <v>22.65950000000002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>22.86</v>
+        <v>22.7</v>
       </c>
       <c r="C50" t="n">
-        <v>22.86</v>
+        <v>22.53</v>
       </c>
       <c r="D50" t="n">
-        <v>22.86</v>
+        <v>22.93</v>
       </c>
       <c r="E50" t="n">
-        <v>22.86</v>
+        <v>22.53</v>
       </c>
       <c r="F50" t="n">
-        <v>37400</v>
+        <v>115110.7514</v>
       </c>
       <c r="G50" t="n">
-        <v>22.65783333333335</v>
+        <v>22.65166666666669</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23</v>
+        <v>22.86</v>
       </c>
       <c r="C51" t="n">
-        <v>23.48</v>
+        <v>22.86</v>
       </c>
       <c r="D51" t="n">
-        <v>23.48</v>
+        <v>22.86</v>
       </c>
       <c r="E51" t="n">
-        <v>23</v>
+        <v>22.86</v>
       </c>
       <c r="F51" t="n">
-        <v>31899.4638</v>
+        <v>37400</v>
       </c>
       <c r="G51" t="n">
-        <v>22.67533333333335</v>
+        <v>22.65783333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23.48</v>
+        <v>23</v>
       </c>
       <c r="C52" t="n">
         <v>23.48</v>
@@ -2192,13 +2192,13 @@
         <v>23.48</v>
       </c>
       <c r="E52" t="n">
-        <v>23.48</v>
+        <v>23</v>
       </c>
       <c r="F52" t="n">
-        <v>524</v>
+        <v>31899.4638</v>
       </c>
       <c r="G52" t="n">
-        <v>22.68383333333335</v>
+        <v>22.67533333333335</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23.21</v>
+        <v>23.48</v>
       </c>
       <c r="C53" t="n">
         <v>23.48</v>
@@ -2227,13 +2227,13 @@
         <v>23.48</v>
       </c>
       <c r="E53" t="n">
-        <v>23.21</v>
+        <v>23.48</v>
       </c>
       <c r="F53" t="n">
-        <v>88675.4127</v>
+        <v>524</v>
       </c>
       <c r="G53" t="n">
-        <v>22.69366666666668</v>
+        <v>22.68383333333335</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23.14</v>
+        <v>23.21</v>
       </c>
       <c r="C54" t="n">
-        <v>23.4</v>
+        <v>23.48</v>
       </c>
       <c r="D54" t="n">
-        <v>23.4</v>
+        <v>23.48</v>
       </c>
       <c r="E54" t="n">
-        <v>23.14</v>
+        <v>23.21</v>
       </c>
       <c r="F54" t="n">
-        <v>4385.8009</v>
+        <v>88675.4127</v>
       </c>
       <c r="G54" t="n">
-        <v>22.70083333333335</v>
+        <v>22.69366666666668</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23.39</v>
+        <v>23.14</v>
       </c>
       <c r="C55" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="D55" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="E55" t="n">
-        <v>23.39</v>
+        <v>23.14</v>
       </c>
       <c r="F55" t="n">
-        <v>153912.6723</v>
+        <v>4385.8009</v>
       </c>
       <c r="G55" t="n">
-        <v>22.70916666666669</v>
+        <v>22.70083333333335</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23.49</v>
+        <v>23.39</v>
       </c>
       <c r="C56" t="n">
-        <v>23.49</v>
+        <v>23.5</v>
       </c>
       <c r="D56" t="n">
-        <v>23.49</v>
+        <v>23.5</v>
       </c>
       <c r="E56" t="n">
-        <v>23.49</v>
+        <v>23.39</v>
       </c>
       <c r="F56" t="n">
-        <v>1400.4414</v>
+        <v>153912.6723</v>
       </c>
       <c r="G56" t="n">
-        <v>22.72533333333335</v>
+        <v>22.70916666666669</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23.5</v>
+        <v>23.49</v>
       </c>
       <c r="C57" t="n">
-        <v>23.6</v>
+        <v>23.49</v>
       </c>
       <c r="D57" t="n">
-        <v>23.6</v>
+        <v>23.49</v>
       </c>
       <c r="E57" t="n">
-        <v>23.5</v>
+        <v>23.49</v>
       </c>
       <c r="F57" t="n">
-        <v>120074.1819</v>
+        <v>1400.4414</v>
       </c>
       <c r="G57" t="n">
-        <v>22.74033333333335</v>
+        <v>22.72533333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C58" t="n">
         <v>23.6</v>
@@ -2402,13 +2402,13 @@
         <v>23.6</v>
       </c>
       <c r="E58" t="n">
-        <v>23.59</v>
+        <v>23.5</v>
       </c>
       <c r="F58" t="n">
-        <v>26628.3783</v>
+        <v>120074.1819</v>
       </c>
       <c r="G58" t="n">
-        <v>22.75533333333335</v>
+        <v>22.74033333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>23.6</v>
       </c>
       <c r="C59" t="n">
-        <v>23.84</v>
+        <v>23.6</v>
       </c>
       <c r="D59" t="n">
-        <v>23.84</v>
+        <v>23.6</v>
       </c>
       <c r="E59" t="n">
-        <v>23.6</v>
+        <v>23.59</v>
       </c>
       <c r="F59" t="n">
-        <v>25000</v>
+        <v>26628.3783</v>
       </c>
       <c r="G59" t="n">
-        <v>22.77433333333335</v>
+        <v>22.75533333333335</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23.84</v>
+        <v>23.6</v>
       </c>
       <c r="C60" t="n">
         <v>23.84</v>
@@ -2472,13 +2472,13 @@
         <v>23.84</v>
       </c>
       <c r="E60" t="n">
-        <v>23.84</v>
+        <v>23.6</v>
       </c>
       <c r="F60" t="n">
-        <v>1702.908</v>
+        <v>25000</v>
       </c>
       <c r="G60" t="n">
-        <v>22.79633333333334</v>
+        <v>22.77433333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2507,13 +2507,13 @@
         <v>23.84</v>
       </c>
       <c r="E61" t="n">
-        <v>23.62</v>
+        <v>23.84</v>
       </c>
       <c r="F61" t="n">
-        <v>144136.506</v>
+        <v>1702.908</v>
       </c>
       <c r="G61" t="n">
-        <v>22.81866666666668</v>
+        <v>22.79633333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>23.84</v>
       </c>
       <c r="C62" t="n">
-        <v>23.98</v>
+        <v>23.84</v>
       </c>
       <c r="D62" t="n">
-        <v>23.98</v>
+        <v>23.84</v>
       </c>
       <c r="E62" t="n">
-        <v>23.84</v>
+        <v>23.62</v>
       </c>
       <c r="F62" t="n">
-        <v>191961.3766</v>
+        <v>144136.506</v>
       </c>
       <c r="G62" t="n">
-        <v>22.84333333333334</v>
+        <v>22.81866666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="C63" t="n">
         <v>23.98</v>
       </c>
-      <c r="C63" t="n">
-        <v>24.79</v>
-      </c>
       <c r="D63" t="n">
-        <v>24.79</v>
+        <v>23.98</v>
       </c>
       <c r="E63" t="n">
-        <v>23.98</v>
+        <v>23.84</v>
       </c>
       <c r="F63" t="n">
-        <v>283633.6281</v>
+        <v>191961.3766</v>
       </c>
       <c r="G63" t="n">
-        <v>22.88150000000001</v>
+        <v>22.84333333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>24.4</v>
+        <v>23.98</v>
       </c>
       <c r="C64" t="n">
-        <v>25.32</v>
+        <v>24.79</v>
       </c>
       <c r="D64" t="n">
-        <v>25.32</v>
+        <v>24.79</v>
       </c>
       <c r="E64" t="n">
-        <v>24.31</v>
+        <v>23.98</v>
       </c>
       <c r="F64" t="n">
-        <v>176569.4201</v>
+        <v>283633.6281</v>
       </c>
       <c r="G64" t="n">
-        <v>22.92850000000001</v>
+        <v>22.88150000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>25.29</v>
+        <v>24.4</v>
       </c>
       <c r="C65" t="n">
-        <v>25.49</v>
+        <v>25.32</v>
       </c>
       <c r="D65" t="n">
-        <v>25.5</v>
+        <v>25.32</v>
       </c>
       <c r="E65" t="n">
-        <v>25.29</v>
+        <v>24.31</v>
       </c>
       <c r="F65" t="n">
-        <v>191513.8671</v>
+        <v>176569.4201</v>
       </c>
       <c r="G65" t="n">
-        <v>22.97833333333334</v>
+        <v>22.92850000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="C66" t="n">
         <v>25.49</v>
       </c>
-      <c r="C66" t="n">
-        <v>24.9</v>
-      </c>
       <c r="D66" t="n">
-        <v>25.49</v>
+        <v>25.5</v>
       </c>
       <c r="E66" t="n">
-        <v>24.9</v>
+        <v>25.29</v>
       </c>
       <c r="F66" t="n">
-        <v>12309.1064</v>
+        <v>191513.8671</v>
       </c>
       <c r="G66" t="n">
-        <v>23.01950000000001</v>
+        <v>22.97833333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>25.48</v>
+        <v>25.49</v>
       </c>
       <c r="C67" t="n">
-        <v>25.5</v>
+        <v>24.9</v>
       </c>
       <c r="D67" t="n">
-        <v>25.5</v>
+        <v>25.49</v>
       </c>
       <c r="E67" t="n">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="F67" t="n">
-        <v>192374.3992</v>
+        <v>12309.1064</v>
       </c>
       <c r="G67" t="n">
-        <v>23.07066666666667</v>
+        <v>23.01950000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="C68" t="n">
         <v>25.5</v>
       </c>
-      <c r="C68" t="n">
-        <v>26.44</v>
-      </c>
       <c r="D68" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="E68" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="F68" t="n">
-        <v>475456.2881</v>
+        <v>192374.3992</v>
       </c>
       <c r="G68" t="n">
-        <v>23.13750000000001</v>
+        <v>23.07066666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>26.44</v>
+        <v>25.5</v>
       </c>
       <c r="C69" t="n">
         <v>26.44</v>
       </c>
       <c r="D69" t="n">
-        <v>26.44</v>
+        <v>26.5</v>
       </c>
       <c r="E69" t="n">
-        <v>26.44</v>
+        <v>25.5</v>
       </c>
       <c r="F69" t="n">
-        <v>9407.374900000001</v>
+        <v>475456.2881</v>
       </c>
       <c r="G69" t="n">
-        <v>23.20283333333334</v>
+        <v>23.13750000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26.59</v>
+        <v>26.44</v>
       </c>
       <c r="C70" t="n">
-        <v>26.59</v>
+        <v>26.44</v>
       </c>
       <c r="D70" t="n">
-        <v>26.59</v>
+        <v>26.44</v>
       </c>
       <c r="E70" t="n">
-        <v>26.59</v>
+        <v>26.44</v>
       </c>
       <c r="F70" t="n">
-        <v>884.0955</v>
+        <v>9407.374900000001</v>
       </c>
       <c r="G70" t="n">
-        <v>23.27066666666667</v>
+        <v>23.20283333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>26.48</v>
+        <v>26.59</v>
       </c>
       <c r="C71" t="n">
-        <v>26.48</v>
+        <v>26.59</v>
       </c>
       <c r="D71" t="n">
-        <v>26.48</v>
+        <v>26.59</v>
       </c>
       <c r="E71" t="n">
-        <v>26.48</v>
+        <v>26.59</v>
       </c>
       <c r="F71" t="n">
-        <v>14200</v>
+        <v>884.0955</v>
       </c>
       <c r="G71" t="n">
-        <v>23.33050000000001</v>
+        <v>23.27066666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>26.49</v>
+        <v>26.48</v>
       </c>
       <c r="C72" t="n">
-        <v>26.5</v>
+        <v>26.48</v>
       </c>
       <c r="D72" t="n">
-        <v>26.99</v>
+        <v>26.48</v>
       </c>
       <c r="E72" t="n">
-        <v>26.49</v>
+        <v>26.48</v>
       </c>
       <c r="F72" t="n">
-        <v>230795.2058</v>
+        <v>14200</v>
       </c>
       <c r="G72" t="n">
-        <v>23.39150000000001</v>
+        <v>23.33050000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>26.71</v>
+        <v>26.49</v>
       </c>
       <c r="C73" t="n">
-        <v>26.71</v>
+        <v>26.5</v>
       </c>
       <c r="D73" t="n">
-        <v>27.8</v>
+        <v>26.99</v>
       </c>
       <c r="E73" t="n">
-        <v>26.7</v>
+        <v>26.49</v>
       </c>
       <c r="F73" t="n">
-        <v>194355.0012928417</v>
+        <v>230795.2058</v>
       </c>
       <c r="G73" t="n">
-        <v>23.45600000000001</v>
+        <v>23.39150000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27</v>
+        <v>26.71</v>
       </c>
       <c r="C74" t="n">
-        <v>27</v>
+        <v>26.71</v>
       </c>
       <c r="D74" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="E74" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="F74" t="n">
-        <v>13771.82</v>
+        <v>194355.0012928417</v>
       </c>
       <c r="G74" t="n">
-        <v>23.52516666666668</v>
+        <v>23.45600000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="C75" t="n">
-        <v>27.54</v>
+        <v>27</v>
       </c>
       <c r="D75" t="n">
-        <v>27.54</v>
+        <v>27</v>
       </c>
       <c r="E75" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="F75" t="n">
-        <v>70140.53516472744</v>
+        <v>13771.82</v>
       </c>
       <c r="G75" t="n">
-        <v>23.60333333333335</v>
+        <v>23.52516666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.29</v>
+        <v>26.9</v>
       </c>
       <c r="C76" t="n">
-        <v>26.7</v>
+        <v>27.54</v>
       </c>
       <c r="D76" t="n">
-        <v>27.5</v>
+        <v>27.54</v>
       </c>
       <c r="E76" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F76" t="n">
-        <v>156054.2189740612</v>
+        <v>70140.53516472744</v>
       </c>
       <c r="G76" t="n">
-        <v>23.67016666666668</v>
+        <v>23.60333333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.6</v>
+        <v>27.29</v>
       </c>
       <c r="C77" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="D77" t="n">
-        <v>26.6</v>
+        <v>27.5</v>
       </c>
       <c r="E77" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="F77" t="n">
-        <v>2521.1046</v>
+        <v>156054.2189740612</v>
       </c>
       <c r="G77" t="n">
-        <v>23.73183333333334</v>
+        <v>23.67016666666668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>26.6</v>
       </c>
       <c r="C78" t="n">
-        <v>25.85</v>
+        <v>26.6</v>
       </c>
       <c r="D78" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E78" t="n">
-        <v>25.85</v>
+        <v>26.6</v>
       </c>
       <c r="F78" t="n">
-        <v>89751.246</v>
+        <v>2521.1046</v>
       </c>
       <c r="G78" t="n">
-        <v>23.78433333333334</v>
+        <v>23.73183333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="C79" t="n">
-        <v>26.49</v>
+        <v>25.85</v>
       </c>
       <c r="D79" t="n">
-        <v>26.49</v>
+        <v>26.7</v>
       </c>
       <c r="E79" t="n">
-        <v>26</v>
+        <v>25.85</v>
       </c>
       <c r="F79" t="n">
-        <v>12379.0125</v>
+        <v>89751.246</v>
       </c>
       <c r="G79" t="n">
-        <v>23.84416666666667</v>
+        <v>23.78433333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25.89</v>
+        <v>26</v>
       </c>
       <c r="C80" t="n">
-        <v>27.2</v>
+        <v>26.49</v>
       </c>
       <c r="D80" t="n">
-        <v>27.2</v>
+        <v>26.49</v>
       </c>
       <c r="E80" t="n">
-        <v>25.89</v>
+        <v>26</v>
       </c>
       <c r="F80" t="n">
-        <v>75718.57339999999</v>
+        <v>12379.0125</v>
       </c>
       <c r="G80" t="n">
-        <v>23.912</v>
+        <v>23.84416666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="C81" t="n">
         <v>27.2</v>
       </c>
-      <c r="C81" t="n">
-        <v>27.32</v>
-      </c>
       <c r="D81" t="n">
-        <v>27.78</v>
+        <v>27.2</v>
       </c>
       <c r="E81" t="n">
-        <v>26.56</v>
+        <v>25.89</v>
       </c>
       <c r="F81" t="n">
-        <v>156243.7339</v>
+        <v>75718.57339999999</v>
       </c>
       <c r="G81" t="n">
-        <v>23.99033333333334</v>
+        <v>23.912</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.48</v>
+        <v>27.2</v>
       </c>
       <c r="C82" t="n">
-        <v>27.22</v>
+        <v>27.32</v>
       </c>
       <c r="D82" t="n">
-        <v>27.88</v>
+        <v>27.78</v>
       </c>
       <c r="E82" t="n">
-        <v>26.8</v>
+        <v>26.56</v>
       </c>
       <c r="F82" t="n">
-        <v>663430.7786860114</v>
+        <v>156243.7339</v>
       </c>
       <c r="G82" t="n">
-        <v>24.06566666666667</v>
+        <v>23.99033333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.1</v>
+        <v>27.48</v>
       </c>
       <c r="C83" t="n">
-        <v>27.45</v>
+        <v>27.22</v>
       </c>
       <c r="D83" t="n">
-        <v>27.7</v>
+        <v>27.88</v>
       </c>
       <c r="E83" t="n">
         <v>26.8</v>
       </c>
       <c r="F83" t="n">
-        <v>215713.3323</v>
+        <v>663430.7786860114</v>
       </c>
       <c r="G83" t="n">
-        <v>24.14566666666667</v>
+        <v>24.06566666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C84" t="n">
-        <v>27.7</v>
+        <v>27.45</v>
       </c>
       <c r="D84" t="n">
         <v>27.7</v>
       </c>
       <c r="E84" t="n">
-        <v>26.81</v>
+        <v>26.8</v>
       </c>
       <c r="F84" t="n">
-        <v>62766.7322</v>
+        <v>215713.3323</v>
       </c>
       <c r="G84" t="n">
-        <v>24.22733333333334</v>
+        <v>24.14566666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.48</v>
+        <v>27.3</v>
       </c>
       <c r="C85" t="n">
-        <v>27.46</v>
+        <v>27.7</v>
       </c>
       <c r="D85" t="n">
-        <v>27.57</v>
+        <v>27.7</v>
       </c>
       <c r="E85" t="n">
-        <v>27.46</v>
+        <v>26.81</v>
       </c>
       <c r="F85" t="n">
-        <v>9217.066971947987</v>
+        <v>62766.7322</v>
       </c>
       <c r="G85" t="n">
-        <v>24.30500000000001</v>
+        <v>24.22733333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.21</v>
+        <v>27.48</v>
       </c>
       <c r="C86" t="n">
-        <v>26.91</v>
+        <v>27.46</v>
       </c>
       <c r="D86" t="n">
-        <v>27.21</v>
+        <v>27.57</v>
       </c>
       <c r="E86" t="n">
-        <v>26.91</v>
+        <v>27.46</v>
       </c>
       <c r="F86" t="n">
-        <v>72703.87791264241</v>
+        <v>9217.066971947987</v>
       </c>
       <c r="G86" t="n">
-        <v>24.37750000000001</v>
+        <v>24.30500000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="C87" t="n">
         <v>26.91</v>
       </c>
-      <c r="C87" t="n">
-        <v>25.7</v>
-      </c>
       <c r="D87" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="E87" t="n">
         <v>26.91</v>
       </c>
-      <c r="E87" t="n">
-        <v>25.7</v>
-      </c>
       <c r="F87" t="n">
-        <v>14753.6028</v>
+        <v>72703.87791264241</v>
       </c>
       <c r="G87" t="n">
-        <v>24.42966666666668</v>
+        <v>24.37750000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>25.74</v>
+        <v>26.91</v>
       </c>
       <c r="C88" t="n">
-        <v>26.88</v>
+        <v>25.7</v>
       </c>
       <c r="D88" t="n">
-        <v>27.4</v>
+        <v>26.91</v>
       </c>
       <c r="E88" t="n">
-        <v>25.73</v>
+        <v>25.7</v>
       </c>
       <c r="F88" t="n">
-        <v>84451.8348</v>
+        <v>14753.6028</v>
       </c>
       <c r="G88" t="n">
-        <v>24.49766666666668</v>
+        <v>24.42966666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27.36</v>
+        <v>25.74</v>
       </c>
       <c r="C89" t="n">
-        <v>27.92</v>
+        <v>26.88</v>
       </c>
       <c r="D89" t="n">
-        <v>27.98</v>
+        <v>27.4</v>
       </c>
       <c r="E89" t="n">
-        <v>26.3</v>
+        <v>25.73</v>
       </c>
       <c r="F89" t="n">
-        <v>199325.4191</v>
+        <v>84451.8348</v>
       </c>
       <c r="G89" t="n">
-        <v>24.58300000000002</v>
+        <v>24.49766666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="C90" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="D90" t="n">
         <v>27.98</v>
       </c>
-      <c r="C90" t="n">
-        <v>27.41</v>
-      </c>
-      <c r="D90" t="n">
-        <v>29.98</v>
-      </c>
       <c r="E90" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="F90" t="n">
-        <v>300037.9155</v>
+        <v>199325.4191</v>
       </c>
       <c r="G90" t="n">
-        <v>24.66183333333335</v>
+        <v>24.58300000000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>28.65</v>
+        <v>27.98</v>
       </c>
       <c r="C91" t="n">
-        <v>28</v>
+        <v>27.41</v>
       </c>
       <c r="D91" t="n">
-        <v>31.38</v>
+        <v>29.98</v>
       </c>
       <c r="E91" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="F91" t="n">
-        <v>346209.699</v>
+        <v>300037.9155</v>
       </c>
       <c r="G91" t="n">
-        <v>24.75050000000001</v>
+        <v>24.66183333333335</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="C92" t="n">
         <v>28</v>
-      </c>
-      <c r="C92" t="n">
-        <v>29.25</v>
       </c>
       <c r="D92" t="n">
         <v>31.38</v>
       </c>
       <c r="E92" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="F92" t="n">
-        <v>240322.2146</v>
+        <v>346209.699</v>
       </c>
       <c r="G92" t="n">
-        <v>24.86200000000002</v>
+        <v>24.75050000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>29.75</v>
+        <v>28</v>
       </c>
       <c r="C93" t="n">
-        <v>31.38</v>
+        <v>29.25</v>
       </c>
       <c r="D93" t="n">
         <v>31.38</v>
       </c>
       <c r="E93" t="n">
-        <v>29.75</v>
+        <v>28</v>
       </c>
       <c r="F93" t="n">
-        <v>432607.1677</v>
+        <v>240322.2146</v>
       </c>
       <c r="G93" t="n">
-        <v>25.00916666666668</v>
+        <v>24.86200000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>31.4</v>
+        <v>29.75</v>
       </c>
       <c r="C94" t="n">
-        <v>32.92</v>
+        <v>31.38</v>
       </c>
       <c r="D94" t="n">
-        <v>35.5</v>
+        <v>31.38</v>
       </c>
       <c r="E94" t="n">
-        <v>31.38</v>
+        <v>29.75</v>
       </c>
       <c r="F94" t="n">
-        <v>653666.7667578545</v>
+        <v>432607.1677</v>
       </c>
       <c r="G94" t="n">
-        <v>25.18200000000002</v>
+        <v>25.00916666666668</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>32.91</v>
+        <v>31.4</v>
       </c>
       <c r="C95" t="n">
-        <v>32.67</v>
+        <v>32.92</v>
       </c>
       <c r="D95" t="n">
-        <v>34.6</v>
+        <v>35.5</v>
       </c>
       <c r="E95" t="n">
-        <v>31.37</v>
+        <v>31.38</v>
       </c>
       <c r="F95" t="n">
-        <v>533661.8296551033</v>
+        <v>653666.7667578545</v>
       </c>
       <c r="G95" t="n">
-        <v>25.35150000000002</v>
+        <v>25.18200000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>31.57</v>
+        <v>32.91</v>
       </c>
       <c r="C96" t="n">
-        <v>32.5</v>
+        <v>32.67</v>
       </c>
       <c r="D96" t="n">
-        <v>32.63</v>
+        <v>34.6</v>
       </c>
       <c r="E96" t="n">
-        <v>31.57</v>
+        <v>31.37</v>
       </c>
       <c r="F96" t="n">
-        <v>55188.91</v>
+        <v>533661.8296551033</v>
       </c>
       <c r="G96" t="n">
-        <v>25.51816666666669</v>
+        <v>25.35150000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>32.5</v>
+        <v>31.57</v>
       </c>
       <c r="C97" t="n">
         <v>32.5</v>
       </c>
       <c r="D97" t="n">
-        <v>32.5</v>
+        <v>32.63</v>
       </c>
       <c r="E97" t="n">
-        <v>31.51</v>
+        <v>31.57</v>
       </c>
       <c r="F97" t="n">
-        <v>166386.9025</v>
+        <v>55188.91</v>
       </c>
       <c r="G97" t="n">
-        <v>25.68483333333335</v>
+        <v>25.51816666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,28 +3793,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>31.62</v>
+        <v>32.5</v>
       </c>
       <c r="C98" t="n">
-        <v>32.21</v>
+        <v>32.5</v>
       </c>
       <c r="D98" t="n">
-        <v>33.5</v>
+        <v>32.5</v>
       </c>
       <c r="E98" t="n">
-        <v>31.6</v>
+        <v>31.51</v>
       </c>
       <c r="F98" t="n">
-        <v>85140.5459</v>
+        <v>166386.9025</v>
       </c>
       <c r="G98" t="n">
-        <v>25.84666666666669</v>
+        <v>25.68483333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3828,28 +3828,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>33.1</v>
+        <v>31.62</v>
       </c>
       <c r="C99" t="n">
-        <v>36</v>
+        <v>32.21</v>
       </c>
       <c r="D99" t="n">
-        <v>36</v>
+        <v>33.5</v>
       </c>
       <c r="E99" t="n">
-        <v>32.28</v>
+        <v>31.6</v>
       </c>
       <c r="F99" t="n">
-        <v>533587.9929870423</v>
+        <v>85140.5459</v>
       </c>
       <c r="G99" t="n">
-        <v>26.06666666666669</v>
+        <v>25.84666666666669</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3863,28 +3863,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>35.6</v>
+        <v>33.1</v>
       </c>
       <c r="C100" t="n">
-        <v>32.78</v>
+        <v>36</v>
       </c>
       <c r="D100" t="n">
         <v>36</v>
       </c>
       <c r="E100" t="n">
-        <v>32.08</v>
+        <v>32.28</v>
       </c>
       <c r="F100" t="n">
-        <v>386079.5667</v>
+        <v>533587.9929870423</v>
       </c>
       <c r="G100" t="n">
-        <v>26.23966666666669</v>
+        <v>26.06666666666669</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>32.81</v>
+        <v>35.6</v>
       </c>
       <c r="C101" t="n">
-        <v>34.52</v>
+        <v>32.78</v>
       </c>
       <c r="D101" t="n">
-        <v>34.8</v>
+        <v>36</v>
       </c>
       <c r="E101" t="n">
-        <v>32.81</v>
+        <v>32.08</v>
       </c>
       <c r="F101" t="n">
-        <v>257975.7961</v>
+        <v>386079.5667</v>
       </c>
       <c r="G101" t="n">
-        <v>26.44166666666668</v>
+        <v>26.23966666666669</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>34</v>
+        <v>32.81</v>
       </c>
       <c r="C102" t="n">
-        <v>32</v>
+        <v>34.52</v>
       </c>
       <c r="D102" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E102" t="n">
-        <v>29.12</v>
+        <v>32.81</v>
       </c>
       <c r="F102" t="n">
-        <v>872476.5644962358</v>
+        <v>257975.7961</v>
       </c>
       <c r="G102" t="n">
-        <v>26.60000000000002</v>
+        <v>26.44166666666668</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>30.6</v>
+        <v>34</v>
       </c>
       <c r="C103" t="n">
-        <v>30.1</v>
+        <v>32</v>
       </c>
       <c r="D103" t="n">
-        <v>30.62</v>
+        <v>34.7</v>
       </c>
       <c r="E103" t="n">
-        <v>29.77</v>
+        <v>29.12</v>
       </c>
       <c r="F103" t="n">
-        <v>316913.1464681063</v>
+        <v>872476.5644962358</v>
       </c>
       <c r="G103" t="n">
-        <v>26.72666666666668</v>
+        <v>26.60000000000002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C104" t="n">
         <v>30.1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>30.14</v>
       </c>
       <c r="D104" t="n">
         <v>30.62</v>
       </c>
       <c r="E104" t="n">
-        <v>29.87</v>
+        <v>29.77</v>
       </c>
       <c r="F104" t="n">
-        <v>466674.9845518033</v>
+        <v>316913.1464681063</v>
       </c>
       <c r="G104" t="n">
-        <v>26.85033333333335</v>
+        <v>26.72666666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4041,19 @@
         <v>30.1</v>
       </c>
       <c r="C105" t="n">
-        <v>29.66</v>
+        <v>30.14</v>
       </c>
       <c r="D105" t="n">
-        <v>30.1</v>
+        <v>30.62</v>
       </c>
       <c r="E105" t="n">
-        <v>28.89</v>
+        <v>29.87</v>
       </c>
       <c r="F105" t="n">
-        <v>1045980.0564</v>
+        <v>466674.9845518033</v>
       </c>
       <c r="G105" t="n">
-        <v>26.96600000000002</v>
+        <v>26.85033333333335</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>29.13</v>
+        <v>30.1</v>
       </c>
       <c r="C106" t="n">
         <v>29.66</v>
       </c>
       <c r="D106" t="n">
-        <v>29.66</v>
+        <v>30.1</v>
       </c>
       <c r="E106" t="n">
         <v>28.89</v>
       </c>
       <c r="F106" t="n">
-        <v>164519.0638</v>
+        <v>1045980.0564</v>
       </c>
       <c r="G106" t="n">
-        <v>27.08050000000002</v>
+        <v>26.96600000000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>29.4</v>
+        <v>29.13</v>
       </c>
       <c r="C107" t="n">
-        <v>28.1</v>
+        <v>29.66</v>
       </c>
       <c r="D107" t="n">
-        <v>29.4</v>
+        <v>29.66</v>
       </c>
       <c r="E107" t="n">
-        <v>27.58</v>
+        <v>28.89</v>
       </c>
       <c r="F107" t="n">
-        <v>787594.7369235732</v>
+        <v>164519.0638</v>
       </c>
       <c r="G107" t="n">
-        <v>27.17366666666669</v>
+        <v>27.08050000000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>28.12</v>
+        <v>29.4</v>
       </c>
       <c r="C108" t="n">
-        <v>27.83</v>
+        <v>28.1</v>
       </c>
       <c r="D108" t="n">
-        <v>28.56</v>
+        <v>29.4</v>
       </c>
       <c r="E108" t="n">
-        <v>27.34</v>
+        <v>27.58</v>
       </c>
       <c r="F108" t="n">
-        <v>768029.551</v>
+        <v>787594.7369235732</v>
       </c>
       <c r="G108" t="n">
-        <v>27.26083333333336</v>
+        <v>27.17366666666669</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.73</v>
+        <v>28.12</v>
       </c>
       <c r="C109" t="n">
-        <v>27</v>
+        <v>27.83</v>
       </c>
       <c r="D109" t="n">
-        <v>28.47</v>
+        <v>28.56</v>
       </c>
       <c r="E109" t="n">
-        <v>27</v>
+        <v>27.34</v>
       </c>
       <c r="F109" t="n">
-        <v>505626.812032947</v>
+        <v>768029.551</v>
       </c>
       <c r="G109" t="n">
-        <v>27.33533333333336</v>
+        <v>27.26083333333336</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.1</v>
+        <v>27.73</v>
       </c>
       <c r="C110" t="n">
-        <v>27.39</v>
+        <v>27</v>
       </c>
       <c r="D110" t="n">
-        <v>27.5</v>
+        <v>28.47</v>
       </c>
       <c r="E110" t="n">
-        <v>26.76</v>
+        <v>27</v>
       </c>
       <c r="F110" t="n">
-        <v>233542.6666839627</v>
+        <v>505626.812032947</v>
       </c>
       <c r="G110" t="n">
-        <v>27.41083333333336</v>
+        <v>27.33533333333336</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.36</v>
+        <v>27.1</v>
       </c>
       <c r="C111" t="n">
-        <v>27.1</v>
+        <v>27.39</v>
       </c>
       <c r="D111" t="n">
-        <v>27.36</v>
+        <v>27.5</v>
       </c>
       <c r="E111" t="n">
-        <v>26.8</v>
+        <v>26.76</v>
       </c>
       <c r="F111" t="n">
-        <v>375903.2854</v>
+        <v>233542.6666839627</v>
       </c>
       <c r="G111" t="n">
-        <v>27.47116666666669</v>
+        <v>27.41083333333336</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="C112" t="n">
         <v>27.1</v>
       </c>
-      <c r="C112" t="n">
-        <v>27.26</v>
-      </c>
       <c r="D112" t="n">
-        <v>27.27</v>
+        <v>27.36</v>
       </c>
       <c r="E112" t="n">
         <v>26.8</v>
       </c>
       <c r="F112" t="n">
-        <v>158091.4534</v>
+        <v>375903.2854</v>
       </c>
       <c r="G112" t="n">
-        <v>27.53416666666669</v>
+        <v>27.47116666666669</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.19</v>
+        <v>27.1</v>
       </c>
       <c r="C113" t="n">
-        <v>26.97</v>
+        <v>27.26</v>
       </c>
       <c r="D113" t="n">
-        <v>27.2</v>
+        <v>27.27</v>
       </c>
       <c r="E113" t="n">
-        <v>26.92</v>
+        <v>26.8</v>
       </c>
       <c r="F113" t="n">
-        <v>320627.7138</v>
+        <v>158091.4534</v>
       </c>
       <c r="G113" t="n">
-        <v>27.59233333333335</v>
+        <v>27.53416666666669</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="C114" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="D114" t="n">
         <v>27.2</v>
       </c>
-      <c r="C114" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="D114" t="n">
-        <v>27.64</v>
-      </c>
       <c r="E114" t="n">
-        <v>26.97</v>
+        <v>26.92</v>
       </c>
       <c r="F114" t="n">
-        <v>238195.5916</v>
+        <v>320627.7138</v>
       </c>
       <c r="G114" t="n">
-        <v>27.65450000000002</v>
+        <v>27.59233333333335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="D115" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="E115" t="n">
         <v>26.97</v>
       </c>
-      <c r="C115" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D115" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>26.6</v>
-      </c>
       <c r="F115" t="n">
-        <v>209393.9383</v>
+        <v>238195.5916</v>
       </c>
       <c r="G115" t="n">
-        <v>27.70783333333336</v>
+        <v>27.65450000000002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.87</v>
+        <v>26.97</v>
       </c>
       <c r="C116" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="D116" t="n">
-        <v>27.16</v>
+        <v>27.5</v>
       </c>
       <c r="E116" t="n">
-        <v>26.53</v>
+        <v>26.6</v>
       </c>
       <c r="F116" t="n">
-        <v>46542.3635</v>
+        <v>209393.9383</v>
       </c>
       <c r="G116" t="n">
-        <v>27.76466666666669</v>
+        <v>27.70783333333336</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="C117" t="n">
         <v>26.9</v>
       </c>
-      <c r="C117" t="n">
-        <v>26.21</v>
-      </c>
       <c r="D117" t="n">
-        <v>26.9</v>
+        <v>27.16</v>
       </c>
       <c r="E117" t="n">
-        <v>26.21</v>
+        <v>26.53</v>
       </c>
       <c r="F117" t="n">
-        <v>236657.6555763198</v>
+        <v>46542.3635</v>
       </c>
       <c r="G117" t="n">
-        <v>27.80816666666669</v>
+        <v>27.76466666666669</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C118" t="n">
         <v>26.21</v>
       </c>
-      <c r="C118" t="n">
-        <v>26.16</v>
-      </c>
       <c r="D118" t="n">
-        <v>26.49</v>
+        <v>26.9</v>
       </c>
       <c r="E118" t="n">
-        <v>26.11</v>
+        <v>26.21</v>
       </c>
       <c r="F118" t="n">
-        <v>157362.115</v>
+        <v>236657.6555763198</v>
       </c>
       <c r="G118" t="n">
-        <v>27.85083333333336</v>
+        <v>27.80816666666669</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.15</v>
+        <v>26.21</v>
       </c>
       <c r="C119" t="n">
-        <v>26.2</v>
+        <v>26.16</v>
       </c>
       <c r="D119" t="n">
-        <v>26.3</v>
+        <v>26.49</v>
       </c>
       <c r="E119" t="n">
-        <v>26.14</v>
+        <v>26.11</v>
       </c>
       <c r="F119" t="n">
-        <v>177822.922</v>
+        <v>157362.115</v>
       </c>
       <c r="G119" t="n">
-        <v>27.8901666666667</v>
+        <v>27.85083333333336</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>26.22</v>
+        <v>26.15</v>
       </c>
       <c r="C120" t="n">
-        <v>26.42</v>
+        <v>26.2</v>
       </c>
       <c r="D120" t="n">
-        <v>26.43</v>
+        <v>26.3</v>
       </c>
       <c r="E120" t="n">
-        <v>26.21</v>
+        <v>26.14</v>
       </c>
       <c r="F120" t="n">
-        <v>25930.2473753689</v>
+        <v>177822.922</v>
       </c>
       <c r="G120" t="n">
-        <v>27.9331666666667</v>
+        <v>27.8901666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="C121" t="n">
         <v>26.42</v>
       </c>
-      <c r="C121" t="n">
-        <v>26.2</v>
-      </c>
       <c r="D121" t="n">
-        <v>26.42</v>
+        <v>26.43</v>
       </c>
       <c r="E121" t="n">
-        <v>26.2</v>
+        <v>26.21</v>
       </c>
       <c r="F121" t="n">
-        <v>91206.84005291446</v>
+        <v>25930.2473753689</v>
       </c>
       <c r="G121" t="n">
-        <v>27.97250000000004</v>
+        <v>27.9331666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26.17</v>
+        <v>26.42</v>
       </c>
       <c r="C122" t="n">
-        <v>26.15</v>
+        <v>26.2</v>
       </c>
       <c r="D122" t="n">
-        <v>26.41</v>
+        <v>26.42</v>
       </c>
       <c r="E122" t="n">
-        <v>26.15</v>
+        <v>26.2</v>
       </c>
       <c r="F122" t="n">
-        <v>122253.5703</v>
+        <v>91206.84005291446</v>
       </c>
       <c r="G122" t="n">
-        <v>28.00866666666671</v>
+        <v>27.97250000000004</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,79 +4668,73 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="C123" t="n">
         <v>26.15</v>
       </c>
-      <c r="C123" t="n">
+      <c r="D123" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="E123" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="F123" t="n">
+        <v>122253.5703</v>
+      </c>
+      <c r="G123" t="n">
+        <v>28.00866666666671</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="C124" t="n">
         <v>26.02</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D124" t="n">
         <v>26.28</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E124" t="n">
         <v>26.02</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F124" t="n">
         <v>537420.0048</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G124" t="n">
         <v>28.0291666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
         <v>26.15</v>
       </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>26</v>
-      </c>
-      <c r="C124" t="n">
-        <v>25.85</v>
-      </c>
-      <c r="D124" t="n">
-        <v>26</v>
-      </c>
-      <c r="E124" t="n">
-        <v>25.56</v>
-      </c>
-      <c r="F124" t="n">
-        <v>341347.9071</v>
-      </c>
-      <c r="G124" t="n">
-        <v>28.03800000000004</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4750,22 +4744,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>25.86</v>
+        <v>26</v>
       </c>
       <c r="C125" t="n">
-        <v>26.3</v>
+        <v>25.85</v>
       </c>
       <c r="D125" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="E125" t="n">
-        <v>25.86</v>
+        <v>25.56</v>
       </c>
       <c r="F125" t="n">
-        <v>161838.4515</v>
+        <v>341347.9071</v>
       </c>
       <c r="G125" t="n">
-        <v>28.05150000000004</v>
+        <v>28.03800000000004</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
@@ -4774,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>25.85</v>
+        <v>26.02</v>
       </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
@@ -4791,22 +4785,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26</v>
+        <v>25.86</v>
       </c>
       <c r="C126" t="n">
         <v>26.3</v>
       </c>
       <c r="D126" t="n">
-        <v>26.31</v>
+        <v>26.3</v>
       </c>
       <c r="E126" t="n">
-        <v>26</v>
+        <v>25.86</v>
       </c>
       <c r="F126" t="n">
-        <v>87903.5935</v>
+        <v>161838.4515</v>
       </c>
       <c r="G126" t="n">
-        <v>28.07483333333337</v>
+        <v>28.05150000000004</v>
       </c>
       <c r="H126" t="n">
         <v>1</v>
@@ -4815,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>26.3</v>
+        <v>25.85</v>
       </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
@@ -4827,6 +4821,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>26</v>
+      </c>
+      <c r="C127" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="E127" t="n">
+        <v>26</v>
+      </c>
+      <c r="F127" t="n">
+        <v>87903.5935</v>
+      </c>
+      <c r="G127" t="n">
+        <v>28.07483333333337</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-15 BackTest LBA.xlsx
+++ b/BackTest/2020-01-15 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>13599.5981</v>
       </c>
       <c r="G2" t="n">
+        <v>22.79666666666665</v>
+      </c>
+      <c r="H2" t="n">
         <v>23.13500000000003</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>7192.2859</v>
       </c>
       <c r="G3" t="n">
+        <v>22.74466666666665</v>
+      </c>
+      <c r="H3" t="n">
         <v>23.1266666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,25 @@
         <v>1900</v>
       </c>
       <c r="G4" t="n">
+        <v>22.69266666666665</v>
+      </c>
+      <c r="H4" t="n">
         <v>23.11833333333336</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +571,29 @@
         <v>3000</v>
       </c>
       <c r="G5" t="n">
+        <v>22.65933333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>23.11000000000003</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +617,29 @@
         <v>5050</v>
       </c>
       <c r="G6" t="n">
+        <v>22.65999999999998</v>
+      </c>
+      <c r="H6" t="n">
         <v>23.0981666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +663,25 @@
         <v>20404.88</v>
       </c>
       <c r="G7" t="n">
+        <v>22.65999999999998</v>
+      </c>
+      <c r="H7" t="n">
         <v>23.0831666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +705,29 @@
         <v>6594.6269</v>
       </c>
       <c r="G8" t="n">
+        <v>22.62399999999998</v>
+      </c>
+      <c r="H8" t="n">
         <v>23.07100000000003</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="L8" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +751,29 @@
         <v>48099.5735</v>
       </c>
       <c r="G9" t="n">
+        <v>22.59333333333332</v>
+      </c>
+      <c r="H9" t="n">
         <v>23.0541666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="L9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +797,25 @@
         <v>43250</v>
       </c>
       <c r="G10" t="n">
+        <v>22.56333333333332</v>
+      </c>
+      <c r="H10" t="n">
         <v>23.04583333333336</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="L10" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +839,29 @@
         <v>34881.3943</v>
       </c>
       <c r="G11" t="n">
+        <v>22.53133333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>23.03450000000003</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="L11" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +885,29 @@
         <v>61</v>
       </c>
       <c r="G12" t="n">
+        <v>22.55599999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>23.0321666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="L12" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +931,25 @@
         <v>821.2564</v>
       </c>
       <c r="G13" t="n">
+        <v>22.56533333333332</v>
+      </c>
+      <c r="H13" t="n">
         <v>23.0291666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="L13" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +973,29 @@
         <v>43605.8269</v>
       </c>
       <c r="G14" t="n">
+        <v>22.57466666666665</v>
+      </c>
+      <c r="H14" t="n">
         <v>23.02733333333336</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="L14" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1019,29 @@
         <v>10008</v>
       </c>
       <c r="G15" t="n">
+        <v>22.58466666666665</v>
+      </c>
+      <c r="H15" t="n">
         <v>23.02566666666669</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="L15" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1065,25 @@
         <v>20261.1791</v>
       </c>
       <c r="G16" t="n">
+        <v>22.60666666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>23.02400000000002</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="L16" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1107,29 @@
         <v>31601.2754</v>
       </c>
       <c r="G17" t="n">
+        <v>22.61933333333332</v>
+      </c>
+      <c r="H17" t="n">
         <v>23.01966666666669</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="L17" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1153,29 @@
         <v>1221</v>
       </c>
       <c r="G18" t="n">
+        <v>22.64599999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>23.01416666666669</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="L18" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1199,25 @@
         <v>587.961</v>
       </c>
       <c r="G19" t="n">
+        <v>22.65933333333332</v>
+      </c>
+      <c r="H19" t="n">
         <v>23.00550000000003</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1241,29 @@
         <v>1797.8298</v>
       </c>
       <c r="G20" t="n">
+        <v>22.68599999999999</v>
+      </c>
+      <c r="H20" t="n">
         <v>23.00016666666669</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1287,29 @@
         <v>600</v>
       </c>
       <c r="G21" t="n">
+        <v>22.72799999999999</v>
+      </c>
+      <c r="H21" t="n">
         <v>22.99866666666669</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1333,29 @@
         <v>41532.0076</v>
       </c>
       <c r="G22" t="n">
+        <v>22.74066666666665</v>
+      </c>
+      <c r="H22" t="n">
         <v>22.98866666666669</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="L22" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1379,29 @@
         <v>271.8395</v>
       </c>
       <c r="G23" t="n">
+        <v>22.75866666666665</v>
+      </c>
+      <c r="H23" t="n">
         <v>22.98000000000003</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1425,29 @@
         <v>23419.1328</v>
       </c>
       <c r="G24" t="n">
+        <v>22.77333333333332</v>
+      </c>
+      <c r="H24" t="n">
         <v>22.97050000000003</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1471,29 @@
         <v>23</v>
       </c>
       <c r="G25" t="n">
+        <v>22.79199999999998</v>
+      </c>
+      <c r="H25" t="n">
         <v>22.96350000000002</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="L25" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1517,29 @@
         <v>248.8395</v>
       </c>
       <c r="G26" t="n">
+        <v>22.81066666666665</v>
+      </c>
+      <c r="H26" t="n">
         <v>22.95650000000002</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="L26" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1563,29 @@
         <v>28106.6996</v>
       </c>
       <c r="G27" t="n">
+        <v>22.78866666666665</v>
+      </c>
+      <c r="H27" t="n">
         <v>22.94900000000002</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1609,29 @@
         <v>8385.7443</v>
       </c>
       <c r="G28" t="n">
+        <v>22.77066666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>22.93816666666669</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="L28" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1655,29 @@
         <v>772.3848</v>
       </c>
       <c r="G29" t="n">
+        <v>22.76799999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>22.93116666666669</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="L29" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1701,29 @@
         <v>2175.4569</v>
       </c>
       <c r="G30" t="n">
+        <v>22.76466666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>22.92533333333335</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="L30" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1747,29 @@
         <v>3259.8039</v>
       </c>
       <c r="G31" t="n">
+        <v>22.75333333333332</v>
+      </c>
+      <c r="H31" t="n">
         <v>22.91666666666669</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1793,29 @@
         <v>4839.3267</v>
       </c>
       <c r="G32" t="n">
+        <v>22.75266666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>22.90766666666669</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="L32" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1839,29 @@
         <v>18000</v>
       </c>
       <c r="G33" t="n">
+        <v>22.72999999999999</v>
+      </c>
+      <c r="H33" t="n">
         <v>22.89733333333335</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="L33" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1885,29 @@
         <v>23462.5617</v>
       </c>
       <c r="G34" t="n">
+        <v>22.71999999999999</v>
+      </c>
+      <c r="H34" t="n">
         <v>22.88650000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="L34" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1931,29 @@
         <v>4762.9812</v>
       </c>
       <c r="G35" t="n">
+        <v>22.69666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>22.87566666666668</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="L35" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1977,29 @@
         <v>998.6856</v>
       </c>
       <c r="G36" t="n">
+        <v>22.65466666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>22.86533333333335</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="L36" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2023,29 @@
         <v>359.8685</v>
       </c>
       <c r="G37" t="n">
+        <v>22.64666666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>22.85033333333335</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2069,29 @@
         <v>1522.955</v>
       </c>
       <c r="G38" t="n">
+        <v>22.63333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>22.83233333333335</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2115,29 @@
         <v>905.0506</v>
       </c>
       <c r="G39" t="n">
+        <v>22.62333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>22.81433333333335</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2161,29 @@
         <v>24400</v>
       </c>
       <c r="G40" t="n">
+        <v>22.62333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>22.80266666666668</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2207,29 @@
         <v>18377.5079</v>
       </c>
       <c r="G41" t="n">
+        <v>22.59666666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>22.78433333333335</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="L41" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2253,29 @@
         <v>4390</v>
       </c>
       <c r="G42" t="n">
+        <v>22.58599999999999</v>
+      </c>
+      <c r="H42" t="n">
         <v>22.75800000000002</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="L42" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2299,29 @@
         <v>1461</v>
       </c>
       <c r="G43" t="n">
+        <v>22.58133333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>22.73783333333335</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="L43" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2345,29 @@
         <v>1446.7557</v>
       </c>
       <c r="G44" t="n">
+        <v>22.56133333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>22.71950000000002</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2391,29 @@
         <v>17370.2704</v>
       </c>
       <c r="G45" t="n">
+        <v>22.55599999999999</v>
+      </c>
+      <c r="H45" t="n">
         <v>22.70483333333335</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2437,29 @@
         <v>1066.4967</v>
       </c>
       <c r="G46" t="n">
+        <v>22.55866666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>22.69216666666669</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="L46" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2483,29 @@
         <v>23</v>
       </c>
       <c r="G47" t="n">
+        <v>22.56599999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>22.68366666666669</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="L47" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2529,29 @@
         <v>302.432</v>
       </c>
       <c r="G48" t="n">
+        <v>22.56266666666665</v>
+      </c>
+      <c r="H48" t="n">
         <v>22.67083333333336</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="L48" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2575,29 @@
         <v>576.8822</v>
       </c>
       <c r="G49" t="n">
+        <v>22.56599999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>22.65950000000002</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="L49" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2621,29 @@
         <v>115110.7514</v>
       </c>
       <c r="G50" t="n">
+        <v>22.56466666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>22.65166666666669</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="L50" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2667,29 @@
         <v>37400</v>
       </c>
       <c r="G51" t="n">
+        <v>22.58866666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>22.65783333333335</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="L51" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2713,29 @@
         <v>31899.4638</v>
       </c>
       <c r="G52" t="n">
+        <v>22.65399999999999</v>
+      </c>
+      <c r="H52" t="n">
         <v>22.67533333333335</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="L52" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2759,29 @@
         <v>524</v>
       </c>
       <c r="G53" t="n">
+        <v>22.71933333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>22.68383333333335</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="L53" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2805,29 @@
         <v>88675.4127</v>
       </c>
       <c r="G54" t="n">
+        <v>22.78466666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>22.69366666666668</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="L54" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2851,29 @@
         <v>4385.8009</v>
       </c>
       <c r="G55" t="n">
+        <v>22.82466666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>22.70083333333335</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="L55" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2897,29 @@
         <v>153912.6723</v>
       </c>
       <c r="G56" t="n">
+        <v>22.89799999999999</v>
+      </c>
+      <c r="H56" t="n">
         <v>22.70916666666669</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="L56" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2943,27 @@
         <v>1400.4414</v>
       </c>
       <c r="G57" t="n">
+        <v>22.97066666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>22.72533333333335</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2987,27 @@
         <v>120074.1819</v>
       </c>
       <c r="G58" t="n">
+        <v>23.044</v>
+      </c>
+      <c r="H58" t="n">
         <v>22.74033333333335</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +3031,27 @@
         <v>26628.3783</v>
       </c>
       <c r="G59" t="n">
+        <v>23.11733333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>22.75533333333335</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +3075,27 @@
         <v>25000</v>
       </c>
       <c r="G60" t="n">
+        <v>23.192</v>
+      </c>
+      <c r="H60" t="n">
         <v>22.77433333333335</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3119,27 @@
         <v>1702.908</v>
       </c>
       <c r="G61" t="n">
+        <v>23.26666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>22.79633333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3163,27 @@
         <v>144136.506</v>
       </c>
       <c r="G62" t="n">
+        <v>23.33666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>22.81866666666668</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3207,27 @@
         <v>191961.3766</v>
       </c>
       <c r="G63" t="n">
+        <v>23.43466666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>22.84333333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3251,27 @@
         <v>283633.6281</v>
       </c>
       <c r="G64" t="n">
+        <v>23.58066666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>22.88150000000001</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3295,27 @@
         <v>176569.4201</v>
       </c>
       <c r="G65" t="n">
+        <v>23.76666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>22.92850000000001</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3339,27 @@
         <v>191513.8671</v>
       </c>
       <c r="G66" t="n">
+        <v>23.942</v>
+      </c>
+      <c r="H66" t="n">
         <v>22.97833333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3383,27 @@
         <v>12309.1064</v>
       </c>
       <c r="G67" t="n">
+        <v>24.03666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>23.01950000000001</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3427,27 @@
         <v>192374.3992</v>
       </c>
       <c r="G68" t="n">
+        <v>24.17133333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>23.07066666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3471,27 @@
         <v>475456.2881</v>
       </c>
       <c r="G69" t="n">
+        <v>24.36866666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>23.13750000000001</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3515,27 @@
         <v>9407.374900000001</v>
       </c>
       <c r="G70" t="n">
+        <v>24.57133333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>23.20283333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3559,27 @@
         <v>884.0955</v>
       </c>
       <c r="G71" t="n">
+        <v>24.77733333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>23.27066666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3603,27 @@
         <v>14200</v>
       </c>
       <c r="G72" t="n">
+        <v>24.97666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>23.33050000000001</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3647,27 @@
         <v>230795.2058</v>
       </c>
       <c r="G73" t="n">
+        <v>25.16999999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>23.39150000000001</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3691,27 @@
         <v>194355.0012928417</v>
       </c>
       <c r="G74" t="n">
+        <v>25.37733333333332</v>
+      </c>
+      <c r="H74" t="n">
         <v>23.45600000000001</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3735,27 @@
         <v>13771.82</v>
       </c>
       <c r="G75" t="n">
+        <v>25.58799999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>23.52516666666668</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3779,27 @@
         <v>70140.53516472744</v>
       </c>
       <c r="G76" t="n">
+        <v>25.83466666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>23.60333333333335</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3823,27 @@
         <v>156054.2189740612</v>
       </c>
       <c r="G77" t="n">
+        <v>26.02533333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>23.67016666666668</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3867,27 @@
         <v>2521.1046</v>
       </c>
       <c r="G78" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="H78" t="n">
         <v>23.73183333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3911,27 @@
         <v>89751.246</v>
       </c>
       <c r="G79" t="n">
+        <v>26.27066666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>23.78433333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3955,27 @@
         <v>12379.0125</v>
       </c>
       <c r="G80" t="n">
+        <v>26.34866666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>23.84416666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3999,27 @@
         <v>75718.57339999999</v>
       </c>
       <c r="G81" t="n">
+        <v>26.46266666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>23.912</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +4043,27 @@
         <v>156243.7339</v>
       </c>
       <c r="G82" t="n">
+        <v>26.624</v>
+      </c>
+      <c r="H82" t="n">
         <v>23.99033333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +4087,27 @@
         <v>663430.7786860114</v>
       </c>
       <c r="G83" t="n">
+        <v>26.73866666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>24.06566666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +4131,27 @@
         <v>215713.3323</v>
       </c>
       <c r="G84" t="n">
+        <v>26.80599999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>24.14566666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +4175,27 @@
         <v>62766.7322</v>
       </c>
       <c r="G85" t="n">
+        <v>26.88999999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>24.22733333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4219,27 @@
         <v>9217.066971947987</v>
       </c>
       <c r="G86" t="n">
+        <v>26.94799999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>24.30500000000001</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4263,27 @@
         <v>72703.87791264241</v>
       </c>
       <c r="G87" t="n">
+        <v>26.97666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>24.37750000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4307,27 @@
         <v>14753.6028</v>
       </c>
       <c r="G88" t="n">
+        <v>26.92333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>24.42966666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4351,27 @@
         <v>84451.8348</v>
       </c>
       <c r="G89" t="n">
+        <v>26.93466666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>24.49766666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4395,27 @@
         <v>199325.4191</v>
       </c>
       <c r="G90" t="n">
+        <v>26.996</v>
+      </c>
+      <c r="H90" t="n">
         <v>24.58300000000002</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4439,27 @@
         <v>300037.9155</v>
       </c>
       <c r="G91" t="n">
+        <v>26.98733333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>24.66183333333335</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4483,27 @@
         <v>346209.699</v>
       </c>
       <c r="G92" t="n">
+        <v>27.074</v>
+      </c>
+      <c r="H92" t="n">
         <v>24.75050000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4527,27 @@
         <v>240322.2146</v>
       </c>
       <c r="G93" t="n">
+        <v>27.25066666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>24.86200000000002</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4571,27 @@
         <v>432607.1677</v>
       </c>
       <c r="G94" t="n">
+        <v>27.61933333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>25.00916666666668</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4615,27 @@
         <v>653666.7667578545</v>
       </c>
       <c r="G95" t="n">
+        <v>28.04799999999999</v>
+      </c>
+      <c r="H95" t="n">
         <v>25.18200000000002</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4659,27 @@
         <v>533661.8296551033</v>
       </c>
       <c r="G96" t="n">
+        <v>28.41266666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>25.35150000000002</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4703,27 @@
         <v>55188.91</v>
       </c>
       <c r="G97" t="n">
+        <v>28.758</v>
+      </c>
+      <c r="H97" t="n">
         <v>25.51816666666669</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4747,27 @@
         <v>166386.9025</v>
       </c>
       <c r="G98" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="H98" t="n">
         <v>25.68483333333335</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4791,27 @@
         <v>85140.5459</v>
       </c>
       <c r="G99" t="n">
+        <v>29.42733333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>25.84666666666669</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4835,27 @@
         <v>533587.9929870423</v>
       </c>
       <c r="G100" t="n">
+        <v>29.98066666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>26.06666666666669</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,19 +4879,28 @@
         <v>386079.5667</v>
       </c>
       <c r="G101" t="n">
+        <v>30.33533333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>26.23966666666669</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
+      <c r="L101" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>1.426441048034935</v>
       </c>
     </row>
     <row r="102">
@@ -3948,18 +4923,21 @@
         <v>257975.7961</v>
       </c>
       <c r="G102" t="n">
+        <v>30.84266666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>26.44166666666668</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4961,21 @@
         <v>872476.5644962358</v>
       </c>
       <c r="G103" t="n">
+        <v>31.26266666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>26.60000000000002</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4999,21 @@
         <v>316913.1464681063</v>
       </c>
       <c r="G104" t="n">
+        <v>31.47733333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>26.72666666666668</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +5037,21 @@
         <v>466674.9845518033</v>
       </c>
       <c r="G105" t="n">
+        <v>31.62533333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>26.85033333333335</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +5075,21 @@
         <v>1045980.0564</v>
       </c>
       <c r="G106" t="n">
+        <v>31.77533333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>26.96600000000002</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +5113,21 @@
         <v>164519.0638</v>
       </c>
       <c r="G107" t="n">
+        <v>31.886</v>
+      </c>
+      <c r="H107" t="n">
         <v>27.08050000000002</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +5151,21 @@
         <v>787594.7369235732</v>
       </c>
       <c r="G108" t="n">
+        <v>31.80933333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>27.17366666666669</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +5189,21 @@
         <v>768029.551</v>
       </c>
       <c r="G109" t="n">
+        <v>31.57266666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>27.26083333333336</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +5227,21 @@
         <v>505626.812032947</v>
       </c>
       <c r="G110" t="n">
+        <v>31.178</v>
+      </c>
+      <c r="H110" t="n">
         <v>27.33533333333336</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +5265,21 @@
         <v>233542.6666839627</v>
       </c>
       <c r="G111" t="n">
+        <v>30.826</v>
+      </c>
+      <c r="H111" t="n">
         <v>27.41083333333336</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +5303,21 @@
         <v>375903.2854</v>
       </c>
       <c r="G112" t="n">
+        <v>30.466</v>
+      </c>
+      <c r="H112" t="n">
         <v>27.47116666666669</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +5341,21 @@
         <v>158091.4534</v>
       </c>
       <c r="G113" t="n">
+        <v>30.11666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>27.53416666666669</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +5379,21 @@
         <v>320627.7138</v>
       </c>
       <c r="G114" t="n">
+        <v>29.76733333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>27.59233333333335</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5417,21 @@
         <v>238195.5916</v>
       </c>
       <c r="G115" t="n">
+        <v>29.176</v>
+      </c>
+      <c r="H115" t="n">
         <v>27.65450000000002</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5455,21 @@
         <v>209393.9383</v>
       </c>
       <c r="G116" t="n">
+        <v>28.77066666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>27.70783333333336</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5493,21 @@
         <v>46542.3635</v>
       </c>
       <c r="G117" t="n">
+        <v>28.26266666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>27.76466666666669</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5531,21 @@
         <v>236657.6555763198</v>
       </c>
       <c r="G118" t="n">
+        <v>27.87666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>27.80816666666669</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5569,21 @@
         <v>157362.115</v>
       </c>
       <c r="G119" t="n">
+        <v>27.614</v>
+      </c>
+      <c r="H119" t="n">
         <v>27.85083333333336</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5607,21 @@
         <v>177822.922</v>
       </c>
       <c r="G120" t="n">
+        <v>27.35133333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>27.8901666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5645,21 @@
         <v>25930.2473753689</v>
       </c>
       <c r="G121" t="n">
+        <v>27.13533333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>27.9331666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5683,21 @@
         <v>91206.84005291446</v>
       </c>
       <c r="G122" t="n">
+        <v>26.90466666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>27.97250000000004</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5721,21 @@
         <v>122253.5703</v>
       </c>
       <c r="G123" t="n">
+        <v>26.77466666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>28.00866666666671</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,24 +5759,21 @@
         <v>537420.0048</v>
       </c>
       <c r="G124" t="n">
+        <v>26.654</v>
+      </c>
+      <c r="H124" t="n">
         <v>28.0291666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>26.15</v>
+        <v>0</v>
       </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4759,24 +5797,21 @@
         <v>341347.9071</v>
       </c>
       <c r="G125" t="n">
+        <v>26.57733333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>28.03800000000004</v>
       </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>26.02</v>
+        <v>0</v>
       </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4800,24 +5835,21 @@
         <v>161838.4515</v>
       </c>
       <c r="G126" t="n">
+        <v>26.50466666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>28.05150000000004</v>
       </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>25.85</v>
+        <v>0</v>
       </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,24 +5873,401 @@
         <v>87903.5935</v>
       </c>
       <c r="G127" t="n">
+        <v>26.45133333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>28.07483333333337</v>
       </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
         <v>26.3</v>
       </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="C128" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="E128" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>635343.5632236802</v>
+      </c>
+      <c r="G128" t="n">
+        <v>26.40733333333333</v>
+      </c>
+      <c r="H128" t="n">
+        <v>28.0931666666667</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="C129" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="E129" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>59671.6098</v>
+      </c>
+      <c r="G129" t="n">
+        <v>26.36933333333333</v>
+      </c>
+      <c r="H129" t="n">
+        <v>28.09250000000003</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="C130" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="E130" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>225653.8713</v>
+      </c>
+      <c r="G130" t="n">
+        <v>26.334</v>
+      </c>
+      <c r="H130" t="n">
+        <v>28.0951666666667</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="C131" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="D131" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="E131" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>106</v>
+      </c>
+      <c r="G131" t="n">
+        <v>26.32133333333333</v>
+      </c>
+      <c r="H131" t="n">
+        <v>28.09383333333336</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="C132" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="D132" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E132" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="F132" t="n">
+        <v>721735.2958</v>
+      </c>
+      <c r="G132" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="H132" t="n">
+        <v>28.08800000000003</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="C133" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="D133" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="E133" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="F133" t="n">
+        <v>489308.9750490821</v>
+      </c>
+      <c r="G133" t="n">
+        <v>26.27666666666667</v>
+      </c>
+      <c r="H133" t="n">
+        <v>28.08483333333337</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="C134" t="n">
+        <v>26</v>
+      </c>
+      <c r="D134" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="E134" t="n">
+        <v>26</v>
+      </c>
+      <c r="F134" t="n">
+        <v>332838.2876</v>
+      </c>
+      <c r="G134" t="n">
+        <v>26.266</v>
+      </c>
+      <c r="H134" t="n">
+        <v>28.07300000000003</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="D135" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="E135" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>351177.3519</v>
+      </c>
+      <c r="G135" t="n">
+        <v>26.274</v>
+      </c>
+      <c r="H135" t="n">
+        <v>28.0616666666667</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="C136" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="D136" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="E136" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="F136" t="n">
+        <v>80837.92909999999</v>
+      </c>
+      <c r="G136" t="n">
+        <v>26.26466666666666</v>
+      </c>
+      <c r="H136" t="n">
+        <v>28.0406666666667</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="C137" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="D137" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="E137" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="F137" t="n">
+        <v>74140.8579</v>
+      </c>
+      <c r="G137" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="H137" t="n">
+        <v>28.0336666666667</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest LBA.xlsx
+++ b/BackTest/2020-01-15 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.18</v>
+        <v>22.85</v>
       </c>
       <c r="C2" t="n">
-        <v>23.18</v>
+        <v>22.85</v>
       </c>
       <c r="D2" t="n">
-        <v>23.18</v>
+        <v>22.85</v>
       </c>
       <c r="E2" t="n">
-        <v>23.18</v>
+        <v>22.85</v>
       </c>
       <c r="F2" t="n">
-        <v>1090</v>
+        <v>10008</v>
       </c>
       <c r="G2" t="n">
-        <v>-37623.51029999997</v>
+        <v>-179853.2265</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,1021 +467,1275 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.2</v>
+        <v>22.85</v>
       </c>
       <c r="C3" t="n">
-        <v>23.2</v>
+        <v>22.85</v>
       </c>
       <c r="D3" t="n">
-        <v>23.2</v>
+        <v>22.85</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2</v>
+        <v>22.85</v>
       </c>
       <c r="F3" t="n">
-        <v>307.188</v>
+        <v>20261.1791</v>
       </c>
       <c r="G3" t="n">
-        <v>-37316.32229999997</v>
+        <v>-179853.2265</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="K3" t="n">
+        <v>22.85</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.3</v>
+        <v>22.69</v>
       </c>
       <c r="C4" t="n">
-        <v>23.2</v>
+        <v>22.69</v>
       </c>
       <c r="D4" t="n">
-        <v>23.3</v>
+        <v>22.69</v>
       </c>
       <c r="E4" t="n">
-        <v>23.2</v>
+        <v>22.69</v>
       </c>
       <c r="F4" t="n">
-        <v>515.5214</v>
+        <v>31601.2754</v>
       </c>
       <c r="G4" t="n">
-        <v>-37316.32229999997</v>
+        <v>-211454.5019</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23.12</v>
+        <v>22.9</v>
       </c>
       <c r="C5" t="n">
-        <v>23.12</v>
+        <v>22.9</v>
       </c>
       <c r="D5" t="n">
-        <v>23.12</v>
+        <v>22.9</v>
       </c>
       <c r="E5" t="n">
-        <v>23.12</v>
+        <v>22.9</v>
       </c>
       <c r="F5" t="n">
-        <v>998</v>
+        <v>1221</v>
       </c>
       <c r="G5" t="n">
-        <v>-38314.32229999997</v>
+        <v>-210233.5019</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="C6" t="n">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="D6" t="n">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="E6" t="n">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1607.8967</v>
+        <v>587.961</v>
       </c>
       <c r="G6" t="n">
-        <v>-36706.42559999997</v>
+        <v>-210821.4629</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22.9</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.45</v>
+        <v>22.9</v>
       </c>
       <c r="C7" t="n">
-        <v>23.58</v>
+        <v>22.9</v>
       </c>
       <c r="D7" t="n">
-        <v>23.58</v>
+        <v>22.9</v>
       </c>
       <c r="E7" t="n">
-        <v>23.45</v>
+        <v>22.9</v>
       </c>
       <c r="F7" t="n">
-        <v>1565</v>
+        <v>1797.8298</v>
       </c>
       <c r="G7" t="n">
-        <v>-35141.42559999997</v>
+        <v>-209023.6331</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.58</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>23.58</v>
+        <v>23.13</v>
       </c>
       <c r="D8" t="n">
-        <v>23.58</v>
+        <v>23.13</v>
       </c>
       <c r="E8" t="n">
-        <v>23.58</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>314.4806</v>
+        <v>600</v>
       </c>
       <c r="G8" t="n">
-        <v>-35141.42559999997</v>
+        <v>-208423.6331</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.5</v>
+        <v>22.7</v>
       </c>
       <c r="C9" t="n">
-        <v>23.5</v>
+        <v>22.62</v>
       </c>
       <c r="D9" t="n">
-        <v>23.5</v>
+        <v>22.7</v>
       </c>
       <c r="E9" t="n">
-        <v>23.5</v>
+        <v>22.62</v>
       </c>
       <c r="F9" t="n">
-        <v>105.9642</v>
+        <v>41532.0076</v>
       </c>
       <c r="G9" t="n">
-        <v>-35247.38979999998</v>
+        <v>-249955.6407</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.5</v>
+        <v>22.7</v>
       </c>
       <c r="C10" t="n">
-        <v>23.5</v>
+        <v>22.7</v>
       </c>
       <c r="D10" t="n">
-        <v>23.5</v>
+        <v>22.7</v>
       </c>
       <c r="E10" t="n">
-        <v>23.5</v>
+        <v>22.7</v>
       </c>
       <c r="F10" t="n">
-        <v>894.0358</v>
+        <v>271.8395</v>
       </c>
       <c r="G10" t="n">
-        <v>-35247.38979999998</v>
+        <v>-249683.8012</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.58</v>
+        <v>22.65</v>
       </c>
       <c r="C11" t="n">
-        <v>23.98</v>
+        <v>22.65</v>
       </c>
       <c r="D11" t="n">
-        <v>23.98</v>
+        <v>22.65</v>
       </c>
       <c r="E11" t="n">
-        <v>23.58</v>
+        <v>22.65</v>
       </c>
       <c r="F11" t="n">
-        <v>8250</v>
+        <v>23419.1328</v>
       </c>
       <c r="G11" t="n">
-        <v>-26997.38979999998</v>
+        <v>-273102.934</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.71</v>
+        <v>22.8</v>
       </c>
       <c r="C12" t="n">
-        <v>23.71</v>
+        <v>22.8</v>
       </c>
       <c r="D12" t="n">
-        <v>23.71</v>
+        <v>22.8</v>
       </c>
       <c r="E12" t="n">
-        <v>23.71</v>
+        <v>22.8</v>
       </c>
       <c r="F12" t="n">
-        <v>9804.538699999999</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>-36801.92849999997</v>
+        <v>-273079.934</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="K12" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="C13" t="n">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="D13" t="n">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="E13" t="n">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="F13" t="n">
-        <v>567</v>
+        <v>248.8395</v>
       </c>
       <c r="G13" t="n">
-        <v>-37368.92849999997</v>
+        <v>-273079.934</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.6</v>
+        <v>22.56</v>
       </c>
       <c r="C14" t="n">
-        <v>23.6</v>
+        <v>22.56</v>
       </c>
       <c r="D14" t="n">
-        <v>23.6</v>
+        <v>22.56</v>
       </c>
       <c r="E14" t="n">
-        <v>23.51</v>
+        <v>22.56</v>
       </c>
       <c r="F14" t="n">
-        <v>430.7756</v>
+        <v>28106.6996</v>
       </c>
       <c r="G14" t="n">
-        <v>-37368.92849999997</v>
+        <v>-301186.6336</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.48</v>
+        <v>22.57</v>
       </c>
       <c r="C15" t="n">
-        <v>23.48</v>
+        <v>22.57</v>
       </c>
       <c r="D15" t="n">
-        <v>23.48</v>
+        <v>22.57</v>
       </c>
       <c r="E15" t="n">
-        <v>23.48</v>
+        <v>22.57</v>
       </c>
       <c r="F15" t="n">
-        <v>2577.3367</v>
+        <v>8385.7443</v>
       </c>
       <c r="G15" t="n">
-        <v>-39946.26519999997</v>
+        <v>-292800.8893</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="K15" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="C16" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="D16" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="E16" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="F16" t="n">
-        <v>2548.1723</v>
+        <v>772.3848</v>
       </c>
       <c r="G16" t="n">
-        <v>-42494.43749999997</v>
+        <v>-292028.5045</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="K16" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23.28</v>
+        <v>22.8</v>
       </c>
       <c r="C17" t="n">
-        <v>23.28</v>
+        <v>22.8</v>
       </c>
       <c r="D17" t="n">
-        <v>23.28</v>
+        <v>22.8</v>
       </c>
       <c r="E17" t="n">
-        <v>23.28</v>
+        <v>22.8</v>
       </c>
       <c r="F17" t="n">
-        <v>1733.5101</v>
+        <v>2175.4569</v>
       </c>
       <c r="G17" t="n">
-        <v>-44227.94759999997</v>
+        <v>-292028.5045</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23.28</v>
+        <v>22.68</v>
       </c>
       <c r="C18" t="n">
-        <v>23.28</v>
+        <v>22.68</v>
       </c>
       <c r="D18" t="n">
-        <v>23.28</v>
+        <v>22.68</v>
       </c>
       <c r="E18" t="n">
-        <v>23.28</v>
+        <v>22.68</v>
       </c>
       <c r="F18" t="n">
-        <v>161</v>
+        <v>3259.8039</v>
       </c>
       <c r="G18" t="n">
-        <v>-44227.94759999997</v>
+        <v>-295288.3084</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>22.68</v>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>22.68</v>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>22.68</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>22.68</v>
       </c>
       <c r="F19" t="n">
-        <v>298.14</v>
+        <v>4839.3267</v>
       </c>
       <c r="G19" t="n">
-        <v>-44526.08759999997</v>
+        <v>-295288.3084</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="K19" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22.98</v>
+        <v>22.6</v>
       </c>
       <c r="C20" t="n">
-        <v>22.49</v>
+        <v>22.56</v>
       </c>
       <c r="D20" t="n">
-        <v>22.98</v>
+        <v>22.6</v>
       </c>
       <c r="E20" t="n">
-        <v>22.49</v>
+        <v>22.56</v>
       </c>
       <c r="F20" t="n">
-        <v>68108.66</v>
+        <v>18000</v>
       </c>
       <c r="G20" t="n">
-        <v>-112634.7476</v>
+        <v>-313288.3084</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="K20" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22.47</v>
+        <v>22.56</v>
       </c>
       <c r="C21" t="n">
-        <v>22.43</v>
+        <v>22.55</v>
       </c>
       <c r="D21" t="n">
-        <v>22.47</v>
+        <v>22.56</v>
       </c>
       <c r="E21" t="n">
-        <v>22.34</v>
+        <v>22.55</v>
       </c>
       <c r="F21" t="n">
-        <v>87316.3648</v>
+        <v>23462.5617</v>
       </c>
       <c r="G21" t="n">
-        <v>-199951.1124</v>
+        <v>-336750.8701</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="K21" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22.9</v>
+        <v>22.55</v>
       </c>
       <c r="C22" t="n">
-        <v>22.97</v>
+        <v>22.55</v>
       </c>
       <c r="D22" t="n">
-        <v>22.97</v>
+        <v>22.55</v>
       </c>
       <c r="E22" t="n">
-        <v>22.9</v>
+        <v>22.55</v>
       </c>
       <c r="F22" t="n">
-        <v>4797.7231</v>
+        <v>4762.9812</v>
       </c>
       <c r="G22" t="n">
-        <v>-195153.3893</v>
+        <v>-336750.8701</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="K22" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22.89</v>
+        <v>22.5</v>
       </c>
       <c r="C23" t="n">
-        <v>22.89</v>
+        <v>22.5</v>
       </c>
       <c r="D23" t="n">
-        <v>22.89</v>
+        <v>22.5</v>
       </c>
       <c r="E23" t="n">
-        <v>22.89</v>
+        <v>22.5</v>
       </c>
       <c r="F23" t="n">
-        <v>30000</v>
+        <v>998.6856</v>
       </c>
       <c r="G23" t="n">
-        <v>-225153.3893</v>
+        <v>-337749.5557</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="K23" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22.97</v>
+        <v>22.5</v>
       </c>
       <c r="C24" t="n">
-        <v>22.97</v>
+        <v>22.5</v>
       </c>
       <c r="D24" t="n">
-        <v>22.97</v>
+        <v>22.5</v>
       </c>
       <c r="E24" t="n">
-        <v>22.97</v>
+        <v>22.5</v>
       </c>
       <c r="F24" t="n">
-        <v>20000</v>
+        <v>359.8685</v>
       </c>
       <c r="G24" t="n">
-        <v>-205153.3893</v>
+        <v>-337749.5557</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="F25" t="n">
-        <v>10200</v>
+        <v>1522.955</v>
       </c>
       <c r="G25" t="n">
-        <v>-194953.3893</v>
+        <v>-337749.5557</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="C26" t="n">
-        <v>22.52</v>
+        <v>22.5</v>
       </c>
       <c r="D26" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="E26" t="n">
-        <v>22.52</v>
+        <v>22.5</v>
       </c>
       <c r="F26" t="n">
-        <v>3585.9827</v>
+        <v>905.0506</v>
       </c>
       <c r="G26" t="n">
-        <v>-198539.372</v>
+        <v>-337749.5557</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="C27" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="D27" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="E27" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="F27" t="n">
-        <v>567</v>
+        <v>24400</v>
       </c>
       <c r="G27" t="n">
-        <v>-197972.372</v>
+        <v>-313349.5557</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="C28" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="D28" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="E28" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="F28" t="n">
-        <v>3450</v>
+        <v>18377.5079</v>
       </c>
       <c r="G28" t="n">
-        <v>-197972.372</v>
+        <v>-331727.0636000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>22.7</v>
+        <v>22.45</v>
       </c>
       <c r="C29" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="D29" t="n">
-        <v>22.7</v>
+        <v>22.45</v>
       </c>
       <c r="E29" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="F29" t="n">
-        <v>1550</v>
+        <v>4390</v>
       </c>
       <c r="G29" t="n">
-        <v>-197972.372</v>
+        <v>-331727.0636000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>22.52</v>
+        <v>22.4</v>
       </c>
       <c r="C30" t="n">
-        <v>22.52</v>
+        <v>22.5</v>
       </c>
       <c r="D30" t="n">
-        <v>22.52</v>
+        <v>22.5</v>
       </c>
       <c r="E30" t="n">
-        <v>22.52</v>
+        <v>22.4</v>
       </c>
       <c r="F30" t="n">
-        <v>374.12</v>
+        <v>1461</v>
       </c>
       <c r="G30" t="n">
-        <v>-198346.492</v>
+        <v>-330266.0636000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>22.55</v>
+        <v>22.5</v>
       </c>
       <c r="C31" t="n">
         <v>22.5</v>
       </c>
       <c r="D31" t="n">
-        <v>22.55</v>
+        <v>22.5</v>
       </c>
       <c r="E31" t="n">
         <v>22.5</v>
       </c>
       <c r="F31" t="n">
-        <v>13599.5981</v>
+        <v>1446.7557</v>
       </c>
       <c r="G31" t="n">
-        <v>-211946.0901</v>
+        <v>-330266.0636000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1486,649 +1745,811 @@
         <v>22.5</v>
       </c>
       <c r="C32" t="n">
-        <v>22.5</v>
+        <v>22.72</v>
       </c>
       <c r="D32" t="n">
-        <v>22.5</v>
+        <v>22.72</v>
       </c>
       <c r="E32" t="n">
         <v>22.5</v>
       </c>
       <c r="F32" t="n">
-        <v>7192.2859</v>
+        <v>17370.2704</v>
       </c>
       <c r="G32" t="n">
-        <v>-211946.0901</v>
+        <v>-312895.7932000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>22.5</v>
+        <v>22.72</v>
       </c>
       <c r="C33" t="n">
-        <v>22.5</v>
+        <v>22.72</v>
       </c>
       <c r="D33" t="n">
-        <v>22.5</v>
+        <v>22.72</v>
       </c>
       <c r="E33" t="n">
-        <v>22.5</v>
+        <v>22.72</v>
       </c>
       <c r="F33" t="n">
-        <v>1900</v>
+        <v>1066.4967</v>
       </c>
       <c r="G33" t="n">
-        <v>-211946.0901</v>
+        <v>-312895.7932000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="K33" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>22.5</v>
+        <v>22.79</v>
       </c>
       <c r="C34" t="n">
-        <v>22.5</v>
+        <v>22.79</v>
       </c>
       <c r="D34" t="n">
-        <v>22.5</v>
+        <v>22.79</v>
       </c>
       <c r="E34" t="n">
-        <v>22.5</v>
+        <v>22.79</v>
       </c>
       <c r="F34" t="n">
-        <v>3000</v>
+        <v>23</v>
       </c>
       <c r="G34" t="n">
-        <v>-211946.0901</v>
+        <v>-312872.7932000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="K34" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>22.5</v>
+        <v>22.51</v>
       </c>
       <c r="C35" t="n">
-        <v>22.5</v>
+        <v>22.51</v>
       </c>
       <c r="D35" t="n">
-        <v>22.5</v>
+        <v>22.51</v>
       </c>
       <c r="E35" t="n">
-        <v>22.5</v>
+        <v>22.51</v>
       </c>
       <c r="F35" t="n">
-        <v>5050</v>
+        <v>302.432</v>
       </c>
       <c r="G35" t="n">
-        <v>-211946.0901</v>
+        <v>-313175.2252</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="K35" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>22.43</v>
+        <v>22.6</v>
       </c>
       <c r="C36" t="n">
-        <v>22.43</v>
+        <v>22.6</v>
       </c>
       <c r="D36" t="n">
-        <v>22.43</v>
+        <v>22.6</v>
       </c>
       <c r="E36" t="n">
-        <v>22.43</v>
+        <v>22.6</v>
       </c>
       <c r="F36" t="n">
-        <v>20404.88</v>
+        <v>576.8822</v>
       </c>
       <c r="G36" t="n">
-        <v>-232350.9701</v>
+        <v>-312598.3430000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="K36" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>22.43</v>
+        <v>22.7</v>
       </c>
       <c r="C37" t="n">
-        <v>22.43</v>
+        <v>22.53</v>
       </c>
       <c r="D37" t="n">
-        <v>22.43</v>
+        <v>22.93</v>
       </c>
       <c r="E37" t="n">
-        <v>22.43</v>
+        <v>22.53</v>
       </c>
       <c r="F37" t="n">
-        <v>6594.6269</v>
+        <v>115110.7514</v>
       </c>
       <c r="G37" t="n">
-        <v>-232350.9701</v>
+        <v>-427709.0944000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>22.43</v>
+        <v>22.86</v>
       </c>
       <c r="C38" t="n">
-        <v>22.43</v>
+        <v>22.86</v>
       </c>
       <c r="D38" t="n">
-        <v>22.43</v>
+        <v>22.86</v>
       </c>
       <c r="E38" t="n">
-        <v>22.43</v>
+        <v>22.86</v>
       </c>
       <c r="F38" t="n">
-        <v>48099.5735</v>
+        <v>37400</v>
       </c>
       <c r="G38" t="n">
-        <v>-232350.9701</v>
+        <v>-390309.0944000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="K38" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>22.52</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
-        <v>22.52</v>
+        <v>23.48</v>
       </c>
       <c r="D39" t="n">
-        <v>22.52</v>
+        <v>23.48</v>
       </c>
       <c r="E39" t="n">
-        <v>22.52</v>
+        <v>23</v>
       </c>
       <c r="F39" t="n">
-        <v>43250</v>
+        <v>31899.4638</v>
       </c>
       <c r="G39" t="n">
-        <v>-189100.9701</v>
+        <v>-358409.6306</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="K39" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>22.52</v>
+        <v>23.48</v>
       </c>
       <c r="C40" t="n">
-        <v>22.52</v>
+        <v>23.48</v>
       </c>
       <c r="D40" t="n">
-        <v>22.52</v>
+        <v>23.48</v>
       </c>
       <c r="E40" t="n">
-        <v>22.52</v>
+        <v>23.48</v>
       </c>
       <c r="F40" t="n">
-        <v>34881.3943</v>
+        <v>524</v>
       </c>
       <c r="G40" t="n">
-        <v>-189100.9701</v>
+        <v>-358409.6306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="K40" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>22.55</v>
+        <v>23.21</v>
       </c>
       <c r="C41" t="n">
-        <v>22.89</v>
+        <v>23.48</v>
       </c>
       <c r="D41" t="n">
-        <v>22.89</v>
+        <v>23.48</v>
       </c>
       <c r="E41" t="n">
-        <v>22.55</v>
+        <v>23.21</v>
       </c>
       <c r="F41" t="n">
-        <v>61</v>
+        <v>88675.4127</v>
       </c>
       <c r="G41" t="n">
-        <v>-189039.9701</v>
+        <v>-358409.6306</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="K41" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>22.84</v>
+        <v>23.14</v>
       </c>
       <c r="C42" t="n">
-        <v>22.84</v>
+        <v>23.4</v>
       </c>
       <c r="D42" t="n">
-        <v>22.84</v>
+        <v>23.4</v>
       </c>
       <c r="E42" t="n">
-        <v>22.84</v>
+        <v>23.14</v>
       </c>
       <c r="F42" t="n">
-        <v>821.2564</v>
+        <v>4385.8009</v>
       </c>
       <c r="G42" t="n">
-        <v>-189861.2265</v>
+        <v>-362795.4315</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="K42" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>22.84</v>
+        <v>23.39</v>
       </c>
       <c r="C43" t="n">
-        <v>22.84</v>
+        <v>23.5</v>
       </c>
       <c r="D43" t="n">
-        <v>22.84</v>
+        <v>23.5</v>
       </c>
       <c r="E43" t="n">
-        <v>22.84</v>
+        <v>23.39</v>
       </c>
       <c r="F43" t="n">
-        <v>43605.8269</v>
+        <v>153912.6723</v>
       </c>
       <c r="G43" t="n">
-        <v>-189861.2265</v>
+        <v>-208882.7592</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>22.85</v>
+        <v>23.49</v>
       </c>
       <c r="C44" t="n">
-        <v>22.85</v>
+        <v>23.49</v>
       </c>
       <c r="D44" t="n">
-        <v>22.85</v>
+        <v>23.49</v>
       </c>
       <c r="E44" t="n">
-        <v>22.85</v>
+        <v>23.49</v>
       </c>
       <c r="F44" t="n">
-        <v>10008</v>
+        <v>1400.4414</v>
       </c>
       <c r="G44" t="n">
-        <v>-179853.2265</v>
+        <v>-210283.2006</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>22.85</v>
+        <v>23.5</v>
       </c>
       <c r="C45" t="n">
-        <v>22.85</v>
+        <v>23.6</v>
       </c>
       <c r="D45" t="n">
-        <v>22.85</v>
+        <v>23.6</v>
       </c>
       <c r="E45" t="n">
-        <v>22.85</v>
+        <v>23.5</v>
       </c>
       <c r="F45" t="n">
-        <v>20261.1791</v>
+        <v>120074.1819</v>
       </c>
       <c r="G45" t="n">
-        <v>-179853.2265</v>
+        <v>-90209.01870000002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="K45" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>22.69</v>
+        <v>23.6</v>
       </c>
       <c r="C46" t="n">
-        <v>22.69</v>
+        <v>23.6</v>
       </c>
       <c r="D46" t="n">
-        <v>22.69</v>
+        <v>23.6</v>
       </c>
       <c r="E46" t="n">
-        <v>22.69</v>
+        <v>23.59</v>
       </c>
       <c r="F46" t="n">
-        <v>31601.2754</v>
+        <v>26628.3783</v>
       </c>
       <c r="G46" t="n">
-        <v>-211454.5019</v>
+        <v>-90209.01870000002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K46" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="C47" t="n">
-        <v>22.9</v>
+        <v>23.84</v>
       </c>
       <c r="D47" t="n">
-        <v>22.9</v>
+        <v>23.84</v>
       </c>
       <c r="E47" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="F47" t="n">
-        <v>1221</v>
+        <v>25000</v>
       </c>
       <c r="G47" t="n">
-        <v>-210233.5019</v>
+        <v>-65209.01870000002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>22.7</v>
+        <v>23.84</v>
       </c>
       <c r="C48" t="n">
-        <v>22.7</v>
+        <v>23.84</v>
       </c>
       <c r="D48" t="n">
-        <v>22.7</v>
+        <v>23.84</v>
       </c>
       <c r="E48" t="n">
-        <v>22.7</v>
+        <v>23.84</v>
       </c>
       <c r="F48" t="n">
-        <v>587.961</v>
+        <v>1702.908</v>
       </c>
       <c r="G48" t="n">
-        <v>-210821.4629</v>
+        <v>-65209.01870000002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="K48" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>22.9</v>
+        <v>23.84</v>
       </c>
       <c r="C49" t="n">
-        <v>22.9</v>
+        <v>23.84</v>
       </c>
       <c r="D49" t="n">
-        <v>22.9</v>
+        <v>23.84</v>
       </c>
       <c r="E49" t="n">
-        <v>22.9</v>
+        <v>23.62</v>
       </c>
       <c r="F49" t="n">
-        <v>1797.8298</v>
+        <v>144136.506</v>
       </c>
       <c r="G49" t="n">
-        <v>-209023.6331</v>
+        <v>-65209.01870000002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="K49" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23</v>
+        <v>23.84</v>
       </c>
       <c r="C50" t="n">
-        <v>23.13</v>
+        <v>23.98</v>
       </c>
       <c r="D50" t="n">
-        <v>23.13</v>
+        <v>23.98</v>
       </c>
       <c r="E50" t="n">
-        <v>23</v>
+        <v>23.84</v>
       </c>
       <c r="F50" t="n">
-        <v>600</v>
+        <v>191961.3766</v>
       </c>
       <c r="G50" t="n">
-        <v>-208423.6331</v>
+        <v>126752.3579</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,103 +2558,128 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>22.7</v>
+        <v>23.98</v>
       </c>
       <c r="C51" t="n">
-        <v>22.62</v>
+        <v>24.79</v>
       </c>
       <c r="D51" t="n">
-        <v>22.7</v>
+        <v>24.79</v>
       </c>
       <c r="E51" t="n">
-        <v>22.62</v>
+        <v>23.98</v>
       </c>
       <c r="F51" t="n">
-        <v>41532.0076</v>
+        <v>283633.6281</v>
       </c>
       <c r="G51" t="n">
-        <v>-249955.6407</v>
+        <v>410385.9859999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="K51" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>22.7</v>
+        <v>24.4</v>
       </c>
       <c r="C52" t="n">
-        <v>22.7</v>
+        <v>25.32</v>
       </c>
       <c r="D52" t="n">
-        <v>22.7</v>
+        <v>25.32</v>
       </c>
       <c r="E52" t="n">
-        <v>22.7</v>
+        <v>24.31</v>
       </c>
       <c r="F52" t="n">
-        <v>271.8395</v>
+        <v>176569.4201</v>
       </c>
       <c r="G52" t="n">
-        <v>-249683.8012</v>
+        <v>586955.4060999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="K52" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>22.65</v>
+        <v>25.29</v>
       </c>
       <c r="C53" t="n">
-        <v>22.65</v>
+        <v>25.49</v>
       </c>
       <c r="D53" t="n">
-        <v>22.65</v>
+        <v>25.5</v>
       </c>
       <c r="E53" t="n">
-        <v>22.65</v>
+        <v>25.29</v>
       </c>
       <c r="F53" t="n">
-        <v>23419.1328</v>
+        <v>191513.8671</v>
       </c>
       <c r="G53" t="n">
-        <v>-273102.934</v>
+        <v>778469.2731999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,33 +2688,40 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>22.8</v>
+        <v>25.49</v>
       </c>
       <c r="C54" t="n">
-        <v>22.8</v>
+        <v>24.9</v>
       </c>
       <c r="D54" t="n">
-        <v>22.8</v>
+        <v>25.49</v>
       </c>
       <c r="E54" t="n">
-        <v>22.8</v>
+        <v>24.9</v>
       </c>
       <c r="F54" t="n">
-        <v>23</v>
+        <v>12309.1064</v>
       </c>
       <c r="G54" t="n">
-        <v>-273079.934</v>
+        <v>766160.1667999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,33 +2730,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>22.8</v>
+        <v>25.48</v>
       </c>
       <c r="C55" t="n">
-        <v>22.8</v>
+        <v>25.5</v>
       </c>
       <c r="D55" t="n">
-        <v>22.8</v>
+        <v>25.5</v>
       </c>
       <c r="E55" t="n">
-        <v>22.8</v>
+        <v>25.4</v>
       </c>
       <c r="F55" t="n">
-        <v>248.8395</v>
+        <v>192374.3992</v>
       </c>
       <c r="G55" t="n">
-        <v>-273079.934</v>
+        <v>958534.5659999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,33 +2772,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>22.56</v>
+        <v>25.5</v>
       </c>
       <c r="C56" t="n">
-        <v>22.56</v>
+        <v>26.44</v>
       </c>
       <c r="D56" t="n">
-        <v>22.56</v>
+        <v>26.5</v>
       </c>
       <c r="E56" t="n">
-        <v>22.56</v>
+        <v>25.5</v>
       </c>
       <c r="F56" t="n">
-        <v>28106.6996</v>
+        <v>475456.2881</v>
       </c>
       <c r="G56" t="n">
-        <v>-301186.6336</v>
+        <v>1433990.8541</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,33 +2814,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>22.57</v>
+        <v>26.44</v>
       </c>
       <c r="C57" t="n">
-        <v>22.57</v>
+        <v>26.44</v>
       </c>
       <c r="D57" t="n">
-        <v>22.57</v>
+        <v>26.44</v>
       </c>
       <c r="E57" t="n">
-        <v>22.57</v>
+        <v>26.44</v>
       </c>
       <c r="F57" t="n">
-        <v>8385.7443</v>
+        <v>9407.374900000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-292800.8893</v>
+        <v>1433990.8541</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,33 +2856,40 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>22.8</v>
+        <v>26.59</v>
       </c>
       <c r="C58" t="n">
-        <v>22.8</v>
+        <v>26.59</v>
       </c>
       <c r="D58" t="n">
-        <v>22.8</v>
+        <v>26.59</v>
       </c>
       <c r="E58" t="n">
-        <v>22.8</v>
+        <v>26.59</v>
       </c>
       <c r="F58" t="n">
-        <v>772.3848</v>
+        <v>884.0955</v>
       </c>
       <c r="G58" t="n">
-        <v>-292028.5045</v>
+        <v>1434874.9496</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,33 +2898,40 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>22.8</v>
+        <v>26.48</v>
       </c>
       <c r="C59" t="n">
-        <v>22.8</v>
+        <v>26.48</v>
       </c>
       <c r="D59" t="n">
-        <v>22.8</v>
+        <v>26.48</v>
       </c>
       <c r="E59" t="n">
-        <v>22.8</v>
+        <v>26.48</v>
       </c>
       <c r="F59" t="n">
-        <v>2175.4569</v>
+        <v>14200</v>
       </c>
       <c r="G59" t="n">
-        <v>-292028.5045</v>
+        <v>1420674.9496</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,33 +2940,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22.68</v>
+        <v>26.49</v>
       </c>
       <c r="C60" t="n">
-        <v>22.68</v>
+        <v>26.5</v>
       </c>
       <c r="D60" t="n">
-        <v>22.68</v>
+        <v>26.99</v>
       </c>
       <c r="E60" t="n">
-        <v>22.68</v>
+        <v>26.49</v>
       </c>
       <c r="F60" t="n">
-        <v>3259.8039</v>
+        <v>230795.2058</v>
       </c>
       <c r="G60" t="n">
-        <v>-295288.3084</v>
+        <v>1651470.1554</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,33 +2982,40 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22.68</v>
+        <v>26.71</v>
       </c>
       <c r="C61" t="n">
-        <v>22.68</v>
+        <v>26.71</v>
       </c>
       <c r="D61" t="n">
-        <v>22.68</v>
+        <v>27.8</v>
       </c>
       <c r="E61" t="n">
-        <v>22.68</v>
+        <v>26.7</v>
       </c>
       <c r="F61" t="n">
-        <v>4839.3267</v>
+        <v>194355.0012928417</v>
       </c>
       <c r="G61" t="n">
-        <v>-295288.3084</v>
+        <v>1845825.156692842</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,33 +3024,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22.6</v>
+        <v>27</v>
       </c>
       <c r="C62" t="n">
-        <v>22.56</v>
+        <v>27</v>
       </c>
       <c r="D62" t="n">
-        <v>22.6</v>
+        <v>27</v>
       </c>
       <c r="E62" t="n">
-        <v>22.56</v>
+        <v>27</v>
       </c>
       <c r="F62" t="n">
-        <v>18000</v>
+        <v>13771.82</v>
       </c>
       <c r="G62" t="n">
-        <v>-313288.3084</v>
+        <v>1859596.976692842</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,33 +3066,40 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22.56</v>
+        <v>26.9</v>
       </c>
       <c r="C63" t="n">
-        <v>22.55</v>
+        <v>27.54</v>
       </c>
       <c r="D63" t="n">
-        <v>22.56</v>
+        <v>27.54</v>
       </c>
       <c r="E63" t="n">
-        <v>22.55</v>
+        <v>26.6</v>
       </c>
       <c r="F63" t="n">
-        <v>23462.5617</v>
+        <v>70140.53516472744</v>
       </c>
       <c r="G63" t="n">
-        <v>-336750.8701</v>
+        <v>1929737.511857569</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,33 +3108,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>22.55</v>
+        <v>27.29</v>
       </c>
       <c r="C64" t="n">
-        <v>22.55</v>
+        <v>26.7</v>
       </c>
       <c r="D64" t="n">
-        <v>22.55</v>
+        <v>27.5</v>
       </c>
       <c r="E64" t="n">
-        <v>22.55</v>
+        <v>26.7</v>
       </c>
       <c r="F64" t="n">
-        <v>4762.9812</v>
+        <v>156054.2189740612</v>
       </c>
       <c r="G64" t="n">
-        <v>-336750.8701</v>
+        <v>1773683.292883508</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,33 +3150,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>22.5</v>
+        <v>26.6</v>
       </c>
       <c r="C65" t="n">
-        <v>22.5</v>
+        <v>26.6</v>
       </c>
       <c r="D65" t="n">
-        <v>22.5</v>
+        <v>26.6</v>
       </c>
       <c r="E65" t="n">
-        <v>22.5</v>
+        <v>26.6</v>
       </c>
       <c r="F65" t="n">
-        <v>998.6856</v>
+        <v>2521.1046</v>
       </c>
       <c r="G65" t="n">
-        <v>-337749.5557</v>
+        <v>1771162.188283508</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,33 +3192,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>22.5</v>
+        <v>26.6</v>
       </c>
       <c r="C66" t="n">
-        <v>22.5</v>
+        <v>25.85</v>
       </c>
       <c r="D66" t="n">
-        <v>22.5</v>
+        <v>26.7</v>
       </c>
       <c r="E66" t="n">
-        <v>22.5</v>
+        <v>25.85</v>
       </c>
       <c r="F66" t="n">
-        <v>359.8685</v>
+        <v>89751.246</v>
       </c>
       <c r="G66" t="n">
-        <v>-337749.5557</v>
+        <v>1681410.942283508</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,33 +3234,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>22.5</v>
+        <v>26</v>
       </c>
       <c r="C67" t="n">
-        <v>22.5</v>
+        <v>26.49</v>
       </c>
       <c r="D67" t="n">
-        <v>22.5</v>
+        <v>26.49</v>
       </c>
       <c r="E67" t="n">
-        <v>22.5</v>
+        <v>26</v>
       </c>
       <c r="F67" t="n">
-        <v>1522.955</v>
+        <v>12379.0125</v>
       </c>
       <c r="G67" t="n">
-        <v>-337749.5557</v>
+        <v>1693789.954783508</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,33 +3276,40 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>22.5</v>
+        <v>25.89</v>
       </c>
       <c r="C68" t="n">
-        <v>22.5</v>
+        <v>27.2</v>
       </c>
       <c r="D68" t="n">
-        <v>22.5</v>
+        <v>27.2</v>
       </c>
       <c r="E68" t="n">
-        <v>22.5</v>
+        <v>25.89</v>
       </c>
       <c r="F68" t="n">
-        <v>905.0506</v>
+        <v>75718.57339999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-337749.5557</v>
+        <v>1769508.528183508</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,33 +3318,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>22.6</v>
+        <v>27.2</v>
       </c>
       <c r="C69" t="n">
-        <v>22.8</v>
+        <v>27.32</v>
       </c>
       <c r="D69" t="n">
-        <v>22.8</v>
+        <v>27.78</v>
       </c>
       <c r="E69" t="n">
-        <v>22.6</v>
+        <v>26.56</v>
       </c>
       <c r="F69" t="n">
-        <v>24400</v>
+        <v>156243.7339</v>
       </c>
       <c r="G69" t="n">
-        <v>-313349.5557</v>
+        <v>1925752.262083508</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,33 +3360,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>22.5</v>
+        <v>27.48</v>
       </c>
       <c r="C70" t="n">
-        <v>22.4</v>
+        <v>27.22</v>
       </c>
       <c r="D70" t="n">
-        <v>22.5</v>
+        <v>27.88</v>
       </c>
       <c r="E70" t="n">
-        <v>22.4</v>
+        <v>26.8</v>
       </c>
       <c r="F70" t="n">
-        <v>18377.5079</v>
+        <v>663430.7786860114</v>
       </c>
       <c r="G70" t="n">
-        <v>-331727.0636000001</v>
+        <v>1262321.483397496</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,33 +3402,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>22.45</v>
+        <v>27.1</v>
       </c>
       <c r="C71" t="n">
-        <v>22.4</v>
+        <v>27.45</v>
       </c>
       <c r="D71" t="n">
-        <v>22.45</v>
+        <v>27.7</v>
       </c>
       <c r="E71" t="n">
-        <v>22.4</v>
+        <v>26.8</v>
       </c>
       <c r="F71" t="n">
-        <v>4390</v>
+        <v>215713.3323</v>
       </c>
       <c r="G71" t="n">
-        <v>-331727.0636000001</v>
+        <v>1478034.815697496</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,33 +3444,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>22.4</v>
+        <v>27.3</v>
       </c>
       <c r="C72" t="n">
-        <v>22.5</v>
+        <v>27.7</v>
       </c>
       <c r="D72" t="n">
-        <v>22.5</v>
+        <v>27.7</v>
       </c>
       <c r="E72" t="n">
-        <v>22.4</v>
+        <v>26.81</v>
       </c>
       <c r="F72" t="n">
-        <v>1461</v>
+        <v>62766.7322</v>
       </c>
       <c r="G72" t="n">
-        <v>-330266.0636000001</v>
+        <v>1540801.547897496</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,33 +3486,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>22.5</v>
+        <v>27.48</v>
       </c>
       <c r="C73" t="n">
-        <v>22.5</v>
+        <v>27.46</v>
       </c>
       <c r="D73" t="n">
-        <v>22.5</v>
+        <v>27.57</v>
       </c>
       <c r="E73" t="n">
-        <v>22.5</v>
+        <v>27.46</v>
       </c>
       <c r="F73" t="n">
-        <v>1446.7557</v>
+        <v>9217.066971947987</v>
       </c>
       <c r="G73" t="n">
-        <v>-330266.0636000001</v>
+        <v>1531584.480925548</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,33 +3528,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>22.5</v>
+        <v>27.21</v>
       </c>
       <c r="C74" t="n">
-        <v>22.72</v>
+        <v>26.91</v>
       </c>
       <c r="D74" t="n">
-        <v>22.72</v>
+        <v>27.21</v>
       </c>
       <c r="E74" t="n">
-        <v>22.5</v>
+        <v>26.91</v>
       </c>
       <c r="F74" t="n">
-        <v>17370.2704</v>
+        <v>72703.87791264241</v>
       </c>
       <c r="G74" t="n">
-        <v>-312895.7932000001</v>
+        <v>1458880.603012906</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,33 +3570,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>22.72</v>
+        <v>26.91</v>
       </c>
       <c r="C75" t="n">
-        <v>22.72</v>
+        <v>25.7</v>
       </c>
       <c r="D75" t="n">
-        <v>22.72</v>
+        <v>26.91</v>
       </c>
       <c r="E75" t="n">
-        <v>22.72</v>
+        <v>25.7</v>
       </c>
       <c r="F75" t="n">
-        <v>1066.4967</v>
+        <v>14753.6028</v>
       </c>
       <c r="G75" t="n">
-        <v>-312895.7932000001</v>
+        <v>1444127.000212906</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,33 +3612,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>22.79</v>
+        <v>25.74</v>
       </c>
       <c r="C76" t="n">
-        <v>22.79</v>
+        <v>26.88</v>
       </c>
       <c r="D76" t="n">
-        <v>22.79</v>
+        <v>27.4</v>
       </c>
       <c r="E76" t="n">
-        <v>22.79</v>
+        <v>25.73</v>
       </c>
       <c r="F76" t="n">
-        <v>23</v>
+        <v>84451.8348</v>
       </c>
       <c r="G76" t="n">
-        <v>-312872.7932000001</v>
+        <v>1528578.835012906</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,33 +3654,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22.51</v>
+        <v>27.36</v>
       </c>
       <c r="C77" t="n">
-        <v>22.51</v>
+        <v>27.92</v>
       </c>
       <c r="D77" t="n">
-        <v>22.51</v>
+        <v>27.98</v>
       </c>
       <c r="E77" t="n">
-        <v>22.51</v>
+        <v>26.3</v>
       </c>
       <c r="F77" t="n">
-        <v>302.432</v>
+        <v>199325.4191</v>
       </c>
       <c r="G77" t="n">
-        <v>-313175.2252</v>
+        <v>1727904.254112906</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,33 +3696,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22.6</v>
+        <v>27.98</v>
       </c>
       <c r="C78" t="n">
-        <v>22.6</v>
+        <v>27.41</v>
       </c>
       <c r="D78" t="n">
-        <v>22.6</v>
+        <v>29.98</v>
       </c>
       <c r="E78" t="n">
-        <v>22.6</v>
+        <v>26.9</v>
       </c>
       <c r="F78" t="n">
-        <v>576.8822</v>
+        <v>300037.9155</v>
       </c>
       <c r="G78" t="n">
-        <v>-312598.3430000001</v>
+        <v>1427866.338612906</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,33 +3738,40 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>22.7</v>
+        <v>28.65</v>
       </c>
       <c r="C79" t="n">
-        <v>22.53</v>
+        <v>28</v>
       </c>
       <c r="D79" t="n">
-        <v>22.93</v>
+        <v>31.38</v>
       </c>
       <c r="E79" t="n">
-        <v>22.53</v>
+        <v>27.5</v>
       </c>
       <c r="F79" t="n">
-        <v>115110.7514</v>
+        <v>346209.699</v>
       </c>
       <c r="G79" t="n">
-        <v>-427709.0944000001</v>
+        <v>1774076.037612906</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,33 +3780,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>22.86</v>
+        <v>28</v>
       </c>
       <c r="C80" t="n">
-        <v>22.86</v>
+        <v>29.25</v>
       </c>
       <c r="D80" t="n">
-        <v>22.86</v>
+        <v>31.38</v>
       </c>
       <c r="E80" t="n">
-        <v>22.86</v>
+        <v>28</v>
       </c>
       <c r="F80" t="n">
-        <v>37400</v>
+        <v>240322.2146</v>
       </c>
       <c r="G80" t="n">
-        <v>-390309.0944000001</v>
+        <v>2014398.252212906</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,33 +3822,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23</v>
+        <v>29.75</v>
       </c>
       <c r="C81" t="n">
-        <v>23.48</v>
+        <v>31.38</v>
       </c>
       <c r="D81" t="n">
-        <v>23.48</v>
+        <v>31.38</v>
       </c>
       <c r="E81" t="n">
-        <v>23</v>
+        <v>29.75</v>
       </c>
       <c r="F81" t="n">
-        <v>31899.4638</v>
+        <v>432607.1677</v>
       </c>
       <c r="G81" t="n">
-        <v>-358409.6306</v>
+        <v>2447005.419912906</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,33 +3864,40 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>23.48</v>
+        <v>31.4</v>
       </c>
       <c r="C82" t="n">
-        <v>23.48</v>
+        <v>32.92</v>
       </c>
       <c r="D82" t="n">
-        <v>23.48</v>
+        <v>35.5</v>
       </c>
       <c r="E82" t="n">
-        <v>23.48</v>
+        <v>31.38</v>
       </c>
       <c r="F82" t="n">
-        <v>524</v>
+        <v>653666.7667578545</v>
       </c>
       <c r="G82" t="n">
-        <v>-358409.6306</v>
+        <v>3100672.186670761</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,33 +3906,40 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>23.21</v>
+        <v>32.91</v>
       </c>
       <c r="C83" t="n">
-        <v>23.48</v>
+        <v>32.67</v>
       </c>
       <c r="D83" t="n">
-        <v>23.48</v>
+        <v>34.6</v>
       </c>
       <c r="E83" t="n">
-        <v>23.21</v>
+        <v>31.37</v>
       </c>
       <c r="F83" t="n">
-        <v>88675.4127</v>
+        <v>533661.8296551033</v>
       </c>
       <c r="G83" t="n">
-        <v>-358409.6306</v>
+        <v>2567010.357015657</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,33 +3948,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23.14</v>
+        <v>31.57</v>
       </c>
       <c r="C84" t="n">
-        <v>23.4</v>
+        <v>32.5</v>
       </c>
       <c r="D84" t="n">
-        <v>23.4</v>
+        <v>32.63</v>
       </c>
       <c r="E84" t="n">
-        <v>23.14</v>
+        <v>31.57</v>
       </c>
       <c r="F84" t="n">
-        <v>4385.8009</v>
+        <v>55188.91</v>
       </c>
       <c r="G84" t="n">
-        <v>-362795.4315</v>
+        <v>2511821.447015657</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,33 +3990,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23.39</v>
+        <v>32.5</v>
       </c>
       <c r="C85" t="n">
-        <v>23.5</v>
+        <v>32.5</v>
       </c>
       <c r="D85" t="n">
-        <v>23.5</v>
+        <v>32.5</v>
       </c>
       <c r="E85" t="n">
-        <v>23.39</v>
+        <v>31.51</v>
       </c>
       <c r="F85" t="n">
-        <v>153912.6723</v>
+        <v>166386.9025</v>
       </c>
       <c r="G85" t="n">
-        <v>-208882.7592</v>
+        <v>2511821.447015657</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,33 +4032,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>23.49</v>
+        <v>31.62</v>
       </c>
       <c r="C86" t="n">
-        <v>23.49</v>
+        <v>32.21</v>
       </c>
       <c r="D86" t="n">
-        <v>23.49</v>
+        <v>33.5</v>
       </c>
       <c r="E86" t="n">
-        <v>23.49</v>
+        <v>31.6</v>
       </c>
       <c r="F86" t="n">
-        <v>1400.4414</v>
+        <v>85140.5459</v>
       </c>
       <c r="G86" t="n">
-        <v>-210283.2006</v>
+        <v>2426680.901115657</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,33 +4074,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>23.5</v>
+        <v>33.1</v>
       </c>
       <c r="C87" t="n">
-        <v>23.6</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>23.6</v>
+        <v>36</v>
       </c>
       <c r="E87" t="n">
-        <v>23.5</v>
+        <v>32.28</v>
       </c>
       <c r="F87" t="n">
-        <v>120074.1819</v>
+        <v>533587.9929870423</v>
       </c>
       <c r="G87" t="n">
-        <v>-90209.01870000002</v>
+        <v>2960268.8941027</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,45 +4116,61 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>23.6</v>
+        <v>35.6</v>
       </c>
       <c r="C88" t="n">
-        <v>23.6</v>
+        <v>32.78</v>
       </c>
       <c r="D88" t="n">
-        <v>23.6</v>
+        <v>36</v>
       </c>
       <c r="E88" t="n">
-        <v>23.59</v>
+        <v>32.08</v>
       </c>
       <c r="F88" t="n">
-        <v>26628.3783</v>
+        <v>386079.5667</v>
       </c>
       <c r="G88" t="n">
-        <v>-90209.01870000002</v>
+        <v>2574189.3274027</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>1.426441048034935</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1.019391802556192</v>
       </c>
     </row>
     <row r="89">
@@ -3478,28 +4178,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>23.6</v>
+        <v>32.81</v>
       </c>
       <c r="C89" t="n">
-        <v>23.84</v>
+        <v>34.52</v>
       </c>
       <c r="D89" t="n">
-        <v>23.84</v>
+        <v>34.8</v>
       </c>
       <c r="E89" t="n">
-        <v>23.6</v>
+        <v>32.81</v>
       </c>
       <c r="F89" t="n">
-        <v>25000</v>
+        <v>257975.7961</v>
       </c>
       <c r="G89" t="n">
-        <v>-65209.01870000002</v>
+        <v>2832165.1235027</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3507,34 +4207,35 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>23.84</v>
+        <v>34</v>
       </c>
       <c r="C90" t="n">
-        <v>23.84</v>
+        <v>32</v>
       </c>
       <c r="D90" t="n">
-        <v>23.84</v>
+        <v>34.7</v>
       </c>
       <c r="E90" t="n">
-        <v>23.84</v>
+        <v>29.12</v>
       </c>
       <c r="F90" t="n">
-        <v>1702.908</v>
+        <v>872476.5644962358</v>
       </c>
       <c r="G90" t="n">
-        <v>-65209.01870000002</v>
+        <v>1959688.559006464</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3542,34 +4243,35 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23.84</v>
+        <v>30.6</v>
       </c>
       <c r="C91" t="n">
-        <v>23.84</v>
+        <v>30.1</v>
       </c>
       <c r="D91" t="n">
-        <v>23.84</v>
+        <v>30.62</v>
       </c>
       <c r="E91" t="n">
-        <v>23.62</v>
+        <v>29.77</v>
       </c>
       <c r="F91" t="n">
-        <v>144136.506</v>
+        <v>316913.1464681063</v>
       </c>
       <c r="G91" t="n">
-        <v>-65209.01870000002</v>
+        <v>1642775.412538358</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3577,34 +4279,35 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>23.84</v>
+        <v>30.1</v>
       </c>
       <c r="C92" t="n">
-        <v>23.98</v>
+        <v>30.14</v>
       </c>
       <c r="D92" t="n">
-        <v>23.98</v>
+        <v>30.62</v>
       </c>
       <c r="E92" t="n">
-        <v>23.84</v>
+        <v>29.87</v>
       </c>
       <c r="F92" t="n">
-        <v>191961.3766</v>
+        <v>466674.9845518033</v>
       </c>
       <c r="G92" t="n">
-        <v>126752.3579</v>
+        <v>2109450.397090161</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3612,28 +4315,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>23.98</v>
+        <v>30.1</v>
       </c>
       <c r="C93" t="n">
-        <v>24.79</v>
+        <v>29.66</v>
       </c>
       <c r="D93" t="n">
-        <v>24.79</v>
+        <v>30.1</v>
       </c>
       <c r="E93" t="n">
-        <v>23.98</v>
+        <v>28.89</v>
       </c>
       <c r="F93" t="n">
-        <v>283633.6281</v>
+        <v>1045980.0564</v>
       </c>
       <c r="G93" t="n">
-        <v>410385.9859999999</v>
+        <v>1063470.340690161</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,34 +4351,35 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>24.4</v>
+        <v>29.13</v>
       </c>
       <c r="C94" t="n">
-        <v>25.32</v>
+        <v>29.66</v>
       </c>
       <c r="D94" t="n">
-        <v>25.32</v>
+        <v>29.66</v>
       </c>
       <c r="E94" t="n">
-        <v>24.31</v>
+        <v>28.89</v>
       </c>
       <c r="F94" t="n">
-        <v>176569.4201</v>
+        <v>164519.0638</v>
       </c>
       <c r="G94" t="n">
-        <v>586955.4060999999</v>
+        <v>1063470.340690161</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3682,28 +4387,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>25.29</v>
+        <v>29.4</v>
       </c>
       <c r="C95" t="n">
-        <v>25.49</v>
+        <v>28.1</v>
       </c>
       <c r="D95" t="n">
-        <v>25.5</v>
+        <v>29.4</v>
       </c>
       <c r="E95" t="n">
-        <v>25.29</v>
+        <v>27.58</v>
       </c>
       <c r="F95" t="n">
-        <v>191513.8671</v>
+        <v>787594.7369235732</v>
       </c>
       <c r="G95" t="n">
-        <v>778469.2731999999</v>
+        <v>275875.6037665874</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +4423,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.49</v>
+        <v>28.12</v>
       </c>
       <c r="C96" t="n">
-        <v>24.9</v>
+        <v>27.83</v>
       </c>
       <c r="D96" t="n">
-        <v>25.49</v>
+        <v>28.56</v>
       </c>
       <c r="E96" t="n">
-        <v>24.9</v>
+        <v>27.34</v>
       </c>
       <c r="F96" t="n">
-        <v>12309.1064</v>
+        <v>768029.551</v>
       </c>
       <c r="G96" t="n">
-        <v>766160.1667999999</v>
+        <v>-492153.9472334125</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +4459,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25.48</v>
+        <v>27.73</v>
       </c>
       <c r="C97" t="n">
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="D97" t="n">
-        <v>25.5</v>
+        <v>28.47</v>
       </c>
       <c r="E97" t="n">
-        <v>25.4</v>
+        <v>27</v>
       </c>
       <c r="F97" t="n">
-        <v>192374.3992</v>
+        <v>505626.812032947</v>
       </c>
       <c r="G97" t="n">
-        <v>958534.5659999999</v>
+        <v>-997780.7592663595</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +4495,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>25.5</v>
+        <v>27.1</v>
       </c>
       <c r="C98" t="n">
-        <v>26.44</v>
+        <v>27.39</v>
       </c>
       <c r="D98" t="n">
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
       <c r="E98" t="n">
-        <v>25.5</v>
+        <v>26.76</v>
       </c>
       <c r="F98" t="n">
-        <v>475456.2881</v>
+        <v>233542.6666839627</v>
       </c>
       <c r="G98" t="n">
-        <v>1433990.8541</v>
+        <v>-764238.0925823968</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +4531,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.44</v>
+        <v>27.36</v>
       </c>
       <c r="C99" t="n">
-        <v>26.44</v>
+        <v>27.1</v>
       </c>
       <c r="D99" t="n">
-        <v>26.44</v>
+        <v>27.36</v>
       </c>
       <c r="E99" t="n">
-        <v>26.44</v>
+        <v>26.8</v>
       </c>
       <c r="F99" t="n">
-        <v>9407.374900000001</v>
+        <v>375903.2854</v>
       </c>
       <c r="G99" t="n">
-        <v>1433990.8541</v>
+        <v>-1140141.377982397</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +4567,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26.59</v>
+        <v>27.1</v>
       </c>
       <c r="C100" t="n">
-        <v>26.59</v>
+        <v>27.26</v>
       </c>
       <c r="D100" t="n">
-        <v>26.59</v>
+        <v>27.27</v>
       </c>
       <c r="E100" t="n">
-        <v>26.59</v>
+        <v>26.8</v>
       </c>
       <c r="F100" t="n">
-        <v>884.0955</v>
+        <v>158091.4534</v>
       </c>
       <c r="G100" t="n">
-        <v>1434874.9496</v>
+        <v>-982049.9245823969</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +4603,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26.48</v>
+        <v>27.19</v>
       </c>
       <c r="C101" t="n">
-        <v>26.48</v>
+        <v>26.97</v>
       </c>
       <c r="D101" t="n">
-        <v>26.48</v>
+        <v>27.2</v>
       </c>
       <c r="E101" t="n">
-        <v>26.48</v>
+        <v>26.92</v>
       </c>
       <c r="F101" t="n">
-        <v>14200</v>
+        <v>320627.7138</v>
       </c>
       <c r="G101" t="n">
-        <v>1420674.9496</v>
+        <v>-1302677.638382397</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4639,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26.49</v>
+        <v>27.2</v>
       </c>
       <c r="C102" t="n">
-        <v>26.5</v>
+        <v>27.13</v>
       </c>
       <c r="D102" t="n">
-        <v>26.99</v>
+        <v>27.64</v>
       </c>
       <c r="E102" t="n">
-        <v>26.49</v>
+        <v>26.97</v>
       </c>
       <c r="F102" t="n">
-        <v>230795.2058</v>
+        <v>238195.5916</v>
       </c>
       <c r="G102" t="n">
-        <v>1651470.1554</v>
+        <v>-1064482.046782397</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4675,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26.71</v>
+        <v>26.97</v>
       </c>
       <c r="C103" t="n">
-        <v>26.71</v>
+        <v>26.7</v>
       </c>
       <c r="D103" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E103" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F103" t="n">
-        <v>194355.0012928417</v>
+        <v>209393.9383</v>
       </c>
       <c r="G103" t="n">
-        <v>1845825.156692842</v>
+        <v>-1273875.985082397</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4711,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27</v>
+        <v>26.87</v>
       </c>
       <c r="C104" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="D104" t="n">
-        <v>27</v>
+        <v>27.16</v>
       </c>
       <c r="E104" t="n">
-        <v>27</v>
+        <v>26.53</v>
       </c>
       <c r="F104" t="n">
-        <v>13771.82</v>
+        <v>46542.3635</v>
       </c>
       <c r="G104" t="n">
-        <v>1859596.976692842</v>
+        <v>-1227333.621582397</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,6 +4747,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4041,19 +4757,19 @@
         <v>26.9</v>
       </c>
       <c r="C105" t="n">
-        <v>27.54</v>
+        <v>26.21</v>
       </c>
       <c r="D105" t="n">
-        <v>27.54</v>
+        <v>26.9</v>
       </c>
       <c r="E105" t="n">
-        <v>26.6</v>
+        <v>26.21</v>
       </c>
       <c r="F105" t="n">
-        <v>70140.53516472744</v>
+        <v>236657.6555763198</v>
       </c>
       <c r="G105" t="n">
-        <v>1929737.511857569</v>
+        <v>-1463991.277158717</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4783,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.29</v>
+        <v>26.21</v>
       </c>
       <c r="C106" t="n">
-        <v>26.7</v>
+        <v>26.16</v>
       </c>
       <c r="D106" t="n">
-        <v>27.5</v>
+        <v>26.49</v>
       </c>
       <c r="E106" t="n">
-        <v>26.7</v>
+        <v>26.11</v>
       </c>
       <c r="F106" t="n">
-        <v>156054.2189740612</v>
+        <v>157362.115</v>
       </c>
       <c r="G106" t="n">
-        <v>1773683.292883508</v>
+        <v>-1621353.392158717</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4819,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26.6</v>
+        <v>26.15</v>
       </c>
       <c r="C107" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="D107" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="E107" t="n">
-        <v>26.6</v>
+        <v>26.14</v>
       </c>
       <c r="F107" t="n">
-        <v>2521.1046</v>
+        <v>177822.922</v>
       </c>
       <c r="G107" t="n">
-        <v>1771162.188283508</v>
+        <v>-1443530.470158717</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4855,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.6</v>
+        <v>26.22</v>
       </c>
       <c r="C108" t="n">
-        <v>25.85</v>
+        <v>26.42</v>
       </c>
       <c r="D108" t="n">
-        <v>26.7</v>
+        <v>26.43</v>
       </c>
       <c r="E108" t="n">
-        <v>25.85</v>
+        <v>26.21</v>
       </c>
       <c r="F108" t="n">
-        <v>89751.246</v>
+        <v>25930.2473753689</v>
       </c>
       <c r="G108" t="n">
-        <v>1681410.942283508</v>
+        <v>-1417600.222783348</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4891,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26</v>
+        <v>26.42</v>
       </c>
       <c r="C109" t="n">
-        <v>26.49</v>
+        <v>26.2</v>
       </c>
       <c r="D109" t="n">
-        <v>26.49</v>
+        <v>26.42</v>
       </c>
       <c r="E109" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F109" t="n">
-        <v>12379.0125</v>
+        <v>91206.84005291446</v>
       </c>
       <c r="G109" t="n">
-        <v>1693789.954783508</v>
+        <v>-1508807.062836262</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4927,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>25.89</v>
+        <v>26.17</v>
       </c>
       <c r="C110" t="n">
-        <v>27.2</v>
+        <v>26.15</v>
       </c>
       <c r="D110" t="n">
-        <v>27.2</v>
+        <v>26.41</v>
       </c>
       <c r="E110" t="n">
-        <v>25.89</v>
+        <v>26.15</v>
       </c>
       <c r="F110" t="n">
-        <v>75718.57339999999</v>
+        <v>122253.5703</v>
       </c>
       <c r="G110" t="n">
-        <v>1769508.528183508</v>
+        <v>-1631060.633136262</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4963,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.2</v>
+        <v>26.15</v>
       </c>
       <c r="C111" t="n">
-        <v>27.32</v>
+        <v>26.02</v>
       </c>
       <c r="D111" t="n">
-        <v>27.78</v>
+        <v>26.28</v>
       </c>
       <c r="E111" t="n">
-        <v>26.56</v>
+        <v>26.02</v>
       </c>
       <c r="F111" t="n">
-        <v>156243.7339</v>
+        <v>537420.0048</v>
       </c>
       <c r="G111" t="n">
-        <v>1925752.262083508</v>
+        <v>-2168480.637936262</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4999,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.48</v>
+        <v>26</v>
       </c>
       <c r="C112" t="n">
-        <v>27.22</v>
+        <v>25.85</v>
       </c>
       <c r="D112" t="n">
-        <v>27.88</v>
+        <v>26</v>
       </c>
       <c r="E112" t="n">
-        <v>26.8</v>
+        <v>25.56</v>
       </c>
       <c r="F112" t="n">
-        <v>663430.7786860114</v>
+        <v>341347.9071</v>
       </c>
       <c r="G112" t="n">
-        <v>1262321.483397496</v>
+        <v>-2509828.545036262</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +5035,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.1</v>
+        <v>25.86</v>
       </c>
       <c r="C113" t="n">
-        <v>27.45</v>
+        <v>26.3</v>
       </c>
       <c r="D113" t="n">
-        <v>27.7</v>
+        <v>26.3</v>
       </c>
       <c r="E113" t="n">
-        <v>26.8</v>
+        <v>25.86</v>
       </c>
       <c r="F113" t="n">
-        <v>215713.3323</v>
+        <v>161838.4515</v>
       </c>
       <c r="G113" t="n">
-        <v>1478034.815697496</v>
+        <v>-2347990.093536262</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +5071,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.3</v>
+        <v>26</v>
       </c>
       <c r="C114" t="n">
-        <v>27.7</v>
+        <v>26.3</v>
       </c>
       <c r="D114" t="n">
-        <v>27.7</v>
+        <v>26.31</v>
       </c>
       <c r="E114" t="n">
-        <v>26.81</v>
+        <v>26</v>
       </c>
       <c r="F114" t="n">
-        <v>62766.7322</v>
+        <v>87903.5935</v>
       </c>
       <c r="G114" t="n">
-        <v>1540801.547897496</v>
+        <v>-2347990.093536262</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +5107,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.48</v>
+        <v>26.3</v>
       </c>
       <c r="C115" t="n">
-        <v>27.46</v>
+        <v>26.6</v>
       </c>
       <c r="D115" t="n">
-        <v>27.57</v>
+        <v>26.98</v>
       </c>
       <c r="E115" t="n">
-        <v>27.46</v>
+        <v>26.3</v>
       </c>
       <c r="F115" t="n">
-        <v>9217.066971947987</v>
+        <v>635343.5632236802</v>
       </c>
       <c r="G115" t="n">
-        <v>1531584.480925548</v>
+        <v>-1712646.530312582</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +5143,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.21</v>
+        <v>26.88</v>
       </c>
       <c r="C116" t="n">
-        <v>26.91</v>
+        <v>26.4</v>
       </c>
       <c r="D116" t="n">
-        <v>27.21</v>
+        <v>26.89</v>
       </c>
       <c r="E116" t="n">
-        <v>26.91</v>
+        <v>26.4</v>
       </c>
       <c r="F116" t="n">
-        <v>72703.87791264241</v>
+        <v>59671.6098</v>
       </c>
       <c r="G116" t="n">
-        <v>1458880.603012906</v>
+        <v>-1772318.140112582</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +5179,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26.91</v>
+        <v>26.85</v>
       </c>
       <c r="C117" t="n">
-        <v>25.7</v>
+        <v>26.6</v>
       </c>
       <c r="D117" t="n">
-        <v>26.91</v>
+        <v>26.85</v>
       </c>
       <c r="E117" t="n">
-        <v>25.7</v>
+        <v>26.6</v>
       </c>
       <c r="F117" t="n">
-        <v>14753.6028</v>
+        <v>225653.8713</v>
       </c>
       <c r="G117" t="n">
-        <v>1444127.000212906</v>
+        <v>-1546664.268812582</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +5215,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>25.74</v>
+        <v>26.69</v>
       </c>
       <c r="C118" t="n">
-        <v>26.88</v>
+        <v>26.51</v>
       </c>
       <c r="D118" t="n">
-        <v>27.4</v>
+        <v>26.69</v>
       </c>
       <c r="E118" t="n">
-        <v>25.73</v>
+        <v>26.5</v>
       </c>
       <c r="F118" t="n">
-        <v>84451.8348</v>
+        <v>106</v>
       </c>
       <c r="G118" t="n">
-        <v>1528578.835012906</v>
+        <v>-1546770.268812582</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +5251,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.36</v>
+        <v>26.69</v>
       </c>
       <c r="C119" t="n">
-        <v>27.92</v>
+        <v>26.13</v>
       </c>
       <c r="D119" t="n">
-        <v>27.98</v>
+        <v>26.88</v>
       </c>
       <c r="E119" t="n">
-        <v>26.3</v>
+        <v>26.13</v>
       </c>
       <c r="F119" t="n">
-        <v>199325.4191</v>
+        <v>721735.2958</v>
       </c>
       <c r="G119" t="n">
-        <v>1727904.254112906</v>
+        <v>-2268505.564612582</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +5287,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.98</v>
+        <v>26.13</v>
       </c>
       <c r="C120" t="n">
-        <v>27.41</v>
+        <v>26.31</v>
       </c>
       <c r="D120" t="n">
-        <v>29.98</v>
+        <v>26.69</v>
       </c>
       <c r="E120" t="n">
-        <v>26.9</v>
+        <v>26.13</v>
       </c>
       <c r="F120" t="n">
-        <v>300037.9155</v>
+        <v>489308.9750490821</v>
       </c>
       <c r="G120" t="n">
-        <v>1427866.338612906</v>
+        <v>-1779196.5895635</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +5323,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>28.65</v>
+        <v>26.31</v>
       </c>
       <c r="C121" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D121" t="n">
-        <v>31.38</v>
+        <v>26.62</v>
       </c>
       <c r="E121" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="F121" t="n">
-        <v>346209.699</v>
+        <v>332838.2876</v>
       </c>
       <c r="G121" t="n">
-        <v>1774076.037612906</v>
+        <v>-2112034.8771635</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +5359,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>28</v>
+        <v>25.8</v>
       </c>
       <c r="C122" t="n">
-        <v>29.25</v>
+        <v>26.32</v>
       </c>
       <c r="D122" t="n">
-        <v>31.38</v>
+        <v>26.32</v>
       </c>
       <c r="E122" t="n">
-        <v>28</v>
+        <v>25.3</v>
       </c>
       <c r="F122" t="n">
-        <v>240322.2146</v>
+        <v>351177.3519</v>
       </c>
       <c r="G122" t="n">
-        <v>2014398.252212906</v>
+        <v>-1760857.5252635</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +5395,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>29.75</v>
+        <v>26.32</v>
       </c>
       <c r="C123" t="n">
-        <v>31.38</v>
+        <v>26.28</v>
       </c>
       <c r="D123" t="n">
-        <v>31.38</v>
+        <v>26.32</v>
       </c>
       <c r="E123" t="n">
-        <v>29.75</v>
+        <v>26.28</v>
       </c>
       <c r="F123" t="n">
-        <v>432607.1677</v>
+        <v>80837.92909999999</v>
       </c>
       <c r="G123" t="n">
-        <v>2447005.419912906</v>
+        <v>-1841695.4543635</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +5431,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>31.4</v>
+        <v>26.28</v>
       </c>
       <c r="C124" t="n">
-        <v>32.92</v>
+        <v>26.28</v>
       </c>
       <c r="D124" t="n">
-        <v>35.5</v>
+        <v>26.28</v>
       </c>
       <c r="E124" t="n">
-        <v>31.38</v>
+        <v>26.28</v>
       </c>
       <c r="F124" t="n">
-        <v>653666.7667578545</v>
+        <v>74140.8579</v>
       </c>
       <c r="G124" t="n">
-        <v>3100672.186670761</v>
+        <v>-1841695.4543635</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,1580 +5467,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>32.91</v>
-      </c>
-      <c r="C125" t="n">
-        <v>32.67</v>
-      </c>
-      <c r="D125" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E125" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="F125" t="n">
-        <v>533661.8296551033</v>
-      </c>
-      <c r="G125" t="n">
-        <v>2567010.357015657</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>31.57</v>
-      </c>
-      <c r="C126" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D126" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="E126" t="n">
-        <v>31.57</v>
-      </c>
-      <c r="F126" t="n">
-        <v>55188.91</v>
-      </c>
-      <c r="G126" t="n">
-        <v>2511821.447015657</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C127" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D127" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E127" t="n">
-        <v>31.51</v>
-      </c>
-      <c r="F127" t="n">
-        <v>166386.9025</v>
-      </c>
-      <c r="G127" t="n">
-        <v>2511821.447015657</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>31.62</v>
-      </c>
-      <c r="C128" t="n">
-        <v>32.21</v>
-      </c>
-      <c r="D128" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F128" t="n">
-        <v>85140.5459</v>
-      </c>
-      <c r="G128" t="n">
-        <v>2426680.901115657</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>36</v>
-      </c>
-      <c r="D129" t="n">
-        <v>36</v>
-      </c>
-      <c r="E129" t="n">
-        <v>32.28</v>
-      </c>
-      <c r="F129" t="n">
-        <v>533587.9929870423</v>
-      </c>
-      <c r="G129" t="n">
-        <v>2960268.8941027</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>32.78</v>
-      </c>
-      <c r="D130" t="n">
-        <v>36</v>
-      </c>
-      <c r="E130" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="F130" t="n">
-        <v>386079.5667</v>
-      </c>
-      <c r="G130" t="n">
-        <v>2574189.3274027</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>32.81</v>
-      </c>
-      <c r="C131" t="n">
-        <v>34.52</v>
-      </c>
-      <c r="D131" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E131" t="n">
-        <v>32.81</v>
-      </c>
-      <c r="F131" t="n">
-        <v>257975.7961</v>
-      </c>
-      <c r="G131" t="n">
-        <v>2832165.1235027</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>34</v>
-      </c>
-      <c r="C132" t="n">
-        <v>32</v>
-      </c>
-      <c r="D132" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E132" t="n">
-        <v>29.12</v>
-      </c>
-      <c r="F132" t="n">
-        <v>872476.5644962358</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1959688.559006464</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C133" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>30.62</v>
-      </c>
-      <c r="E133" t="n">
-        <v>29.77</v>
-      </c>
-      <c r="F133" t="n">
-        <v>316913.1464681063</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1642775.412538358</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="D134" t="n">
-        <v>30.62</v>
-      </c>
-      <c r="E134" t="n">
-        <v>29.87</v>
-      </c>
-      <c r="F134" t="n">
-        <v>466674.9845518033</v>
-      </c>
-      <c r="G134" t="n">
-        <v>2109450.397090161</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C135" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="D135" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1045980.0564</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1063470.340690161</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="C136" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="D136" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="E136" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="F136" t="n">
-        <v>164519.0638</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1063470.340690161</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C137" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E137" t="n">
-        <v>27.58</v>
-      </c>
-      <c r="F137" t="n">
-        <v>787594.7369235732</v>
-      </c>
-      <c r="G137" t="n">
-        <v>275875.6037665874</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>28.12</v>
-      </c>
-      <c r="C138" t="n">
-        <v>27.83</v>
-      </c>
-      <c r="D138" t="n">
-        <v>28.56</v>
-      </c>
-      <c r="E138" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="F138" t="n">
-        <v>768029.551</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-492153.9472334125</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>27.73</v>
-      </c>
-      <c r="C139" t="n">
-        <v>27</v>
-      </c>
-      <c r="D139" t="n">
-        <v>28.47</v>
-      </c>
-      <c r="E139" t="n">
-        <v>27</v>
-      </c>
-      <c r="F139" t="n">
-        <v>505626.812032947</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-997780.7592663595</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="D140" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E140" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="F140" t="n">
-        <v>233542.6666839627</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-764238.0925823968</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>27.36</v>
-      </c>
-      <c r="C141" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>27.36</v>
-      </c>
-      <c r="E141" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F141" t="n">
-        <v>375903.2854</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-1140141.377982397</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>27.26</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27.27</v>
-      </c>
-      <c r="E142" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F142" t="n">
-        <v>158091.4534</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-982049.9245823969</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="C143" t="n">
-        <v>26.97</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E143" t="n">
-        <v>26.92</v>
-      </c>
-      <c r="F143" t="n">
-        <v>320627.7138</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-1302677.638382397</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C144" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="D144" t="n">
-        <v>27.64</v>
-      </c>
-      <c r="E144" t="n">
-        <v>26.97</v>
-      </c>
-      <c r="F144" t="n">
-        <v>238195.5916</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-1064482.046782397</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>26.97</v>
-      </c>
-      <c r="C145" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F145" t="n">
-        <v>209393.9383</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-1273875.985082397</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>26.87</v>
-      </c>
-      <c r="C146" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D146" t="n">
-        <v>27.16</v>
-      </c>
-      <c r="E146" t="n">
-        <v>26.53</v>
-      </c>
-      <c r="F146" t="n">
-        <v>46542.3635</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-1227333.621582397</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C147" t="n">
-        <v>26.21</v>
-      </c>
-      <c r="D147" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E147" t="n">
-        <v>26.21</v>
-      </c>
-      <c r="F147" t="n">
-        <v>236657.6555763198</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1463991.277158717</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>26.21</v>
-      </c>
-      <c r="C148" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="D148" t="n">
-        <v>26.49</v>
-      </c>
-      <c r="E148" t="n">
-        <v>26.11</v>
-      </c>
-      <c r="F148" t="n">
-        <v>157362.115</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-1621353.392158717</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="C149" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E149" t="n">
-        <v>26.14</v>
-      </c>
-      <c r="F149" t="n">
-        <v>177822.922</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-1443530.470158717</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>26.22</v>
-      </c>
-      <c r="C150" t="n">
-        <v>26.42</v>
-      </c>
-      <c r="D150" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="E150" t="n">
-        <v>26.21</v>
-      </c>
-      <c r="F150" t="n">
-        <v>25930.2473753689</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-1417600.222783348</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K150" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>26.42</v>
-      </c>
-      <c r="C151" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D151" t="n">
-        <v>26.42</v>
-      </c>
-      <c r="E151" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F151" t="n">
-        <v>91206.84005291446</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1508807.062836262</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>26.17</v>
-      </c>
-      <c r="C152" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="D152" t="n">
-        <v>26.41</v>
-      </c>
-      <c r="E152" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="F152" t="n">
-        <v>122253.5703</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-1631060.633136262</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K152" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="C153" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="D153" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="E153" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="F153" t="n">
-        <v>537420.0048</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-2168480.637936262</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="K153" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>26</v>
-      </c>
-      <c r="C154" t="n">
-        <v>25.85</v>
-      </c>
-      <c r="D154" t="n">
-        <v>26</v>
-      </c>
-      <c r="E154" t="n">
-        <v>25.56</v>
-      </c>
-      <c r="F154" t="n">
-        <v>341347.9071</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-2509828.545036262</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>25.86</v>
-      </c>
-      <c r="C155" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D155" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E155" t="n">
-        <v>25.86</v>
-      </c>
-      <c r="F155" t="n">
-        <v>161838.4515</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-2347990.093536262</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>26</v>
-      </c>
-      <c r="C156" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D156" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="E156" t="n">
-        <v>26</v>
-      </c>
-      <c r="F156" t="n">
-        <v>87903.5935</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-2347990.093536262</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C157" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D157" t="n">
-        <v>26.98</v>
-      </c>
-      <c r="E157" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F157" t="n">
-        <v>635343.5632236802</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-1712646.530312582</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="C158" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D158" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="E158" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F158" t="n">
-        <v>59671.6098</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-1772318.140112582</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="C159" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D159" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="E159" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F159" t="n">
-        <v>225653.8713</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-1546664.268812582</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="C160" t="n">
-        <v>26.51</v>
-      </c>
-      <c r="D160" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="E160" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F160" t="n">
-        <v>106</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-1546770.268812582</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="C161" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="D161" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="E161" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="F161" t="n">
-        <v>721735.2958</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-2268505.564612582</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="C162" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="D162" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="E162" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="F162" t="n">
-        <v>489308.9750490821</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-1779196.5895635</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="C163" t="n">
-        <v>26</v>
-      </c>
-      <c r="D163" t="n">
-        <v>26.62</v>
-      </c>
-      <c r="E163" t="n">
-        <v>26</v>
-      </c>
-      <c r="F163" t="n">
-        <v>332838.2876</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-2112034.8771635</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C164" t="n">
-        <v>26.32</v>
-      </c>
-      <c r="D164" t="n">
-        <v>26.32</v>
-      </c>
-      <c r="E164" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F164" t="n">
-        <v>351177.3519</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-1760857.5252635</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>26.32</v>
-      </c>
-      <c r="C165" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="D165" t="n">
-        <v>26.32</v>
-      </c>
-      <c r="E165" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="F165" t="n">
-        <v>80837.92909999999</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-1841695.4543635</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="C166" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="D166" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="E166" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="F166" t="n">
-        <v>74140.8579</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-1841695.4543635</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
+      <c r="N124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest LBA.xlsx
+++ b/BackTest/2020-01-15 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22.85</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>22.85</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>22.85</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>22.85</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>10008</v>
+        <v>130.4722</v>
       </c>
       <c r="G2" t="n">
-        <v>-179853.2265</v>
+        <v>-60740.13919999997</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22.85</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>22.85</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>22.85</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>22.85</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>20261.1791</v>
+        <v>20.1876</v>
       </c>
       <c r="G3" t="n">
-        <v>-179853.2265</v>
+        <v>-60740.13919999997</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="K3" t="n">
-        <v>22.85</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.69</v>
+        <v>23.21</v>
       </c>
       <c r="C4" t="n">
-        <v>22.69</v>
+        <v>23.21</v>
       </c>
       <c r="D4" t="n">
-        <v>22.69</v>
+        <v>23.21</v>
       </c>
       <c r="E4" t="n">
-        <v>22.69</v>
+        <v>23.21</v>
       </c>
       <c r="F4" t="n">
-        <v>31601.2754</v>
+        <v>8600</v>
       </c>
       <c r="G4" t="n">
-        <v>-211454.5019</v>
+        <v>-52140.13919999997</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.9</v>
+        <v>23.33</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9</v>
+        <v>23.33</v>
       </c>
       <c r="D5" t="n">
-        <v>22.9</v>
+        <v>23.33</v>
       </c>
       <c r="E5" t="n">
-        <v>22.9</v>
+        <v>23.33</v>
       </c>
       <c r="F5" t="n">
-        <v>1221</v>
+        <v>141.0581</v>
       </c>
       <c r="G5" t="n">
-        <v>-210233.5019</v>
+        <v>-51999.08109999997</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="K5" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.7</v>
+        <v>23.16</v>
       </c>
       <c r="C6" t="n">
-        <v>22.7</v>
+        <v>23.16</v>
       </c>
       <c r="D6" t="n">
-        <v>22.7</v>
+        <v>23.16</v>
       </c>
       <c r="E6" t="n">
-        <v>22.7</v>
+        <v>23.16</v>
       </c>
       <c r="F6" t="n">
-        <v>587.961</v>
+        <v>8599.751</v>
       </c>
       <c r="G6" t="n">
-        <v>-210821.4629</v>
+        <v>-60598.83209999997</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -642,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.9</v>
+        <v>23.44</v>
       </c>
       <c r="C7" t="n">
-        <v>22.9</v>
+        <v>23.44</v>
       </c>
       <c r="D7" t="n">
-        <v>22.9</v>
+        <v>23.44</v>
       </c>
       <c r="E7" t="n">
-        <v>22.9</v>
+        <v>23.16</v>
       </c>
       <c r="F7" t="n">
-        <v>1797.8298</v>
+        <v>61659.964</v>
       </c>
       <c r="G7" t="n">
-        <v>-209023.6331</v>
+        <v>1061.131900000029</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -686,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>23.02</v>
       </c>
       <c r="C8" t="n">
-        <v>23.13</v>
+        <v>23.02</v>
       </c>
       <c r="D8" t="n">
-        <v>23.13</v>
+        <v>23.02</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>23.02</v>
       </c>
       <c r="F8" t="n">
-        <v>600</v>
+        <v>897.6678000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-208423.6331</v>
+        <v>163.4641000000294</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -730,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="C9" t="n">
-        <v>22.62</v>
+        <v>23.2</v>
       </c>
       <c r="D9" t="n">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="E9" t="n">
-        <v>22.62</v>
+        <v>23.2</v>
       </c>
       <c r="F9" t="n">
-        <v>41532.0076</v>
+        <v>156.25</v>
       </c>
       <c r="G9" t="n">
-        <v>-249955.6407</v>
+        <v>319.7141000000294</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="K9" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -774,40 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.7</v>
+        <v>23.04</v>
       </c>
       <c r="C10" t="n">
-        <v>22.7</v>
+        <v>23.03</v>
       </c>
       <c r="D10" t="n">
-        <v>22.7</v>
+        <v>23.04</v>
       </c>
       <c r="E10" t="n">
-        <v>22.7</v>
+        <v>23.03</v>
       </c>
       <c r="F10" t="n">
-        <v>271.8395</v>
+        <v>50742.187</v>
       </c>
       <c r="G10" t="n">
-        <v>-249683.8012</v>
+        <v>-50422.47289999997</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="K10" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -818,40 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.65</v>
+        <v>23.02</v>
       </c>
       <c r="C11" t="n">
-        <v>22.65</v>
+        <v>23.02</v>
       </c>
       <c r="D11" t="n">
-        <v>22.65</v>
+        <v>23.02</v>
       </c>
       <c r="E11" t="n">
-        <v>22.65</v>
+        <v>23.02</v>
       </c>
       <c r="F11" t="n">
-        <v>23419.1328</v>
+        <v>9719.162200000001</v>
       </c>
       <c r="G11" t="n">
-        <v>-273102.934</v>
+        <v>-60141.63509999997</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -862,40 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="C12" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="D12" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="E12" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>131.7392</v>
       </c>
       <c r="G12" t="n">
-        <v>-273079.934</v>
+        <v>-60273.37429999997</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="K12" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -906,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="D13" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="F13" t="n">
-        <v>248.8395</v>
+        <v>3076.9861</v>
       </c>
       <c r="G13" t="n">
-        <v>-273079.934</v>
+        <v>-60273.37429999997</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -950,40 +870,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22.56</v>
+        <v>22.95</v>
       </c>
       <c r="C14" t="n">
-        <v>22.56</v>
+        <v>22.95</v>
       </c>
       <c r="D14" t="n">
-        <v>22.56</v>
+        <v>22.95</v>
       </c>
       <c r="E14" t="n">
-        <v>22.56</v>
+        <v>22.95</v>
       </c>
       <c r="F14" t="n">
-        <v>28106.6996</v>
+        <v>161.4971</v>
       </c>
       <c r="G14" t="n">
-        <v>-301186.6336</v>
+        <v>-60273.37429999997</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -994,40 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22.57</v>
+        <v>22.71</v>
       </c>
       <c r="C15" t="n">
-        <v>22.57</v>
+        <v>22.95</v>
       </c>
       <c r="D15" t="n">
-        <v>22.57</v>
+        <v>22.95</v>
       </c>
       <c r="E15" t="n">
-        <v>22.57</v>
+        <v>22.71</v>
       </c>
       <c r="F15" t="n">
-        <v>8385.7443</v>
+        <v>15322.663</v>
       </c>
       <c r="G15" t="n">
-        <v>-292800.8893</v>
+        <v>-60273.37429999997</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="K15" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1038,40 +942,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8</v>
+        <v>23.02</v>
       </c>
       <c r="C16" t="n">
-        <v>22.8</v>
+        <v>23.23</v>
       </c>
       <c r="D16" t="n">
-        <v>22.8</v>
+        <v>23.23</v>
       </c>
       <c r="E16" t="n">
-        <v>22.8</v>
+        <v>23.02</v>
       </c>
       <c r="F16" t="n">
-        <v>772.3848</v>
+        <v>24558.1794</v>
       </c>
       <c r="G16" t="n">
-        <v>-292028.5045</v>
+        <v>-35715.19489999997</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="K16" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1082,40 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>22.8</v>
+        <v>23.22</v>
       </c>
       <c r="C17" t="n">
-        <v>22.8</v>
+        <v>23.22</v>
       </c>
       <c r="D17" t="n">
-        <v>22.8</v>
+        <v>23.22</v>
       </c>
       <c r="E17" t="n">
-        <v>22.8</v>
+        <v>23.22</v>
       </c>
       <c r="F17" t="n">
-        <v>2175.4569</v>
+        <v>156</v>
       </c>
       <c r="G17" t="n">
-        <v>-292028.5045</v>
+        <v>-35871.19489999997</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1126,40 +1014,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22.68</v>
+        <v>23.21</v>
       </c>
       <c r="C18" t="n">
-        <v>22.68</v>
+        <v>23.22</v>
       </c>
       <c r="D18" t="n">
-        <v>22.68</v>
+        <v>23.22</v>
       </c>
       <c r="E18" t="n">
-        <v>22.68</v>
+        <v>23.21</v>
       </c>
       <c r="F18" t="n">
-        <v>3259.8039</v>
+        <v>26819.5561</v>
       </c>
       <c r="G18" t="n">
-        <v>-295288.3084</v>
+        <v>-35871.19489999997</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1170,40 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22.68</v>
+        <v>23.22</v>
       </c>
       <c r="C19" t="n">
-        <v>22.68</v>
+        <v>23.22</v>
       </c>
       <c r="D19" t="n">
-        <v>22.68</v>
+        <v>23.22</v>
       </c>
       <c r="E19" t="n">
-        <v>22.68</v>
+        <v>23.22</v>
       </c>
       <c r="F19" t="n">
-        <v>4839.3267</v>
+        <v>8240.8382</v>
       </c>
       <c r="G19" t="n">
-        <v>-295288.3084</v>
+        <v>-35871.19489999997</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>22.68</v>
-      </c>
-      <c r="K19" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1214,40 +1086,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22.6</v>
+        <v>23.22</v>
       </c>
       <c r="C20" t="n">
-        <v>22.56</v>
+        <v>23.22</v>
       </c>
       <c r="D20" t="n">
-        <v>22.6</v>
+        <v>23.22</v>
       </c>
       <c r="E20" t="n">
-        <v>22.56</v>
+        <v>23.22</v>
       </c>
       <c r="F20" t="n">
-        <v>18000</v>
+        <v>617.5555000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-313288.3084</v>
+        <v>-35871.19489999997</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>22.68</v>
-      </c>
-      <c r="K20" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1258,40 +1122,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22.56</v>
+        <v>23.22</v>
       </c>
       <c r="C21" t="n">
-        <v>22.55</v>
+        <v>23.22</v>
       </c>
       <c r="D21" t="n">
-        <v>22.56</v>
+        <v>23.22</v>
       </c>
       <c r="E21" t="n">
-        <v>22.55</v>
+        <v>23.22</v>
       </c>
       <c r="F21" t="n">
-        <v>23462.5617</v>
+        <v>7078</v>
       </c>
       <c r="G21" t="n">
-        <v>-336750.8701</v>
+        <v>-35871.19489999997</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="K21" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1302,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22.55</v>
+        <v>23.22</v>
       </c>
       <c r="C22" t="n">
-        <v>22.55</v>
+        <v>23.22</v>
       </c>
       <c r="D22" t="n">
-        <v>22.55</v>
+        <v>23.22</v>
       </c>
       <c r="E22" t="n">
-        <v>22.55</v>
+        <v>23.22</v>
       </c>
       <c r="F22" t="n">
-        <v>4762.9812</v>
+        <v>128.7891</v>
       </c>
       <c r="G22" t="n">
-        <v>-336750.8701</v>
+        <v>-35871.19489999997</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="K22" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1346,40 +1194,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="C23" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="D23" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="E23" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="F23" t="n">
-        <v>998.6856</v>
+        <v>2500</v>
       </c>
       <c r="G23" t="n">
-        <v>-337749.5557</v>
+        <v>-35871.19489999997</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="K23" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1390,40 +1230,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="C24" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="D24" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="E24" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="F24" t="n">
-        <v>359.8685</v>
+        <v>750</v>
       </c>
       <c r="G24" t="n">
-        <v>-337749.5557</v>
+        <v>-35871.19489999997</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1434,40 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>22.5</v>
+        <v>23.01</v>
       </c>
       <c r="C25" t="n">
-        <v>22.5</v>
+        <v>23.01</v>
       </c>
       <c r="D25" t="n">
-        <v>22.5</v>
+        <v>23.01</v>
       </c>
       <c r="E25" t="n">
-        <v>22.5</v>
+        <v>23.01</v>
       </c>
       <c r="F25" t="n">
-        <v>1522.955</v>
+        <v>156</v>
       </c>
       <c r="G25" t="n">
-        <v>-337749.5557</v>
+        <v>-36027.19489999997</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1478,40 +1302,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="C26" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="D26" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="E26" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="F26" t="n">
-        <v>905.0506</v>
+        <v>150</v>
       </c>
       <c r="G26" t="n">
-        <v>-337749.5557</v>
+        <v>-35877.19489999997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,40 +1338,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22.6</v>
+        <v>23.14</v>
       </c>
       <c r="C27" t="n">
-        <v>22.8</v>
+        <v>23.22</v>
       </c>
       <c r="D27" t="n">
-        <v>22.8</v>
+        <v>23.22</v>
       </c>
       <c r="E27" t="n">
-        <v>22.6</v>
+        <v>23.14</v>
       </c>
       <c r="F27" t="n">
-        <v>24400</v>
+        <v>2500</v>
       </c>
       <c r="G27" t="n">
-        <v>-313349.5557</v>
+        <v>-35877.19489999997</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1566,40 +1374,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>22.5</v>
+        <v>23.15</v>
       </c>
       <c r="C28" t="n">
-        <v>22.4</v>
+        <v>23.15</v>
       </c>
       <c r="D28" t="n">
-        <v>22.5</v>
+        <v>23.15</v>
       </c>
       <c r="E28" t="n">
-        <v>22.4</v>
+        <v>23.15</v>
       </c>
       <c r="F28" t="n">
-        <v>18377.5079</v>
+        <v>750</v>
       </c>
       <c r="G28" t="n">
-        <v>-331727.0636000001</v>
+        <v>-36627.19489999997</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1610,40 +1410,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>22.45</v>
+        <v>23.2</v>
       </c>
       <c r="C29" t="n">
-        <v>22.4</v>
+        <v>23.2</v>
       </c>
       <c r="D29" t="n">
-        <v>22.45</v>
+        <v>23.2</v>
       </c>
       <c r="E29" t="n">
-        <v>22.4</v>
+        <v>23.2</v>
       </c>
       <c r="F29" t="n">
-        <v>4390</v>
+        <v>47</v>
       </c>
       <c r="G29" t="n">
-        <v>-331727.0636000001</v>
+        <v>-36580.19489999997</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1654,40 +1446,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>22.4</v>
+        <v>23.22</v>
       </c>
       <c r="C30" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="D30" t="n">
-        <v>22.5</v>
+        <v>23.22</v>
       </c>
       <c r="E30" t="n">
-        <v>22.4</v>
+        <v>23.22</v>
       </c>
       <c r="F30" t="n">
-        <v>1461</v>
+        <v>46.6846</v>
       </c>
       <c r="G30" t="n">
-        <v>-330266.0636000001</v>
+        <v>-36533.51029999997</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1698,40 +1482,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>22.5</v>
+        <v>23.18</v>
       </c>
       <c r="C31" t="n">
-        <v>22.5</v>
+        <v>23.18</v>
       </c>
       <c r="D31" t="n">
-        <v>22.5</v>
+        <v>23.18</v>
       </c>
       <c r="E31" t="n">
-        <v>22.5</v>
+        <v>23.18</v>
       </c>
       <c r="F31" t="n">
-        <v>1446.7557</v>
+        <v>1090</v>
       </c>
       <c r="G31" t="n">
-        <v>-330266.0636000001</v>
+        <v>-37623.51029999997</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1742,40 +1518,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>22.5</v>
+        <v>23.2</v>
       </c>
       <c r="C32" t="n">
-        <v>22.72</v>
+        <v>23.2</v>
       </c>
       <c r="D32" t="n">
-        <v>22.72</v>
+        <v>23.2</v>
       </c>
       <c r="E32" t="n">
-        <v>22.5</v>
+        <v>23.2</v>
       </c>
       <c r="F32" t="n">
-        <v>17370.2704</v>
+        <v>307.188</v>
       </c>
       <c r="G32" t="n">
-        <v>-312895.7932000001</v>
+        <v>-37316.32229999997</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1786,40 +1554,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>22.72</v>
+        <v>23.3</v>
       </c>
       <c r="C33" t="n">
-        <v>22.72</v>
+        <v>23.2</v>
       </c>
       <c r="D33" t="n">
-        <v>22.72</v>
+        <v>23.3</v>
       </c>
       <c r="E33" t="n">
-        <v>22.72</v>
+        <v>23.2</v>
       </c>
       <c r="F33" t="n">
-        <v>1066.4967</v>
+        <v>515.5214</v>
       </c>
       <c r="G33" t="n">
-        <v>-312895.7932000001</v>
+        <v>-37316.32229999997</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="K33" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1830,40 +1590,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>22.79</v>
+        <v>23.12</v>
       </c>
       <c r="C34" t="n">
-        <v>22.79</v>
+        <v>23.12</v>
       </c>
       <c r="D34" t="n">
-        <v>22.79</v>
+        <v>23.12</v>
       </c>
       <c r="E34" t="n">
-        <v>22.79</v>
+        <v>23.12</v>
       </c>
       <c r="F34" t="n">
-        <v>23</v>
+        <v>998</v>
       </c>
       <c r="G34" t="n">
-        <v>-312872.7932000001</v>
+        <v>-38314.32229999997</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="K34" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1874,40 +1626,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>22.51</v>
+        <v>23.4</v>
       </c>
       <c r="C35" t="n">
-        <v>22.51</v>
+        <v>23.4</v>
       </c>
       <c r="D35" t="n">
-        <v>22.51</v>
+        <v>23.4</v>
       </c>
       <c r="E35" t="n">
-        <v>22.51</v>
+        <v>23.4</v>
       </c>
       <c r="F35" t="n">
-        <v>302.432</v>
+        <v>1607.8967</v>
       </c>
       <c r="G35" t="n">
-        <v>-313175.2252</v>
+        <v>-36706.42559999997</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="K35" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1918,40 +1662,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>22.6</v>
+        <v>23.45</v>
       </c>
       <c r="C36" t="n">
-        <v>22.6</v>
+        <v>23.58</v>
       </c>
       <c r="D36" t="n">
-        <v>22.6</v>
+        <v>23.58</v>
       </c>
       <c r="E36" t="n">
-        <v>22.6</v>
+        <v>23.45</v>
       </c>
       <c r="F36" t="n">
-        <v>576.8822</v>
+        <v>1565</v>
       </c>
       <c r="G36" t="n">
-        <v>-312598.3430000001</v>
+        <v>-35141.42559999997</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="K36" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1962,40 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>22.7</v>
+        <v>23.58</v>
       </c>
       <c r="C37" t="n">
-        <v>22.53</v>
+        <v>23.58</v>
       </c>
       <c r="D37" t="n">
-        <v>22.93</v>
+        <v>23.58</v>
       </c>
       <c r="E37" t="n">
-        <v>22.53</v>
+        <v>23.58</v>
       </c>
       <c r="F37" t="n">
-        <v>115110.7514</v>
+        <v>314.4806</v>
       </c>
       <c r="G37" t="n">
-        <v>-427709.0944000001</v>
+        <v>-35141.42559999997</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -2006,40 +1734,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>22.86</v>
+        <v>23.5</v>
       </c>
       <c r="C38" t="n">
-        <v>22.86</v>
+        <v>23.5</v>
       </c>
       <c r="D38" t="n">
-        <v>22.86</v>
+        <v>23.5</v>
       </c>
       <c r="E38" t="n">
-        <v>22.86</v>
+        <v>23.5</v>
       </c>
       <c r="F38" t="n">
-        <v>37400</v>
+        <v>105.9642</v>
       </c>
       <c r="G38" t="n">
-        <v>-390309.0944000001</v>
+        <v>-35247.38979999998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="K38" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2050,40 +1770,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="C39" t="n">
-        <v>23.48</v>
+        <v>23.5</v>
       </c>
       <c r="D39" t="n">
-        <v>23.48</v>
+        <v>23.5</v>
       </c>
       <c r="E39" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="F39" t="n">
-        <v>31899.4638</v>
+        <v>894.0358</v>
       </c>
       <c r="G39" t="n">
-        <v>-358409.6306</v>
+        <v>-35247.38979999998</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="K39" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2094,40 +1806,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23.48</v>
+        <v>23.58</v>
       </c>
       <c r="C40" t="n">
-        <v>23.48</v>
+        <v>23.98</v>
       </c>
       <c r="D40" t="n">
-        <v>23.48</v>
+        <v>23.98</v>
       </c>
       <c r="E40" t="n">
-        <v>23.48</v>
+        <v>23.58</v>
       </c>
       <c r="F40" t="n">
-        <v>524</v>
+        <v>8250</v>
       </c>
       <c r="G40" t="n">
-        <v>-358409.6306</v>
+        <v>-26997.38979999998</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="K40" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2138,40 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23.21</v>
+        <v>23.71</v>
       </c>
       <c r="C41" t="n">
-        <v>23.48</v>
+        <v>23.71</v>
       </c>
       <c r="D41" t="n">
-        <v>23.48</v>
+        <v>23.71</v>
       </c>
       <c r="E41" t="n">
-        <v>23.21</v>
+        <v>23.71</v>
       </c>
       <c r="F41" t="n">
-        <v>88675.4127</v>
+        <v>9804.538699999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-358409.6306</v>
+        <v>-36801.92849999997</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="K41" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2182,40 +1878,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23.14</v>
+        <v>23.6</v>
       </c>
       <c r="C42" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="D42" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="E42" t="n">
-        <v>23.14</v>
+        <v>23.6</v>
       </c>
       <c r="F42" t="n">
-        <v>4385.8009</v>
+        <v>567</v>
       </c>
       <c r="G42" t="n">
-        <v>-362795.4315</v>
+        <v>-37368.92849999997</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="K42" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2226,40 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23.39</v>
+        <v>23.6</v>
       </c>
       <c r="C43" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D43" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E43" t="n">
-        <v>23.39</v>
+        <v>23.51</v>
       </c>
       <c r="F43" t="n">
-        <v>153912.6723</v>
+        <v>430.7756</v>
       </c>
       <c r="G43" t="n">
-        <v>-208882.7592</v>
+        <v>-37368.92849999997</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K43" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2270,40 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23.49</v>
+        <v>23.48</v>
       </c>
       <c r="C44" t="n">
-        <v>23.49</v>
+        <v>23.48</v>
       </c>
       <c r="D44" t="n">
-        <v>23.49</v>
+        <v>23.48</v>
       </c>
       <c r="E44" t="n">
-        <v>23.49</v>
+        <v>23.48</v>
       </c>
       <c r="F44" t="n">
-        <v>1400.4414</v>
+        <v>2577.3367</v>
       </c>
       <c r="G44" t="n">
-        <v>-210283.2006</v>
+        <v>-39946.26519999997</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2314,40 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="C45" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D45" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E45" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="F45" t="n">
-        <v>120074.1819</v>
+        <v>2548.1723</v>
       </c>
       <c r="G45" t="n">
-        <v>-90209.01870000002</v>
+        <v>-42494.43749999997</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>23.49</v>
-      </c>
-      <c r="K45" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2358,40 +2022,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23.6</v>
+        <v>23.28</v>
       </c>
       <c r="C46" t="n">
-        <v>23.6</v>
+        <v>23.28</v>
       </c>
       <c r="D46" t="n">
-        <v>23.6</v>
+        <v>23.28</v>
       </c>
       <c r="E46" t="n">
-        <v>23.59</v>
+        <v>23.28</v>
       </c>
       <c r="F46" t="n">
-        <v>26628.3783</v>
+        <v>1733.5101</v>
       </c>
       <c r="G46" t="n">
-        <v>-90209.01870000002</v>
+        <v>-44227.94759999997</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K46" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2402,40 +2058,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23.6</v>
+        <v>23.28</v>
       </c>
       <c r="C47" t="n">
-        <v>23.84</v>
+        <v>23.28</v>
       </c>
       <c r="D47" t="n">
-        <v>23.84</v>
+        <v>23.28</v>
       </c>
       <c r="E47" t="n">
-        <v>23.6</v>
+        <v>23.28</v>
       </c>
       <c r="F47" t="n">
-        <v>25000</v>
+        <v>161</v>
       </c>
       <c r="G47" t="n">
-        <v>-65209.01870000002</v>
+        <v>-44227.94759999997</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2446,40 +2094,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23.84</v>
+        <v>23</v>
       </c>
       <c r="C48" t="n">
-        <v>23.84</v>
+        <v>23</v>
       </c>
       <c r="D48" t="n">
-        <v>23.84</v>
+        <v>23</v>
       </c>
       <c r="E48" t="n">
-        <v>23.84</v>
+        <v>23</v>
       </c>
       <c r="F48" t="n">
-        <v>1702.908</v>
+        <v>298.14</v>
       </c>
       <c r="G48" t="n">
-        <v>-65209.01870000002</v>
+        <v>-44526.08759999997</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="K48" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2490,40 +2130,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23.84</v>
+        <v>22.98</v>
       </c>
       <c r="C49" t="n">
-        <v>23.84</v>
+        <v>22.49</v>
       </c>
       <c r="D49" t="n">
-        <v>23.84</v>
+        <v>22.98</v>
       </c>
       <c r="E49" t="n">
-        <v>23.62</v>
+        <v>22.49</v>
       </c>
       <c r="F49" t="n">
-        <v>144136.506</v>
+        <v>68108.66</v>
       </c>
       <c r="G49" t="n">
-        <v>-65209.01870000002</v>
+        <v>-112634.7476</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="K49" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2534,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23.84</v>
+        <v>22.47</v>
       </c>
       <c r="C50" t="n">
-        <v>23.98</v>
+        <v>22.43</v>
       </c>
       <c r="D50" t="n">
-        <v>23.98</v>
+        <v>22.47</v>
       </c>
       <c r="E50" t="n">
-        <v>23.84</v>
+        <v>22.34</v>
       </c>
       <c r="F50" t="n">
-        <v>191961.3766</v>
+        <v>87316.3648</v>
       </c>
       <c r="G50" t="n">
-        <v>126752.3579</v>
+        <v>-199951.1124</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2558,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2576,40 +2202,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23.98</v>
+        <v>22.9</v>
       </c>
       <c r="C51" t="n">
-        <v>24.79</v>
+        <v>22.97</v>
       </c>
       <c r="D51" t="n">
-        <v>24.79</v>
+        <v>22.97</v>
       </c>
       <c r="E51" t="n">
-        <v>23.98</v>
+        <v>22.9</v>
       </c>
       <c r="F51" t="n">
-        <v>283633.6281</v>
+        <v>4797.7231</v>
       </c>
       <c r="G51" t="n">
-        <v>410385.9859999999</v>
+        <v>-195153.3893</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>23.98</v>
-      </c>
-      <c r="K51" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2620,40 +2238,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>24.4</v>
+        <v>22.89</v>
       </c>
       <c r="C52" t="n">
-        <v>25.32</v>
+        <v>22.89</v>
       </c>
       <c r="D52" t="n">
-        <v>25.32</v>
+        <v>22.89</v>
       </c>
       <c r="E52" t="n">
-        <v>24.31</v>
+        <v>22.89</v>
       </c>
       <c r="F52" t="n">
-        <v>176569.4201</v>
+        <v>30000</v>
       </c>
       <c r="G52" t="n">
-        <v>586955.4060999999</v>
+        <v>-225153.3893</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>24.79</v>
-      </c>
-      <c r="K52" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2664,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25.29</v>
+        <v>22.97</v>
       </c>
       <c r="C53" t="n">
-        <v>25.49</v>
+        <v>22.97</v>
       </c>
       <c r="D53" t="n">
-        <v>25.5</v>
+        <v>22.97</v>
       </c>
       <c r="E53" t="n">
-        <v>25.29</v>
+        <v>22.97</v>
       </c>
       <c r="F53" t="n">
-        <v>191513.8671</v>
+        <v>20000</v>
       </c>
       <c r="G53" t="n">
-        <v>778469.2731999999</v>
+        <v>-205153.3893</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2688,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2706,38 +2310,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.49</v>
+        <v>23</v>
       </c>
       <c r="C54" t="n">
-        <v>24.9</v>
+        <v>23</v>
       </c>
       <c r="D54" t="n">
-        <v>25.49</v>
+        <v>23</v>
       </c>
       <c r="E54" t="n">
-        <v>24.9</v>
+        <v>23</v>
       </c>
       <c r="F54" t="n">
-        <v>12309.1064</v>
+        <v>10200</v>
       </c>
       <c r="G54" t="n">
-        <v>766160.1667999999</v>
+        <v>-194953.3893</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>22.97</v>
+      </c>
       <c r="K54" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>22.97</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2748,22 +2350,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.48</v>
+        <v>22.6</v>
       </c>
       <c r="C55" t="n">
-        <v>25.5</v>
+        <v>22.52</v>
       </c>
       <c r="D55" t="n">
-        <v>25.5</v>
+        <v>22.6</v>
       </c>
       <c r="E55" t="n">
-        <v>25.4</v>
+        <v>22.52</v>
       </c>
       <c r="F55" t="n">
-        <v>192374.3992</v>
+        <v>3585.9827</v>
       </c>
       <c r="G55" t="n">
-        <v>958534.5659999999</v>
+        <v>-198539.372</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2773,11 +2375,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -2790,22 +2392,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25.5</v>
+        <v>22.7</v>
       </c>
       <c r="C56" t="n">
-        <v>26.44</v>
+        <v>22.7</v>
       </c>
       <c r="D56" t="n">
-        <v>26.5</v>
+        <v>22.7</v>
       </c>
       <c r="E56" t="n">
-        <v>25.5</v>
+        <v>22.7</v>
       </c>
       <c r="F56" t="n">
-        <v>475456.2881</v>
+        <v>567</v>
       </c>
       <c r="G56" t="n">
-        <v>1433990.8541</v>
+        <v>-197972.372</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2815,7 +2417,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2832,32 +2434,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.44</v>
+        <v>22.7</v>
       </c>
       <c r="C57" t="n">
-        <v>26.44</v>
+        <v>22.7</v>
       </c>
       <c r="D57" t="n">
-        <v>26.44</v>
+        <v>22.7</v>
       </c>
       <c r="E57" t="n">
-        <v>26.44</v>
+        <v>22.7</v>
       </c>
       <c r="F57" t="n">
-        <v>9407.374900000001</v>
+        <v>3450</v>
       </c>
       <c r="G57" t="n">
-        <v>1433990.8541</v>
+        <v>-197972.372</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>22.7</v>
+      </c>
       <c r="K57" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2874,32 +2478,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>26.59</v>
+        <v>22.7</v>
       </c>
       <c r="C58" t="n">
-        <v>26.59</v>
+        <v>22.7</v>
       </c>
       <c r="D58" t="n">
-        <v>26.59</v>
+        <v>22.7</v>
       </c>
       <c r="E58" t="n">
-        <v>26.59</v>
+        <v>22.7</v>
       </c>
       <c r="F58" t="n">
-        <v>884.0955</v>
+        <v>1550</v>
       </c>
       <c r="G58" t="n">
-        <v>1434874.9496</v>
+        <v>-197972.372</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>22.7</v>
+      </c>
       <c r="K58" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2916,32 +2522,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>26.48</v>
+        <v>22.52</v>
       </c>
       <c r="C59" t="n">
-        <v>26.48</v>
+        <v>22.52</v>
       </c>
       <c r="D59" t="n">
-        <v>26.48</v>
+        <v>22.52</v>
       </c>
       <c r="E59" t="n">
-        <v>26.48</v>
+        <v>22.52</v>
       </c>
       <c r="F59" t="n">
-        <v>14200</v>
+        <v>374.12</v>
       </c>
       <c r="G59" t="n">
-        <v>1420674.9496</v>
+        <v>-198346.492</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>22.7</v>
+      </c>
       <c r="K59" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2958,32 +2566,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>26.49</v>
+        <v>22.55</v>
       </c>
       <c r="C60" t="n">
-        <v>26.5</v>
+        <v>22.5</v>
       </c>
       <c r="D60" t="n">
-        <v>26.99</v>
+        <v>22.55</v>
       </c>
       <c r="E60" t="n">
-        <v>26.49</v>
+        <v>22.5</v>
       </c>
       <c r="F60" t="n">
-        <v>230795.2058</v>
+        <v>13599.5981</v>
       </c>
       <c r="G60" t="n">
-        <v>1651470.1554</v>
+        <v>-211946.0901</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>22.52</v>
+      </c>
       <c r="K60" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -3000,32 +2610,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26.71</v>
+        <v>22.5</v>
       </c>
       <c r="C61" t="n">
-        <v>26.71</v>
+        <v>22.5</v>
       </c>
       <c r="D61" t="n">
-        <v>27.8</v>
+        <v>22.5</v>
       </c>
       <c r="E61" t="n">
-        <v>26.7</v>
+        <v>22.5</v>
       </c>
       <c r="F61" t="n">
-        <v>194355.0012928417</v>
+        <v>7192.2859</v>
       </c>
       <c r="G61" t="n">
-        <v>1845825.156692842</v>
+        <v>-211946.0901</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K61" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3042,32 +2654,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27</v>
+        <v>22.5</v>
       </c>
       <c r="C62" t="n">
-        <v>27</v>
+        <v>22.5</v>
       </c>
       <c r="D62" t="n">
-        <v>27</v>
+        <v>22.5</v>
       </c>
       <c r="E62" t="n">
-        <v>27</v>
+        <v>22.5</v>
       </c>
       <c r="F62" t="n">
-        <v>13771.82</v>
+        <v>1900</v>
       </c>
       <c r="G62" t="n">
-        <v>1859596.976692842</v>
+        <v>-211946.0901</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K62" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3084,32 +2698,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.9</v>
+        <v>22.5</v>
       </c>
       <c r="C63" t="n">
-        <v>27.54</v>
+        <v>22.5</v>
       </c>
       <c r="D63" t="n">
-        <v>27.54</v>
+        <v>22.5</v>
       </c>
       <c r="E63" t="n">
-        <v>26.6</v>
+        <v>22.5</v>
       </c>
       <c r="F63" t="n">
-        <v>70140.53516472744</v>
+        <v>3000</v>
       </c>
       <c r="G63" t="n">
-        <v>1929737.511857569</v>
+        <v>-211946.0901</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K63" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3126,32 +2742,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.29</v>
+        <v>22.5</v>
       </c>
       <c r="C64" t="n">
-        <v>26.7</v>
+        <v>22.5</v>
       </c>
       <c r="D64" t="n">
-        <v>27.5</v>
+        <v>22.5</v>
       </c>
       <c r="E64" t="n">
-        <v>26.7</v>
+        <v>22.5</v>
       </c>
       <c r="F64" t="n">
-        <v>156054.2189740612</v>
+        <v>5050</v>
       </c>
       <c r="G64" t="n">
-        <v>1773683.292883508</v>
+        <v>-211946.0901</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K64" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3168,32 +2786,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.6</v>
+        <v>22.43</v>
       </c>
       <c r="C65" t="n">
-        <v>26.6</v>
+        <v>22.43</v>
       </c>
       <c r="D65" t="n">
-        <v>26.6</v>
+        <v>22.43</v>
       </c>
       <c r="E65" t="n">
-        <v>26.6</v>
+        <v>22.43</v>
       </c>
       <c r="F65" t="n">
-        <v>2521.1046</v>
+        <v>20404.88</v>
       </c>
       <c r="G65" t="n">
-        <v>1771162.188283508</v>
+        <v>-232350.9701</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K65" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3210,32 +2830,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.6</v>
+        <v>22.43</v>
       </c>
       <c r="C66" t="n">
-        <v>25.85</v>
+        <v>22.43</v>
       </c>
       <c r="D66" t="n">
-        <v>26.7</v>
+        <v>22.43</v>
       </c>
       <c r="E66" t="n">
-        <v>25.85</v>
+        <v>22.43</v>
       </c>
       <c r="F66" t="n">
-        <v>89751.246</v>
+        <v>6594.6269</v>
       </c>
       <c r="G66" t="n">
-        <v>1681410.942283508</v>
+        <v>-232350.9701</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>22.43</v>
+      </c>
       <c r="K66" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3252,32 +2874,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26</v>
+        <v>22.43</v>
       </c>
       <c r="C67" t="n">
-        <v>26.49</v>
+        <v>22.43</v>
       </c>
       <c r="D67" t="n">
-        <v>26.49</v>
+        <v>22.43</v>
       </c>
       <c r="E67" t="n">
-        <v>26</v>
+        <v>22.43</v>
       </c>
       <c r="F67" t="n">
-        <v>12379.0125</v>
+        <v>48099.5735</v>
       </c>
       <c r="G67" t="n">
-        <v>1693789.954783508</v>
+        <v>-232350.9701</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>22.43</v>
+      </c>
       <c r="K67" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3294,32 +2918,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25.89</v>
+        <v>22.52</v>
       </c>
       <c r="C68" t="n">
-        <v>27.2</v>
+        <v>22.52</v>
       </c>
       <c r="D68" t="n">
-        <v>27.2</v>
+        <v>22.52</v>
       </c>
       <c r="E68" t="n">
-        <v>25.89</v>
+        <v>22.52</v>
       </c>
       <c r="F68" t="n">
-        <v>75718.57339999999</v>
+        <v>43250</v>
       </c>
       <c r="G68" t="n">
-        <v>1769508.528183508</v>
+        <v>-189100.9701</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>22.43</v>
+      </c>
       <c r="K68" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3336,32 +2962,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>27.2</v>
+        <v>22.52</v>
       </c>
       <c r="C69" t="n">
-        <v>27.32</v>
+        <v>22.52</v>
       </c>
       <c r="D69" t="n">
-        <v>27.78</v>
+        <v>22.52</v>
       </c>
       <c r="E69" t="n">
-        <v>26.56</v>
+        <v>22.52</v>
       </c>
       <c r="F69" t="n">
-        <v>156243.7339</v>
+        <v>34881.3943</v>
       </c>
       <c r="G69" t="n">
-        <v>1925752.262083508</v>
+        <v>-189100.9701</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>22.52</v>
+      </c>
       <c r="K69" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3378,32 +3006,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.48</v>
+        <v>22.55</v>
       </c>
       <c r="C70" t="n">
-        <v>27.22</v>
+        <v>22.89</v>
       </c>
       <c r="D70" t="n">
-        <v>27.88</v>
+        <v>22.89</v>
       </c>
       <c r="E70" t="n">
-        <v>26.8</v>
+        <v>22.55</v>
       </c>
       <c r="F70" t="n">
-        <v>663430.7786860114</v>
+        <v>61</v>
       </c>
       <c r="G70" t="n">
-        <v>1262321.483397496</v>
+        <v>-189039.9701</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>22.52</v>
+      </c>
       <c r="K70" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3420,32 +3050,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27.1</v>
+        <v>22.84</v>
       </c>
       <c r="C71" t="n">
-        <v>27.45</v>
+        <v>22.84</v>
       </c>
       <c r="D71" t="n">
-        <v>27.7</v>
+        <v>22.84</v>
       </c>
       <c r="E71" t="n">
-        <v>26.8</v>
+        <v>22.84</v>
       </c>
       <c r="F71" t="n">
-        <v>215713.3323</v>
+        <v>821.2564</v>
       </c>
       <c r="G71" t="n">
-        <v>1478034.815697496</v>
+        <v>-189861.2265</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K71" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3462,32 +3094,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.3</v>
+        <v>22.84</v>
       </c>
       <c r="C72" t="n">
-        <v>27.7</v>
+        <v>22.84</v>
       </c>
       <c r="D72" t="n">
-        <v>27.7</v>
+        <v>22.84</v>
       </c>
       <c r="E72" t="n">
-        <v>26.81</v>
+        <v>22.84</v>
       </c>
       <c r="F72" t="n">
-        <v>62766.7322</v>
+        <v>43605.8269</v>
       </c>
       <c r="G72" t="n">
-        <v>1540801.547897496</v>
+        <v>-189861.2265</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>22.84</v>
+      </c>
       <c r="K72" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3504,32 +3138,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.48</v>
+        <v>22.85</v>
       </c>
       <c r="C73" t="n">
-        <v>27.46</v>
+        <v>22.85</v>
       </c>
       <c r="D73" t="n">
-        <v>27.57</v>
+        <v>22.85</v>
       </c>
       <c r="E73" t="n">
-        <v>27.46</v>
+        <v>22.85</v>
       </c>
       <c r="F73" t="n">
-        <v>9217.066971947987</v>
+        <v>10008</v>
       </c>
       <c r="G73" t="n">
-        <v>1531584.480925548</v>
+        <v>-179853.2265</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>22.84</v>
+      </c>
       <c r="K73" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3546,32 +3182,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.21</v>
+        <v>22.85</v>
       </c>
       <c r="C74" t="n">
-        <v>26.91</v>
+        <v>22.85</v>
       </c>
       <c r="D74" t="n">
-        <v>27.21</v>
+        <v>22.85</v>
       </c>
       <c r="E74" t="n">
-        <v>26.91</v>
+        <v>22.85</v>
       </c>
       <c r="F74" t="n">
-        <v>72703.87791264241</v>
+        <v>20261.1791</v>
       </c>
       <c r="G74" t="n">
-        <v>1458880.603012906</v>
+        <v>-179853.2265</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>22.85</v>
+      </c>
       <c r="K74" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3588,32 +3226,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.91</v>
+        <v>22.69</v>
       </c>
       <c r="C75" t="n">
-        <v>25.7</v>
+        <v>22.69</v>
       </c>
       <c r="D75" t="n">
-        <v>26.91</v>
+        <v>22.69</v>
       </c>
       <c r="E75" t="n">
-        <v>25.7</v>
+        <v>22.69</v>
       </c>
       <c r="F75" t="n">
-        <v>14753.6028</v>
+        <v>31601.2754</v>
       </c>
       <c r="G75" t="n">
-        <v>1444127.000212906</v>
+        <v>-211454.5019</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>22.85</v>
+      </c>
       <c r="K75" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3630,32 +3270,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>25.74</v>
+        <v>22.9</v>
       </c>
       <c r="C76" t="n">
-        <v>26.88</v>
+        <v>22.9</v>
       </c>
       <c r="D76" t="n">
-        <v>27.4</v>
+        <v>22.9</v>
       </c>
       <c r="E76" t="n">
-        <v>25.73</v>
+        <v>22.9</v>
       </c>
       <c r="F76" t="n">
-        <v>84451.8348</v>
+        <v>1221</v>
       </c>
       <c r="G76" t="n">
-        <v>1528578.835012906</v>
+        <v>-210233.5019</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>22.69</v>
+      </c>
       <c r="K76" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3672,32 +3314,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.36</v>
+        <v>22.7</v>
       </c>
       <c r="C77" t="n">
-        <v>27.92</v>
+        <v>22.7</v>
       </c>
       <c r="D77" t="n">
-        <v>27.98</v>
+        <v>22.7</v>
       </c>
       <c r="E77" t="n">
-        <v>26.3</v>
+        <v>22.7</v>
       </c>
       <c r="F77" t="n">
-        <v>199325.4191</v>
+        <v>587.961</v>
       </c>
       <c r="G77" t="n">
-        <v>1727904.254112906</v>
+        <v>-210821.4629</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>22.9</v>
+      </c>
       <c r="K77" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3714,32 +3358,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.98</v>
+        <v>22.9</v>
       </c>
       <c r="C78" t="n">
-        <v>27.41</v>
+        <v>22.9</v>
       </c>
       <c r="D78" t="n">
-        <v>29.98</v>
+        <v>22.9</v>
       </c>
       <c r="E78" t="n">
-        <v>26.9</v>
+        <v>22.9</v>
       </c>
       <c r="F78" t="n">
-        <v>300037.9155</v>
+        <v>1797.8298</v>
       </c>
       <c r="G78" t="n">
-        <v>1427866.338612906</v>
+        <v>-209023.6331</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>22.7</v>
+      </c>
       <c r="K78" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3756,32 +3402,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28.65</v>
+        <v>23</v>
       </c>
       <c r="C79" t="n">
-        <v>28</v>
+        <v>23.13</v>
       </c>
       <c r="D79" t="n">
-        <v>31.38</v>
+        <v>23.13</v>
       </c>
       <c r="E79" t="n">
-        <v>27.5</v>
+        <v>23</v>
       </c>
       <c r="F79" t="n">
-        <v>346209.699</v>
+        <v>600</v>
       </c>
       <c r="G79" t="n">
-        <v>1774076.037612906</v>
+        <v>-208423.6331</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>22.9</v>
+      </c>
       <c r="K79" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3798,32 +3446,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>28</v>
+        <v>22.7</v>
       </c>
       <c r="C80" t="n">
-        <v>29.25</v>
+        <v>22.62</v>
       </c>
       <c r="D80" t="n">
-        <v>31.38</v>
+        <v>22.7</v>
       </c>
       <c r="E80" t="n">
-        <v>28</v>
+        <v>22.62</v>
       </c>
       <c r="F80" t="n">
-        <v>240322.2146</v>
+        <v>41532.0076</v>
       </c>
       <c r="G80" t="n">
-        <v>2014398.252212906</v>
+        <v>-249955.6407</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>23.13</v>
+      </c>
       <c r="K80" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3840,32 +3490,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>29.75</v>
+        <v>22.7</v>
       </c>
       <c r="C81" t="n">
-        <v>31.38</v>
+        <v>22.7</v>
       </c>
       <c r="D81" t="n">
-        <v>31.38</v>
+        <v>22.7</v>
       </c>
       <c r="E81" t="n">
-        <v>29.75</v>
+        <v>22.7</v>
       </c>
       <c r="F81" t="n">
-        <v>432607.1677</v>
+        <v>271.8395</v>
       </c>
       <c r="G81" t="n">
-        <v>2447005.419912906</v>
+        <v>-249683.8012</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>22.62</v>
+      </c>
       <c r="K81" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3882,32 +3534,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>31.4</v>
+        <v>22.65</v>
       </c>
       <c r="C82" t="n">
-        <v>32.92</v>
+        <v>22.65</v>
       </c>
       <c r="D82" t="n">
-        <v>35.5</v>
+        <v>22.65</v>
       </c>
       <c r="E82" t="n">
-        <v>31.38</v>
+        <v>22.65</v>
       </c>
       <c r="F82" t="n">
-        <v>653666.7667578545</v>
+        <v>23419.1328</v>
       </c>
       <c r="G82" t="n">
-        <v>3100672.186670761</v>
+        <v>-273102.934</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>22.7</v>
+      </c>
       <c r="K82" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3924,32 +3578,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>32.91</v>
+        <v>22.8</v>
       </c>
       <c r="C83" t="n">
-        <v>32.67</v>
+        <v>22.8</v>
       </c>
       <c r="D83" t="n">
-        <v>34.6</v>
+        <v>22.8</v>
       </c>
       <c r="E83" t="n">
-        <v>31.37</v>
+        <v>22.8</v>
       </c>
       <c r="F83" t="n">
-        <v>533661.8296551033</v>
+        <v>23</v>
       </c>
       <c r="G83" t="n">
-        <v>2567010.357015657</v>
+        <v>-273079.934</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>22.65</v>
+      </c>
       <c r="K83" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3966,32 +3622,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>31.57</v>
+        <v>22.8</v>
       </c>
       <c r="C84" t="n">
-        <v>32.5</v>
+        <v>22.8</v>
       </c>
       <c r="D84" t="n">
-        <v>32.63</v>
+        <v>22.8</v>
       </c>
       <c r="E84" t="n">
-        <v>31.57</v>
+        <v>22.8</v>
       </c>
       <c r="F84" t="n">
-        <v>55188.91</v>
+        <v>248.8395</v>
       </c>
       <c r="G84" t="n">
-        <v>2511821.447015657</v>
+        <v>-273079.934</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>22.8</v>
+      </c>
       <c r="K84" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -4008,32 +3666,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>32.5</v>
+        <v>22.56</v>
       </c>
       <c r="C85" t="n">
-        <v>32.5</v>
+        <v>22.56</v>
       </c>
       <c r="D85" t="n">
-        <v>32.5</v>
+        <v>22.56</v>
       </c>
       <c r="E85" t="n">
-        <v>31.51</v>
+        <v>22.56</v>
       </c>
       <c r="F85" t="n">
-        <v>166386.9025</v>
+        <v>28106.6996</v>
       </c>
       <c r="G85" t="n">
-        <v>2511821.447015657</v>
+        <v>-301186.6336</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>22.8</v>
+      </c>
       <c r="K85" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -4050,32 +3710,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>31.62</v>
+        <v>22.57</v>
       </c>
       <c r="C86" t="n">
-        <v>32.21</v>
+        <v>22.57</v>
       </c>
       <c r="D86" t="n">
-        <v>33.5</v>
+        <v>22.57</v>
       </c>
       <c r="E86" t="n">
-        <v>31.6</v>
+        <v>22.57</v>
       </c>
       <c r="F86" t="n">
-        <v>85140.5459</v>
+        <v>8385.7443</v>
       </c>
       <c r="G86" t="n">
-        <v>2426680.901115657</v>
+        <v>-292800.8893</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>22.56</v>
+      </c>
       <c r="K86" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4092,32 +3754,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>33.1</v>
+        <v>22.8</v>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>22.8</v>
       </c>
       <c r="D87" t="n">
-        <v>36</v>
+        <v>22.8</v>
       </c>
       <c r="E87" t="n">
-        <v>32.28</v>
+        <v>22.8</v>
       </c>
       <c r="F87" t="n">
-        <v>533587.9929870423</v>
+        <v>772.3848</v>
       </c>
       <c r="G87" t="n">
-        <v>2960268.8941027</v>
+        <v>-292028.5045</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>22.57</v>
+      </c>
       <c r="K87" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4134,76 +3798,84 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>35.6</v>
+        <v>22.8</v>
       </c>
       <c r="C88" t="n">
-        <v>32.78</v>
+        <v>22.8</v>
       </c>
       <c r="D88" t="n">
-        <v>36</v>
+        <v>22.8</v>
       </c>
       <c r="E88" t="n">
-        <v>32.08</v>
+        <v>22.8</v>
       </c>
       <c r="F88" t="n">
-        <v>386079.5667</v>
+        <v>2175.4569</v>
       </c>
       <c r="G88" t="n">
-        <v>2574189.3274027</v>
+        <v>-292028.5045</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>22.8</v>
+      </c>
       <c r="K88" t="n">
-        <v>22.9</v>
+        <v>22.97</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1.426441048034935</v>
-      </c>
-      <c r="N88" t="n">
-        <v>1.019391802556192</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>32.81</v>
+        <v>22.68</v>
       </c>
       <c r="C89" t="n">
-        <v>34.52</v>
+        <v>22.68</v>
       </c>
       <c r="D89" t="n">
-        <v>34.8</v>
+        <v>22.68</v>
       </c>
       <c r="E89" t="n">
-        <v>32.81</v>
+        <v>22.68</v>
       </c>
       <c r="F89" t="n">
-        <v>257975.7961</v>
+        <v>3259.8039</v>
       </c>
       <c r="G89" t="n">
-        <v>2832165.1235027</v>
+        <v>-295288.3084</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K89" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4214,32 +3886,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>34</v>
+        <v>22.68</v>
       </c>
       <c r="C90" t="n">
-        <v>32</v>
+        <v>22.68</v>
       </c>
       <c r="D90" t="n">
-        <v>34.7</v>
+        <v>22.68</v>
       </c>
       <c r="E90" t="n">
-        <v>29.12</v>
+        <v>22.68</v>
       </c>
       <c r="F90" t="n">
-        <v>872476.5644962358</v>
+        <v>4839.3267</v>
       </c>
       <c r="G90" t="n">
-        <v>1959688.559006464</v>
+        <v>-295288.3084</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="K90" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4250,32 +3930,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30.6</v>
+        <v>22.6</v>
       </c>
       <c r="C91" t="n">
-        <v>30.1</v>
+        <v>22.56</v>
       </c>
       <c r="D91" t="n">
-        <v>30.62</v>
+        <v>22.6</v>
       </c>
       <c r="E91" t="n">
-        <v>29.77</v>
+        <v>22.56</v>
       </c>
       <c r="F91" t="n">
-        <v>316913.1464681063</v>
+        <v>18000</v>
       </c>
       <c r="G91" t="n">
-        <v>1642775.412538358</v>
+        <v>-313288.3084</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="K91" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4286,32 +3974,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.1</v>
+        <v>22.56</v>
       </c>
       <c r="C92" t="n">
-        <v>30.14</v>
+        <v>22.55</v>
       </c>
       <c r="D92" t="n">
-        <v>30.62</v>
+        <v>22.56</v>
       </c>
       <c r="E92" t="n">
-        <v>29.87</v>
+        <v>22.55</v>
       </c>
       <c r="F92" t="n">
-        <v>466674.9845518033</v>
+        <v>23462.5617</v>
       </c>
       <c r="G92" t="n">
-        <v>2109450.397090161</v>
+        <v>-336750.8701</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="K92" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4322,32 +4018,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30.1</v>
+        <v>22.55</v>
       </c>
       <c r="C93" t="n">
-        <v>29.66</v>
+        <v>22.55</v>
       </c>
       <c r="D93" t="n">
-        <v>30.1</v>
+        <v>22.55</v>
       </c>
       <c r="E93" t="n">
-        <v>28.89</v>
+        <v>22.55</v>
       </c>
       <c r="F93" t="n">
-        <v>1045980.0564</v>
+        <v>4762.9812</v>
       </c>
       <c r="G93" t="n">
-        <v>1063470.340690161</v>
+        <v>-336750.8701</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="K93" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4358,32 +4062,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>29.13</v>
+        <v>22.5</v>
       </c>
       <c r="C94" t="n">
-        <v>29.66</v>
+        <v>22.5</v>
       </c>
       <c r="D94" t="n">
-        <v>29.66</v>
+        <v>22.5</v>
       </c>
       <c r="E94" t="n">
-        <v>28.89</v>
+        <v>22.5</v>
       </c>
       <c r="F94" t="n">
-        <v>164519.0638</v>
+        <v>998.6856</v>
       </c>
       <c r="G94" t="n">
-        <v>1063470.340690161</v>
+        <v>-337749.5557</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="K94" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4394,32 +4106,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>29.4</v>
+        <v>22.5</v>
       </c>
       <c r="C95" t="n">
-        <v>28.1</v>
+        <v>22.5</v>
       </c>
       <c r="D95" t="n">
-        <v>29.4</v>
+        <v>22.5</v>
       </c>
       <c r="E95" t="n">
-        <v>27.58</v>
+        <v>22.5</v>
       </c>
       <c r="F95" t="n">
-        <v>787594.7369235732</v>
+        <v>359.8685</v>
       </c>
       <c r="G95" t="n">
-        <v>275875.6037665874</v>
+        <v>-337749.5557</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4430,32 +4150,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>28.12</v>
+        <v>22.5</v>
       </c>
       <c r="C96" t="n">
-        <v>27.83</v>
+        <v>22.5</v>
       </c>
       <c r="D96" t="n">
-        <v>28.56</v>
+        <v>22.5</v>
       </c>
       <c r="E96" t="n">
-        <v>27.34</v>
+        <v>22.5</v>
       </c>
       <c r="F96" t="n">
-        <v>768029.551</v>
+        <v>1522.955</v>
       </c>
       <c r="G96" t="n">
-        <v>-492153.9472334125</v>
+        <v>-337749.5557</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4466,32 +4194,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.73</v>
+        <v>22.5</v>
       </c>
       <c r="C97" t="n">
-        <v>27</v>
+        <v>22.5</v>
       </c>
       <c r="D97" t="n">
-        <v>28.47</v>
+        <v>22.5</v>
       </c>
       <c r="E97" t="n">
-        <v>27</v>
+        <v>22.5</v>
       </c>
       <c r="F97" t="n">
-        <v>505626.812032947</v>
+        <v>905.0506</v>
       </c>
       <c r="G97" t="n">
-        <v>-997780.7592663595</v>
+        <v>-337749.5557</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4502,32 +4238,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.1</v>
+        <v>22.6</v>
       </c>
       <c r="C98" t="n">
-        <v>27.39</v>
+        <v>22.8</v>
       </c>
       <c r="D98" t="n">
-        <v>27.5</v>
+        <v>22.8</v>
       </c>
       <c r="E98" t="n">
-        <v>26.76</v>
+        <v>22.6</v>
       </c>
       <c r="F98" t="n">
-        <v>233542.6666839627</v>
+        <v>24400</v>
       </c>
       <c r="G98" t="n">
-        <v>-764238.0925823968</v>
+        <v>-313349.5557</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4538,32 +4282,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.36</v>
+        <v>22.5</v>
       </c>
       <c r="C99" t="n">
-        <v>27.1</v>
+        <v>22.4</v>
       </c>
       <c r="D99" t="n">
-        <v>27.36</v>
+        <v>22.5</v>
       </c>
       <c r="E99" t="n">
-        <v>26.8</v>
+        <v>22.4</v>
       </c>
       <c r="F99" t="n">
-        <v>375903.2854</v>
+        <v>18377.5079</v>
       </c>
       <c r="G99" t="n">
-        <v>-1140141.377982397</v>
+        <v>-331727.0636000001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K99" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4574,32 +4326,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.1</v>
+        <v>22.45</v>
       </c>
       <c r="C100" t="n">
-        <v>27.26</v>
+        <v>22.4</v>
       </c>
       <c r="D100" t="n">
-        <v>27.27</v>
+        <v>22.45</v>
       </c>
       <c r="E100" t="n">
-        <v>26.8</v>
+        <v>22.4</v>
       </c>
       <c r="F100" t="n">
-        <v>158091.4534</v>
+        <v>4390</v>
       </c>
       <c r="G100" t="n">
-        <v>-982049.9245823969</v>
+        <v>-331727.0636000001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4610,32 +4370,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.19</v>
+        <v>22.4</v>
       </c>
       <c r="C101" t="n">
-        <v>26.97</v>
+        <v>22.5</v>
       </c>
       <c r="D101" t="n">
-        <v>27.2</v>
+        <v>22.5</v>
       </c>
       <c r="E101" t="n">
-        <v>26.92</v>
+        <v>22.4</v>
       </c>
       <c r="F101" t="n">
-        <v>320627.7138</v>
+        <v>1461</v>
       </c>
       <c r="G101" t="n">
-        <v>-1302677.638382397</v>
+        <v>-330266.0636000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K101" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4646,32 +4414,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.2</v>
+        <v>22.5</v>
       </c>
       <c r="C102" t="n">
-        <v>27.13</v>
+        <v>22.5</v>
       </c>
       <c r="D102" t="n">
-        <v>27.64</v>
+        <v>22.5</v>
       </c>
       <c r="E102" t="n">
-        <v>26.97</v>
+        <v>22.5</v>
       </c>
       <c r="F102" t="n">
-        <v>238195.5916</v>
+        <v>1446.7557</v>
       </c>
       <c r="G102" t="n">
-        <v>-1064482.046782397</v>
+        <v>-330266.0636000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K102" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4682,32 +4458,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26.97</v>
+        <v>22.5</v>
       </c>
       <c r="C103" t="n">
-        <v>26.7</v>
+        <v>22.72</v>
       </c>
       <c r="D103" t="n">
-        <v>27.5</v>
+        <v>22.72</v>
       </c>
       <c r="E103" t="n">
-        <v>26.6</v>
+        <v>22.5</v>
       </c>
       <c r="F103" t="n">
-        <v>209393.9383</v>
+        <v>17370.2704</v>
       </c>
       <c r="G103" t="n">
-        <v>-1273875.985082397</v>
+        <v>-312895.7932000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K103" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4718,32 +4502,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26.87</v>
+        <v>22.72</v>
       </c>
       <c r="C104" t="n">
-        <v>26.9</v>
+        <v>22.72</v>
       </c>
       <c r="D104" t="n">
-        <v>27.16</v>
+        <v>22.72</v>
       </c>
       <c r="E104" t="n">
-        <v>26.53</v>
+        <v>22.72</v>
       </c>
       <c r="F104" t="n">
-        <v>46542.3635</v>
+        <v>1066.4967</v>
       </c>
       <c r="G104" t="n">
-        <v>-1227333.621582397</v>
+        <v>-312895.7932000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="K104" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4754,32 +4546,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.9</v>
+        <v>22.79</v>
       </c>
       <c r="C105" t="n">
-        <v>26.21</v>
+        <v>22.79</v>
       </c>
       <c r="D105" t="n">
-        <v>26.9</v>
+        <v>22.79</v>
       </c>
       <c r="E105" t="n">
-        <v>26.21</v>
+        <v>22.79</v>
       </c>
       <c r="F105" t="n">
-        <v>236657.6555763198</v>
+        <v>23</v>
       </c>
       <c r="G105" t="n">
-        <v>-1463991.277158717</v>
+        <v>-312872.7932000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="K105" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4790,32 +4590,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>26.21</v>
+        <v>22.51</v>
       </c>
       <c r="C106" t="n">
-        <v>26.16</v>
+        <v>22.51</v>
       </c>
       <c r="D106" t="n">
-        <v>26.49</v>
+        <v>22.51</v>
       </c>
       <c r="E106" t="n">
-        <v>26.11</v>
+        <v>22.51</v>
       </c>
       <c r="F106" t="n">
-        <v>157362.115</v>
+        <v>302.432</v>
       </c>
       <c r="G106" t="n">
-        <v>-1621353.392158717</v>
+        <v>-313175.2252</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="K106" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4826,32 +4634,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26.15</v>
+        <v>22.6</v>
       </c>
       <c r="C107" t="n">
-        <v>26.2</v>
+        <v>22.6</v>
       </c>
       <c r="D107" t="n">
-        <v>26.3</v>
+        <v>22.6</v>
       </c>
       <c r="E107" t="n">
-        <v>26.14</v>
+        <v>22.6</v>
       </c>
       <c r="F107" t="n">
-        <v>177822.922</v>
+        <v>576.8822</v>
       </c>
       <c r="G107" t="n">
-        <v>-1443530.470158717</v>
+        <v>-312598.3430000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="K107" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4862,32 +4678,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.22</v>
+        <v>22.7</v>
       </c>
       <c r="C108" t="n">
-        <v>26.42</v>
+        <v>22.53</v>
       </c>
       <c r="D108" t="n">
-        <v>26.43</v>
+        <v>22.93</v>
       </c>
       <c r="E108" t="n">
-        <v>26.21</v>
+        <v>22.53</v>
       </c>
       <c r="F108" t="n">
-        <v>25930.2473753689</v>
+        <v>115110.7514</v>
       </c>
       <c r="G108" t="n">
-        <v>-1417600.222783348</v>
+        <v>-427709.0944000001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K108" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4898,32 +4722,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26.42</v>
+        <v>22.86</v>
       </c>
       <c r="C109" t="n">
-        <v>26.2</v>
+        <v>22.86</v>
       </c>
       <c r="D109" t="n">
-        <v>26.42</v>
+        <v>22.86</v>
       </c>
       <c r="E109" t="n">
-        <v>26.2</v>
+        <v>22.86</v>
       </c>
       <c r="F109" t="n">
-        <v>91206.84005291446</v>
+        <v>37400</v>
       </c>
       <c r="G109" t="n">
-        <v>-1508807.062836262</v>
+        <v>-390309.0944000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="K109" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4934,32 +4766,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26.17</v>
+        <v>23</v>
       </c>
       <c r="C110" t="n">
-        <v>26.15</v>
+        <v>23.48</v>
       </c>
       <c r="D110" t="n">
-        <v>26.41</v>
+        <v>23.48</v>
       </c>
       <c r="E110" t="n">
-        <v>26.15</v>
+        <v>23</v>
       </c>
       <c r="F110" t="n">
-        <v>122253.5703</v>
+        <v>31899.4638</v>
       </c>
       <c r="G110" t="n">
-        <v>-1631060.633136262</v>
+        <v>-358409.6306</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="K110" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4970,32 +4810,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>26.15</v>
+        <v>23.48</v>
       </c>
       <c r="C111" t="n">
-        <v>26.02</v>
+        <v>23.48</v>
       </c>
       <c r="D111" t="n">
-        <v>26.28</v>
+        <v>23.48</v>
       </c>
       <c r="E111" t="n">
-        <v>26.02</v>
+        <v>23.48</v>
       </c>
       <c r="F111" t="n">
-        <v>537420.0048</v>
+        <v>524</v>
       </c>
       <c r="G111" t="n">
-        <v>-2168480.637936262</v>
+        <v>-358409.6306</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="K111" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5006,32 +4854,40 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>26</v>
+        <v>23.21</v>
       </c>
       <c r="C112" t="n">
-        <v>25.85</v>
+        <v>23.48</v>
       </c>
       <c r="D112" t="n">
-        <v>26</v>
+        <v>23.48</v>
       </c>
       <c r="E112" t="n">
-        <v>25.56</v>
+        <v>23.21</v>
       </c>
       <c r="F112" t="n">
-        <v>341347.9071</v>
+        <v>88675.4127</v>
       </c>
       <c r="G112" t="n">
-        <v>-2509828.545036262</v>
+        <v>-358409.6306</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="K112" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5042,32 +4898,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>25.86</v>
+        <v>23.14</v>
       </c>
       <c r="C113" t="n">
-        <v>26.3</v>
+        <v>23.4</v>
       </c>
       <c r="D113" t="n">
-        <v>26.3</v>
+        <v>23.4</v>
       </c>
       <c r="E113" t="n">
-        <v>25.86</v>
+        <v>23.14</v>
       </c>
       <c r="F113" t="n">
-        <v>161838.4515</v>
+        <v>4385.8009</v>
       </c>
       <c r="G113" t="n">
-        <v>-2347990.093536262</v>
+        <v>-362795.4315</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="K113" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5078,22 +4942,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26</v>
+        <v>23.39</v>
       </c>
       <c r="C114" t="n">
-        <v>26.3</v>
+        <v>23.5</v>
       </c>
       <c r="D114" t="n">
-        <v>26.31</v>
+        <v>23.5</v>
       </c>
       <c r="E114" t="n">
-        <v>26</v>
+        <v>23.39</v>
       </c>
       <c r="F114" t="n">
-        <v>87903.5935</v>
+        <v>153912.6723</v>
       </c>
       <c r="G114" t="n">
-        <v>-2347990.093536262</v>
+        <v>-208882.7592</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5102,8 +4966,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5114,22 +4984,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26.3</v>
+        <v>23.49</v>
       </c>
       <c r="C115" t="n">
-        <v>26.6</v>
+        <v>23.49</v>
       </c>
       <c r="D115" t="n">
-        <v>26.98</v>
+        <v>23.49</v>
       </c>
       <c r="E115" t="n">
-        <v>26.3</v>
+        <v>23.49</v>
       </c>
       <c r="F115" t="n">
-        <v>635343.5632236802</v>
+        <v>1400.4414</v>
       </c>
       <c r="G115" t="n">
-        <v>-1712646.530312582</v>
+        <v>-210283.2006</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5138,8 +5008,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5150,22 +5026,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.88</v>
+        <v>23.5</v>
       </c>
       <c r="C116" t="n">
-        <v>26.4</v>
+        <v>23.6</v>
       </c>
       <c r="D116" t="n">
-        <v>26.89</v>
+        <v>23.6</v>
       </c>
       <c r="E116" t="n">
-        <v>26.4</v>
+        <v>23.5</v>
       </c>
       <c r="F116" t="n">
-        <v>59671.6098</v>
+        <v>120074.1819</v>
       </c>
       <c r="G116" t="n">
-        <v>-1772318.140112582</v>
+        <v>-90209.01870000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5174,8 +5050,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5186,22 +5068,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26.85</v>
+        <v>23.6</v>
       </c>
       <c r="C117" t="n">
-        <v>26.6</v>
+        <v>23.6</v>
       </c>
       <c r="D117" t="n">
-        <v>26.85</v>
+        <v>23.6</v>
       </c>
       <c r="E117" t="n">
-        <v>26.6</v>
+        <v>23.59</v>
       </c>
       <c r="F117" t="n">
-        <v>225653.8713</v>
+        <v>26628.3783</v>
       </c>
       <c r="G117" t="n">
-        <v>-1546664.268812582</v>
+        <v>-90209.01870000002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5210,8 +5092,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5222,22 +5110,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26.69</v>
+        <v>23.6</v>
       </c>
       <c r="C118" t="n">
-        <v>26.51</v>
+        <v>23.84</v>
       </c>
       <c r="D118" t="n">
-        <v>26.69</v>
+        <v>23.84</v>
       </c>
       <c r="E118" t="n">
-        <v>26.5</v>
+        <v>23.6</v>
       </c>
       <c r="F118" t="n">
-        <v>106</v>
+        <v>25000</v>
       </c>
       <c r="G118" t="n">
-        <v>-1546770.268812582</v>
+        <v>-65209.01870000002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5246,8 +5134,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5258,22 +5152,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.69</v>
+        <v>23.84</v>
       </c>
       <c r="C119" t="n">
-        <v>26.13</v>
+        <v>23.84</v>
       </c>
       <c r="D119" t="n">
-        <v>26.88</v>
+        <v>23.84</v>
       </c>
       <c r="E119" t="n">
-        <v>26.13</v>
+        <v>23.84</v>
       </c>
       <c r="F119" t="n">
-        <v>721735.2958</v>
+        <v>1702.908</v>
       </c>
       <c r="G119" t="n">
-        <v>-2268505.564612582</v>
+        <v>-65209.01870000002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5282,8 +5176,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5294,22 +5194,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>26.13</v>
+        <v>23.84</v>
       </c>
       <c r="C120" t="n">
-        <v>26.31</v>
+        <v>23.84</v>
       </c>
       <c r="D120" t="n">
-        <v>26.69</v>
+        <v>23.84</v>
       </c>
       <c r="E120" t="n">
-        <v>26.13</v>
+        <v>23.62</v>
       </c>
       <c r="F120" t="n">
-        <v>489308.9750490821</v>
+        <v>144136.506</v>
       </c>
       <c r="G120" t="n">
-        <v>-1779196.5895635</v>
+        <v>-65209.01870000002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5318,8 +5218,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5330,22 +5236,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26.31</v>
+        <v>23.84</v>
       </c>
       <c r="C121" t="n">
-        <v>26</v>
+        <v>23.98</v>
       </c>
       <c r="D121" t="n">
-        <v>26.62</v>
+        <v>23.98</v>
       </c>
       <c r="E121" t="n">
-        <v>26</v>
+        <v>23.84</v>
       </c>
       <c r="F121" t="n">
-        <v>332838.2876</v>
+        <v>191961.3766</v>
       </c>
       <c r="G121" t="n">
-        <v>-2112034.8771635</v>
+        <v>126752.3579</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5354,8 +5260,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5366,22 +5278,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>25.8</v>
+        <v>23.98</v>
       </c>
       <c r="C122" t="n">
-        <v>26.32</v>
+        <v>24.79</v>
       </c>
       <c r="D122" t="n">
-        <v>26.32</v>
+        <v>24.79</v>
       </c>
       <c r="E122" t="n">
-        <v>25.3</v>
+        <v>23.98</v>
       </c>
       <c r="F122" t="n">
-        <v>351177.3519</v>
+        <v>283633.6281</v>
       </c>
       <c r="G122" t="n">
-        <v>-1760857.5252635</v>
+        <v>410385.9859999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5390,8 +5302,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5402,22 +5320,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>26.32</v>
+        <v>24.4</v>
       </c>
       <c r="C123" t="n">
-        <v>26.28</v>
+        <v>25.32</v>
       </c>
       <c r="D123" t="n">
-        <v>26.32</v>
+        <v>25.32</v>
       </c>
       <c r="E123" t="n">
-        <v>26.28</v>
+        <v>24.31</v>
       </c>
       <c r="F123" t="n">
-        <v>80837.92909999999</v>
+        <v>176569.4201</v>
       </c>
       <c r="G123" t="n">
-        <v>-1841695.4543635</v>
+        <v>586955.4060999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5426,8 +5344,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5438,36 +5362,2810 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="C124" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="D124" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="F124" t="n">
+        <v>191513.8671</v>
+      </c>
+      <c r="G124" t="n">
+        <v>778469.2731999999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="C125" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="E125" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12309.1064</v>
+      </c>
+      <c r="G125" t="n">
+        <v>766160.1667999999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="C126" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>192374.3992</v>
+      </c>
+      <c r="G126" t="n">
+        <v>958534.5659999999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="D127" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>475456.2881</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1433990.8541</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="C128" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="D128" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="E128" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="F128" t="n">
+        <v>9407.374900000001</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1433990.8541</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="C129" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="D129" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="E129" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="F129" t="n">
+        <v>884.0955</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1434874.9496</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="C130" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="D130" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="E130" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14200</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1420674.9496</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="C131" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="E131" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="F131" t="n">
+        <v>230795.2058</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1651470.1554</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="C132" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="D132" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>194355.0012928417</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1845825.156692842</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>27</v>
+      </c>
+      <c r="C133" t="n">
+        <v>27</v>
+      </c>
+      <c r="D133" t="n">
+        <v>27</v>
+      </c>
+      <c r="E133" t="n">
+        <v>27</v>
+      </c>
+      <c r="F133" t="n">
+        <v>13771.82</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1859596.976692842</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="D134" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="E134" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>70140.53516472744</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1929737.511857569</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="C135" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>156054.2189740612</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1773683.292883508</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2521.1046</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1771162.188283508</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="D137" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="F137" t="n">
+        <v>89751.246</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1681410.942283508</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>26</v>
+      </c>
+      <c r="C138" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="D138" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="E138" t="n">
+        <v>26</v>
+      </c>
+      <c r="F138" t="n">
+        <v>12379.0125</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1693789.954783508</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="C139" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="F139" t="n">
+        <v>75718.57339999999</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1769508.528183508</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="E140" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="F140" t="n">
+        <v>156243.7339</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1925752.262083508</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="C141" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="D141" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="E141" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>663430.7786860114</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1262321.483397496</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="D142" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>215713.3323</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1478034.815697496</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="F143" t="n">
+        <v>62766.7322</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1540801.547897496</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="C144" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="D144" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="F144" t="n">
+        <v>9217.066971947987</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1531584.480925548</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="C145" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="E145" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="F145" t="n">
+        <v>72703.87791264241</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1458880.603012906</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="C146" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="E146" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>14753.6028</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1444127.000212906</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="C147" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="D147" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="F147" t="n">
+        <v>84451.8348</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1528578.835012906</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="C148" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="D148" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="E148" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>199325.4191</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1727904.254112906</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="C149" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="D149" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="E149" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F149" t="n">
+        <v>300037.9155</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1427866.338612906</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="C150" t="n">
+        <v>28</v>
+      </c>
+      <c r="D150" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="E150" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>346209.699</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1774076.037612906</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>28</v>
+      </c>
+      <c r="C151" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="D151" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="E151" t="n">
+        <v>28</v>
+      </c>
+      <c r="F151" t="n">
+        <v>240322.2146</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2014398.252212906</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="C152" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="D152" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="E152" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="F152" t="n">
+        <v>432607.1677</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2447005.419912906</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>32.92</v>
+      </c>
+      <c r="D153" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="F153" t="n">
+        <v>653666.7667578545</v>
+      </c>
+      <c r="G153" t="n">
+        <v>3100672.186670761</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>32.91</v>
+      </c>
+      <c r="C154" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="D154" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E154" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="F154" t="n">
+        <v>533661.8296551033</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2567010.357015657</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="C155" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="E155" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="F155" t="n">
+        <v>55188.91</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2511821.447015657</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="F156" t="n">
+        <v>166386.9025</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2511821.447015657</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>31.62</v>
+      </c>
+      <c r="C157" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="D157" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>85140.5459</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2426680.901115657</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>36</v>
+      </c>
+      <c r="D158" t="n">
+        <v>36</v>
+      </c>
+      <c r="E158" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="F158" t="n">
+        <v>533587.9929870423</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2960268.8941027</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>32.78</v>
+      </c>
+      <c r="D159" t="n">
+        <v>36</v>
+      </c>
+      <c r="E159" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="F159" t="n">
+        <v>386079.5667</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2574189.3274027</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1.422078798432739</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1.073410922112802</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="C160" t="n">
+        <v>34.52</v>
+      </c>
+      <c r="D160" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="F160" t="n">
+        <v>257975.7961</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2832165.1235027</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>34</v>
+      </c>
+      <c r="C161" t="n">
+        <v>32</v>
+      </c>
+      <c r="D161" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="F161" t="n">
+        <v>872476.5644962358</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1959688.559006464</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="E162" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="F162" t="n">
+        <v>316913.1464681063</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1642775.412538358</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="D163" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="E163" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="F163" t="n">
+        <v>466674.9845518033</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2109450.397090161</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="D164" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1045980.0564</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1063470.340690161</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="C165" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="D165" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="E165" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="F165" t="n">
+        <v>164519.0638</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1063470.340690161</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C166" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E166" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="F166" t="n">
+        <v>787594.7369235732</v>
+      </c>
+      <c r="G166" t="n">
+        <v>275875.6037665874</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="C167" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="D167" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="E167" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="F167" t="n">
+        <v>768029.551</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-492153.9472334125</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="C168" t="n">
+        <v>27</v>
+      </c>
+      <c r="D168" t="n">
+        <v>28.47</v>
+      </c>
+      <c r="E168" t="n">
+        <v>27</v>
+      </c>
+      <c r="F168" t="n">
+        <v>505626.812032947</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-997780.7592663595</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="D169" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="F169" t="n">
+        <v>233542.6666839627</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-764238.0925823968</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="C170" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="E170" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>375903.2854</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1140141.377982397</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="D171" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="E171" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>158091.4534</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-982049.9245823969</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="C172" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="D172" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="F172" t="n">
+        <v>320627.7138</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1302677.638382397</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="D173" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="E173" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="F173" t="n">
+        <v>238195.5916</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1064482.046782397</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="C174" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F174" t="n">
+        <v>209393.9383</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1273875.985082397</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="C175" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="E175" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="F175" t="n">
+        <v>46542.3635</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1227333.621582397</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C176" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="D176" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="F176" t="n">
+        <v>236657.6555763198</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1463991.277158717</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="C177" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="D177" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="E177" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="F177" t="n">
+        <v>157362.115</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1621353.392158717</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="C178" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="F178" t="n">
+        <v>177822.922</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1443530.470158717</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="C179" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="D179" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="E179" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="F179" t="n">
+        <v>25930.2473753689</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1417600.222783348</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="C180" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="E180" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F180" t="n">
+        <v>91206.84005291446</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1508807.062836262</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="C181" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="D181" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="E181" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="F181" t="n">
+        <v>122253.5703</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1631060.633136262</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="C182" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="D182" t="n">
         <v>26.28</v>
       </c>
-      <c r="C124" t="n">
+      <c r="E182" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="F182" t="n">
+        <v>537420.0048</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-2168480.637936262</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>26</v>
+      </c>
+      <c r="C183" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="D183" t="n">
+        <v>26</v>
+      </c>
+      <c r="E183" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="F183" t="n">
+        <v>341347.9071</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-2509828.545036262</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="C184" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E184" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="F184" t="n">
+        <v>161838.4515</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-2347990.093536262</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>26</v>
+      </c>
+      <c r="C185" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D185" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="E185" t="n">
+        <v>26</v>
+      </c>
+      <c r="F185" t="n">
+        <v>87903.5935</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-2347990.093536262</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="E186" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>635343.5632236802</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1712646.530312582</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="C187" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D187" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="E187" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F187" t="n">
+        <v>59671.6098</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1772318.140112582</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="C188" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="E188" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>225653.8713</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1546664.268812582</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="C189" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="D189" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="E189" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>106</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1546770.268812582</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="C190" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="D190" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E190" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="F190" t="n">
+        <v>721735.2958</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-2268505.564612582</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="C191" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="D191" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="E191" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="F191" t="n">
+        <v>489308.9750490821</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1779196.5895635</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="C192" t="n">
+        <v>26</v>
+      </c>
+      <c r="D192" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="E192" t="n">
+        <v>26</v>
+      </c>
+      <c r="F192" t="n">
+        <v>332838.2876</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-2112034.8771635</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="D193" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="E193" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>351177.3519</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1760857.5252635</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="C194" t="n">
         <v>26.28</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D194" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="E194" t="n">
         <v>26.28</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F194" t="n">
+        <v>80837.92909999999</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1841695.4543635</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
         <v>26.28</v>
       </c>
-      <c r="F124" t="n">
+      <c r="C195" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="D195" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="E195" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="F195" t="n">
         <v>74140.8579</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G195" t="n">
         <v>-1841695.4543635</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest LBA.xlsx
+++ b/BackTest/2020-01-15 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N195"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>-60740.13919999997</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>23</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>-52140.13919999997</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,23 @@
         <v>-51999.08109999997</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>23.21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>23</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +603,19 @@
         <v>-60598.83209999997</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23.33</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +640,23 @@
         <v>1061.131900000029</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>23.16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +681,23 @@
         <v>163.4641000000294</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>23.44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +722,23 @@
         <v>319.7141000000294</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>23.02</v>
+      </c>
+      <c r="J9" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +763,23 @@
         <v>-50422.47289999997</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>23.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +804,23 @@
         <v>-60141.63509999997</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>23.03</v>
+      </c>
+      <c r="J11" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +845,23 @@
         <v>-60273.37429999997</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>23.02</v>
+      </c>
+      <c r="J12" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +886,23 @@
         <v>-60273.37429999997</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>22.95</v>
+      </c>
+      <c r="J13" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +927,23 @@
         <v>-60273.37429999997</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>22.95</v>
+      </c>
+      <c r="J14" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +968,23 @@
         <v>-60273.37429999997</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>22.95</v>
+      </c>
+      <c r="J15" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +1009,23 @@
         <v>-35715.19489999997</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>22.95</v>
+      </c>
+      <c r="J16" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +1050,23 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>23.23</v>
+      </c>
+      <c r="J17" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1091,23 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>23.22</v>
+      </c>
+      <c r="J18" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1132,23 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>23.22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1173,23 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>23.22</v>
+      </c>
+      <c r="J20" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1214,23 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>23.22</v>
+      </c>
+      <c r="J21" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1255,23 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>23.22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1296,23 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>23.22</v>
+      </c>
+      <c r="J23" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1337,23 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>23.22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1378,23 @@
         <v>-36027.19489999997</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>23.22</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1419,23 @@
         <v>-35877.19489999997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>23.01</v>
+      </c>
+      <c r="J26" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1460,23 @@
         <v>-35877.19489999997</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>23.22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1501,23 @@
         <v>-36627.19489999997</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>23.22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1542,23 @@
         <v>-36580.19489999997</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>23.15</v>
+      </c>
+      <c r="J29" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1583,23 @@
         <v>-36533.51029999997</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>23.2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1624,23 @@
         <v>-37623.51029999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>23.22</v>
+      </c>
+      <c r="J31" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1665,23 @@
         <v>-37316.32229999997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>23.18</v>
+      </c>
+      <c r="J32" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1706,23 @@
         <v>-37316.32229999997</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>23.2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1747,23 @@
         <v>-38314.32229999997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>23.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1788,23 @@
         <v>-36706.42559999997</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>23.12</v>
+      </c>
+      <c r="J35" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1829,23 @@
         <v>-35141.42559999997</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1870,23 @@
         <v>-35141.42559999997</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>23.58</v>
+      </c>
+      <c r="J37" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1911,23 @@
         <v>-35247.38979999998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>23.58</v>
+      </c>
+      <c r="J38" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1952,23 @@
         <v>-35247.38979999998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>23.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1993,23 @@
         <v>-26997.38979999998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>23.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +2034,23 @@
         <v>-36801.92849999997</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>23.98</v>
+      </c>
+      <c r="J41" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +2075,23 @@
         <v>-37368.92849999997</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>23.71</v>
+      </c>
+      <c r="J42" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +2116,23 @@
         <v>-37368.92849999997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +2157,23 @@
         <v>-39946.26519999997</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J44" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +2198,23 @@
         <v>-42494.43749999997</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>23.48</v>
+      </c>
+      <c r="J45" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +2239,23 @@
         <v>-44227.94759999997</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>23.3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +2280,23 @@
         <v>-44227.94759999997</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>23.28</v>
+      </c>
+      <c r="J47" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +2321,23 @@
         <v>-44526.08759999997</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>23.28</v>
+      </c>
+      <c r="J48" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2362,23 @@
         <v>-112634.7476</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J49" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2403,23 @@
         <v>-199951.1124</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>22.49</v>
+      </c>
+      <c r="J50" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2444,23 @@
         <v>-195153.3893</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>22.43</v>
+      </c>
+      <c r="J51" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2485,23 @@
         <v>-225153.3893</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>22.97</v>
+      </c>
+      <c r="J52" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2526,23 @@
         <v>-205153.3893</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>22.89</v>
+      </c>
+      <c r="J53" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,22 +2567,23 @@
         <v>-194953.3893</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>22.97</v>
       </c>
       <c r="J54" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="K54" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2368,24 +2608,23 @@
         <v>-198539.372</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J55" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2410,24 +2649,23 @@
         <v>-197972.372</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>22.52</v>
+      </c>
+      <c r="J56" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2452,26 +2690,23 @@
         <v>-197972.372</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="J57" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K57" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2496,26 +2731,23 @@
         <v>-197972.372</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="J58" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K58" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2540,26 +2772,23 @@
         <v>-198346.492</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="J59" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K59" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2584,26 +2813,23 @@
         <v>-211946.0901</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>22.52</v>
       </c>
       <c r="J60" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="K60" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2628,26 +2854,23 @@
         <v>-211946.0901</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J61" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K61" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2672,26 +2895,23 @@
         <v>-211946.0901</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J62" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K62" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2716,26 +2936,23 @@
         <v>-211946.0901</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J63" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K63" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2760,26 +2977,23 @@
         <v>-211946.0901</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J64" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K64" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2804,26 +3018,23 @@
         <v>-232350.9701</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J65" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K65" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2848,26 +3059,23 @@
         <v>-232350.9701</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>22.43</v>
       </c>
       <c r="J66" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="K66" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2892,26 +3100,23 @@
         <v>-232350.9701</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>22.43</v>
       </c>
       <c r="J67" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="K67" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2936,26 +3141,23 @@
         <v>-189100.9701</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>22.43</v>
       </c>
       <c r="J68" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="K68" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2980,26 +3182,23 @@
         <v>-189100.9701</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>22.52</v>
       </c>
       <c r="J69" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="K69" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3024,26 +3223,23 @@
         <v>-189039.9701</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>22.52</v>
       </c>
       <c r="J70" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="K70" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3068,26 +3264,23 @@
         <v>-189861.2265</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>22.89</v>
       </c>
       <c r="J71" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K71" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3112,26 +3305,23 @@
         <v>-189861.2265</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>22.84</v>
       </c>
       <c r="J72" t="n">
-        <v>22.84</v>
-      </c>
-      <c r="K72" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3156,26 +3346,23 @@
         <v>-179853.2265</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>22.84</v>
       </c>
       <c r="J73" t="n">
-        <v>22.84</v>
-      </c>
-      <c r="K73" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3200,26 +3387,23 @@
         <v>-179853.2265</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>22.85</v>
       </c>
       <c r="J74" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="K74" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3244,26 +3428,23 @@
         <v>-211454.5019</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>22.85</v>
       </c>
       <c r="J75" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="K75" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3288,26 +3469,23 @@
         <v>-210233.5019</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>22.69</v>
       </c>
       <c r="J76" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="K76" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3332,26 +3510,23 @@
         <v>-210821.4629</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="J77" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K77" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3376,26 +3551,23 @@
         <v>-209023.6331</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="J78" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K78" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3420,26 +3592,23 @@
         <v>-208423.6331</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="J79" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K79" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3464,26 +3633,23 @@
         <v>-249955.6407</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>23.13</v>
       </c>
       <c r="J80" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="K80" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3508,26 +3674,23 @@
         <v>-249683.8012</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>22.62</v>
       </c>
       <c r="J81" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="K81" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3552,26 +3715,23 @@
         <v>-273102.934</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="J82" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K82" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3596,26 +3756,23 @@
         <v>-273079.934</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>22.65</v>
       </c>
       <c r="J83" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="K83" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3640,26 +3797,23 @@
         <v>-273079.934</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="J84" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K84" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3684,26 +3838,23 @@
         <v>-301186.6336</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="J85" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K85" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3728,26 +3879,23 @@
         <v>-292800.8893</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>22.56</v>
       </c>
       <c r="J86" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="K86" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3772,26 +3920,23 @@
         <v>-292028.5045</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>22.57</v>
       </c>
       <c r="J87" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="K87" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3816,26 +3961,23 @@
         <v>-292028.5045</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="J88" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K88" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3860,26 +4002,23 @@
         <v>-295288.3084</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="J89" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K89" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3904,26 +4043,23 @@
         <v>-295288.3084</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>22.68</v>
       </c>
       <c r="J90" t="n">
-        <v>22.68</v>
-      </c>
-      <c r="K90" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3948,26 +4084,23 @@
         <v>-313288.3084</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>22.68</v>
       </c>
       <c r="J91" t="n">
-        <v>22.68</v>
-      </c>
-      <c r="K91" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3992,26 +4125,23 @@
         <v>-336750.8701</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>22.56</v>
       </c>
       <c r="J92" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="K92" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4036,26 +4166,23 @@
         <v>-336750.8701</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>22.55</v>
       </c>
       <c r="J93" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="K93" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4080,26 +4207,23 @@
         <v>-337749.5557</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>22.55</v>
       </c>
       <c r="J94" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="K94" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4124,26 +4248,23 @@
         <v>-337749.5557</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J95" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K95" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4168,26 +4289,23 @@
         <v>-337749.5557</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J96" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K96" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4212,26 +4330,23 @@
         <v>-337749.5557</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J97" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K97" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4256,26 +4371,23 @@
         <v>-313349.5557</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J98" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K98" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4300,26 +4412,23 @@
         <v>-331727.0636000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="J99" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K99" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4344,26 +4453,23 @@
         <v>-331727.0636000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="J100" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K100" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4388,26 +4494,23 @@
         <v>-330266.0636000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="J101" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K101" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4432,26 +4535,23 @@
         <v>-330266.0636000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J102" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4476,26 +4576,23 @@
         <v>-312895.7932000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J103" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4520,26 +4617,23 @@
         <v>-312895.7932000001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>22.72</v>
       </c>
       <c r="J104" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="K104" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4564,26 +4658,23 @@
         <v>-312872.7932000001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>22.72</v>
       </c>
       <c r="J105" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="K105" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4608,26 +4699,23 @@
         <v>-313175.2252</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>22.79</v>
       </c>
       <c r="J106" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="K106" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4652,26 +4740,23 @@
         <v>-312598.3430000001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>22.51</v>
       </c>
       <c r="J107" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="K107" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4696,26 +4781,23 @@
         <v>-427709.0944000001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>22.6</v>
       </c>
       <c r="J108" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K108" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4740,26 +4822,23 @@
         <v>-390309.0944000001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>22.53</v>
       </c>
       <c r="J109" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="K109" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4784,26 +4863,23 @@
         <v>-358409.6306</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>22.86</v>
       </c>
       <c r="J110" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="K110" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4828,26 +4904,23 @@
         <v>-358409.6306</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>23.48</v>
       </c>
       <c r="J111" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="K111" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4872,26 +4945,23 @@
         <v>-358409.6306</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>23.48</v>
       </c>
       <c r="J112" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="K112" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4916,26 +4986,23 @@
         <v>-362795.4315</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>23.48</v>
       </c>
       <c r="J113" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="K113" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>23.33</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4960,24 +5027,23 @@
         <v>-208882.7592</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5002,24 +5068,23 @@
         <v>-210283.2006</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>23.5</v>
+      </c>
+      <c r="J115" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5044,24 +5109,23 @@
         <v>-90209.01870000002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>23.49</v>
+      </c>
+      <c r="J116" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5086,24 +5150,23 @@
         <v>-90209.01870000002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J117" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5128,24 +5191,23 @@
         <v>-65209.01870000002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J118" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5170,24 +5232,23 @@
         <v>-65209.01870000002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>23.84</v>
+      </c>
+      <c r="J119" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5212,24 +5273,23 @@
         <v>-65209.01870000002</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>23.84</v>
+      </c>
+      <c r="J120" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5254,24 +5314,23 @@
         <v>126752.3579</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>23.84</v>
+      </c>
+      <c r="J121" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5296,24 +5355,23 @@
         <v>410385.9859999999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>23.98</v>
+      </c>
+      <c r="J122" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5338,24 +5396,23 @@
         <v>586955.4060999999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>24.79</v>
+      </c>
+      <c r="J123" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5380,24 +5437,23 @@
         <v>778469.2731999999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>25.32</v>
+      </c>
+      <c r="J124" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5422,24 +5478,23 @@
         <v>766160.1667999999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>25.49</v>
+      </c>
+      <c r="J125" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5464,24 +5519,23 @@
         <v>958534.5659999999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>24.9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5506,24 +5560,23 @@
         <v>1433990.8541</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>25.5</v>
+      </c>
+      <c r="J127" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5548,24 +5601,23 @@
         <v>1433990.8541</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>26.44</v>
+      </c>
+      <c r="J128" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5592,22 +5644,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5634,22 +5683,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5676,22 +5722,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5718,22 +5761,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5760,22 +5800,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5802,22 +5839,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5844,22 +5878,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5886,22 +5917,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5928,22 +5956,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5970,22 +5995,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6012,22 +6034,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6054,22 +6073,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6096,22 +6112,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6138,22 +6151,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6180,22 +6190,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6222,22 +6229,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6264,22 +6268,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6306,22 +6307,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6348,22 +6346,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6390,22 +6385,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6432,22 +6424,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6474,22 +6463,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6516,22 +6502,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6556,24 +6539,23 @@
         <v>2447005.419912906</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1.340049292756108</v>
       </c>
       <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>1.014347826086957</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6598,24 +6580,15 @@
         <v>3100672.186670761</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6640,24 +6613,15 @@
         <v>2567010.357015657</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6682,24 +6646,15 @@
         <v>2511821.447015657</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6724,24 +6679,15 @@
         <v>2511821.447015657</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6766,24 +6712,15 @@
         <v>2426680.901115657</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6810,22 +6747,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6852,24 +6780,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1.422078798432739</v>
-      </c>
-      <c r="N159" t="n">
-        <v>1.073410922112802</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6896,16 +6813,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6930,18 +6844,15 @@
         <v>1959688.559006464</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6966,18 +6877,15 @@
         <v>1642775.412538358</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7002,18 +6910,15 @@
         <v>2109450.397090161</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7038,18 +6943,15 @@
         <v>1063470.340690161</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7076,16 +6978,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7112,16 +7011,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7148,16 +7044,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7182,18 +7075,15 @@
         <v>-997780.7592663595</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7220,16 +7110,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7256,16 +7143,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7292,16 +7176,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7328,16 +7209,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7364,16 +7242,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7400,16 +7275,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7436,16 +7308,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7472,16 +7341,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7508,16 +7374,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7544,16 +7407,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7580,16 +7440,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7616,16 +7473,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7652,16 +7506,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7688,16 +7539,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7724,16 +7572,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7760,16 +7605,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7796,16 +7638,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7832,16 +7671,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7868,16 +7704,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7904,16 +7737,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7940,16 +7770,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7976,16 +7803,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8012,16 +7836,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8048,16 +7869,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8084,16 +7902,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8120,16 +7935,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8156,18 +7968,15 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest LBA.xlsx
+++ b/BackTest/2020-01-15 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-60740.13919999997</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-60740.13919999997</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>23</v>
@@ -521,7 +521,7 @@
         <v>-52140.13919999997</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>23</v>
@@ -562,7 +562,7 @@
         <v>-51999.08109999997</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>23.21</v>
@@ -603,7 +603,7 @@
         <v>-60598.83209999997</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>23.33</v>
@@ -640,7 +640,7 @@
         <v>1061.131900000029</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>23.16</v>
@@ -681,7 +681,7 @@
         <v>163.4641000000294</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>23.44</v>
@@ -722,7 +722,7 @@
         <v>319.7141000000294</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>23.02</v>
@@ -763,7 +763,7 @@
         <v>-50422.47289999997</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>23.2</v>
@@ -804,7 +804,7 @@
         <v>-60141.63509999997</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>23.03</v>
@@ -845,7 +845,7 @@
         <v>-60273.37429999997</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>23.02</v>
@@ -886,7 +886,7 @@
         <v>-60273.37429999997</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>22.95</v>
@@ -927,7 +927,7 @@
         <v>-60273.37429999997</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>22.95</v>
@@ -968,7 +968,7 @@
         <v>-60273.37429999997</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>22.95</v>
@@ -1009,7 +1009,7 @@
         <v>-35715.19489999997</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>22.95</v>
@@ -1050,7 +1050,7 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>23.23</v>
@@ -1091,7 +1091,7 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>23.22</v>
@@ -1132,7 +1132,7 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>23.22</v>
@@ -1173,7 +1173,7 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>23.22</v>
@@ -1214,7 +1214,7 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>23.22</v>
@@ -1255,7 +1255,7 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>23.22</v>
@@ -1296,7 +1296,7 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>23.22</v>
@@ -1337,7 +1337,7 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>23.22</v>
@@ -1378,7 +1378,7 @@
         <v>-36027.19489999997</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>23.22</v>
@@ -1419,7 +1419,7 @@
         <v>-35877.19489999997</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>23.01</v>
@@ -1460,7 +1460,7 @@
         <v>-35877.19489999997</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>23.22</v>
@@ -1501,7 +1501,7 @@
         <v>-36627.19489999997</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>23.22</v>
@@ -1542,7 +1542,7 @@
         <v>-36580.19489999997</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>23.15</v>
@@ -1583,7 +1583,7 @@
         <v>-36533.51029999997</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>23.2</v>
@@ -1624,7 +1624,7 @@
         <v>-37623.51029999997</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>23.22</v>
@@ -1665,7 +1665,7 @@
         <v>-37316.32229999997</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>23.18</v>
@@ -1706,7 +1706,7 @@
         <v>-37316.32229999997</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>23.2</v>
@@ -1747,7 +1747,7 @@
         <v>-38314.32229999997</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>23.2</v>
@@ -1788,7 +1788,7 @@
         <v>-36706.42559999997</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>23.12</v>
@@ -1829,7 +1829,7 @@
         <v>-35141.42559999997</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>23.4</v>
@@ -1870,7 +1870,7 @@
         <v>-35141.42559999997</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>23.58</v>
@@ -1911,7 +1911,7 @@
         <v>-35247.38979999998</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>23.58</v>
@@ -1952,7 +1952,7 @@
         <v>-35247.38979999998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>23.5</v>
@@ -1993,7 +1993,7 @@
         <v>-26997.38979999998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>23.5</v>
@@ -2034,11 +2034,9 @@
         <v>-36801.92849999997</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>23.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>23.33</v>
       </c>
@@ -2075,11 +2073,9 @@
         <v>-37368.92849999997</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>23.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>23.33</v>
       </c>
@@ -2116,11 +2112,9 @@
         <v>-37368.92849999997</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>23.33</v>
       </c>
@@ -2157,11 +2151,9 @@
         <v>-39946.26519999997</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>23.33</v>
       </c>
@@ -2198,11 +2190,9 @@
         <v>-42494.43749999997</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>23.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>23.33</v>
       </c>
@@ -2239,11 +2229,9 @@
         <v>-44227.94759999997</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>23.33</v>
       </c>
@@ -2280,11 +2268,9 @@
         <v>-44227.94759999997</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>23.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>23.33</v>
       </c>
@@ -2321,11 +2307,9 @@
         <v>-44526.08759999997</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>23.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>23.33</v>
       </c>
@@ -2362,11 +2346,9 @@
         <v>-112634.7476</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>23.33</v>
       </c>
@@ -2403,11 +2385,9 @@
         <v>-199951.1124</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>22.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>23.33</v>
       </c>
@@ -2444,11 +2424,9 @@
         <v>-195153.3893</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>22.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>23.33</v>
       </c>
@@ -2485,11 +2463,9 @@
         <v>-225153.3893</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>22.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>23.33</v>
       </c>
@@ -2526,11 +2502,9 @@
         <v>-205153.3893</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>23.33</v>
       </c>
@@ -2567,7 +2541,7 @@
         <v>-194953.3893</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>22.97</v>
@@ -2608,7 +2582,7 @@
         <v>-198539.372</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>23</v>
@@ -2649,7 +2623,7 @@
         <v>-197972.372</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>22.52</v>
@@ -2690,7 +2664,7 @@
         <v>-197972.372</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>22.7</v>
@@ -2731,7 +2705,7 @@
         <v>-197972.372</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>22.7</v>
@@ -2772,7 +2746,7 @@
         <v>-198346.492</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>22.7</v>
@@ -2813,7 +2787,7 @@
         <v>-211946.0901</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>22.52</v>
@@ -2854,7 +2828,7 @@
         <v>-211946.0901</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>22.5</v>
@@ -2895,7 +2869,7 @@
         <v>-211946.0901</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>22.5</v>
@@ -2936,7 +2910,7 @@
         <v>-211946.0901</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>22.5</v>
@@ -2977,7 +2951,7 @@
         <v>-211946.0901</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>22.5</v>
@@ -3018,7 +2992,7 @@
         <v>-232350.9701</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>22.5</v>
@@ -3059,7 +3033,7 @@
         <v>-232350.9701</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>22.43</v>
@@ -3100,7 +3074,7 @@
         <v>-232350.9701</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>22.43</v>
@@ -3141,7 +3115,7 @@
         <v>-189100.9701</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>22.43</v>
@@ -3182,7 +3156,7 @@
         <v>-189100.9701</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>22.52</v>
@@ -3223,7 +3197,7 @@
         <v>-189039.9701</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>22.52</v>
@@ -3264,7 +3238,7 @@
         <v>-189861.2265</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>22.89</v>
@@ -3305,7 +3279,7 @@
         <v>-189861.2265</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>22.84</v>
@@ -3346,7 +3320,7 @@
         <v>-179853.2265</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>22.84</v>
@@ -3387,7 +3361,7 @@
         <v>-179853.2265</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>22.85</v>
@@ -3428,7 +3402,7 @@
         <v>-211454.5019</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>22.85</v>
@@ -3469,7 +3443,7 @@
         <v>-210233.5019</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>22.69</v>
@@ -3510,7 +3484,7 @@
         <v>-210821.4629</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>22.9</v>
@@ -3551,7 +3525,7 @@
         <v>-209023.6331</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>22.7</v>
@@ -3592,7 +3566,7 @@
         <v>-208423.6331</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>22.9</v>
@@ -3633,7 +3607,7 @@
         <v>-249955.6407</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>23.13</v>
@@ -3674,7 +3648,7 @@
         <v>-249683.8012</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>22.62</v>
@@ -3715,7 +3689,7 @@
         <v>-273102.934</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>22.7</v>
@@ -3756,7 +3730,7 @@
         <v>-273079.934</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>22.65</v>
@@ -3797,7 +3771,7 @@
         <v>-273079.934</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>22.8</v>
@@ -3838,7 +3812,7 @@
         <v>-301186.6336</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>22.8</v>
@@ -3879,7 +3853,7 @@
         <v>-292800.8893</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>22.56</v>
@@ -3920,7 +3894,7 @@
         <v>-292028.5045</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>22.57</v>
@@ -3961,7 +3935,7 @@
         <v>-292028.5045</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>22.8</v>
@@ -4002,7 +3976,7 @@
         <v>-295288.3084</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>22.8</v>
@@ -4043,7 +4017,7 @@
         <v>-295288.3084</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>22.68</v>
@@ -4084,7 +4058,7 @@
         <v>-313288.3084</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>22.68</v>
@@ -4125,7 +4099,7 @@
         <v>-336750.8701</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>22.56</v>
@@ -4166,7 +4140,7 @@
         <v>-336750.8701</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>22.55</v>
@@ -4207,7 +4181,7 @@
         <v>-337749.5557</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>22.55</v>
@@ -4248,7 +4222,7 @@
         <v>-337749.5557</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>22.5</v>
@@ -4289,7 +4263,7 @@
         <v>-337749.5557</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>22.5</v>
@@ -4330,7 +4304,7 @@
         <v>-337749.5557</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>22.5</v>
@@ -4371,7 +4345,7 @@
         <v>-313349.5557</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>22.5</v>
@@ -4412,7 +4386,7 @@
         <v>-331727.0636000001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>22.8</v>
@@ -4453,7 +4427,7 @@
         <v>-331727.0636000001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>22.4</v>
@@ -4494,7 +4468,7 @@
         <v>-330266.0636000001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>22.4</v>
@@ -4535,7 +4509,7 @@
         <v>-330266.0636000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>22.5</v>
@@ -4576,7 +4550,7 @@
         <v>-312895.7932000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>22.5</v>
@@ -4617,7 +4591,7 @@
         <v>-312895.7932000001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>22.72</v>
@@ -4658,7 +4632,7 @@
         <v>-312872.7932000001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>22.72</v>
@@ -4699,7 +4673,7 @@
         <v>-313175.2252</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>22.79</v>
@@ -4740,7 +4714,7 @@
         <v>-312598.3430000001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>22.51</v>
@@ -4781,7 +4755,7 @@
         <v>-427709.0944000001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>22.6</v>
@@ -4822,7 +4796,7 @@
         <v>-390309.0944000001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>22.53</v>
@@ -4863,7 +4837,7 @@
         <v>-358409.6306</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>22.86</v>
@@ -4904,7 +4878,7 @@
         <v>-358409.6306</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>23.48</v>
@@ -4945,7 +4919,7 @@
         <v>-358409.6306</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>23.48</v>
@@ -4986,7 +4960,7 @@
         <v>-362795.4315</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>23.48</v>
@@ -5027,7 +5001,7 @@
         <v>-208882.7592</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>23.4</v>
@@ -5068,7 +5042,7 @@
         <v>-210283.2006</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>23.5</v>
@@ -5109,7 +5083,7 @@
         <v>-90209.01870000002</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>23.49</v>
@@ -5150,7 +5124,7 @@
         <v>-90209.01870000002</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>23.6</v>
@@ -5191,7 +5165,7 @@
         <v>-65209.01870000002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>23.6</v>
@@ -5232,7 +5206,7 @@
         <v>-65209.01870000002</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>23.84</v>
@@ -5273,7 +5247,7 @@
         <v>-65209.01870000002</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>23.84</v>
@@ -5314,7 +5288,7 @@
         <v>126752.3579</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>23.84</v>
@@ -5355,11 +5329,9 @@
         <v>410385.9859999999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>23.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
         <v>23.33</v>
       </c>
@@ -5396,7 +5368,7 @@
         <v>586955.4060999999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>24.79</v>
@@ -5437,11 +5409,9 @@
         <v>778469.2731999999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>25.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
         <v>23.33</v>
       </c>
@@ -5478,11 +5448,9 @@
         <v>766160.1667999999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>25.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
         <v>23.33</v>
       </c>
@@ -5519,11 +5487,9 @@
         <v>958534.5659999999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
         <v>23.33</v>
       </c>
@@ -5560,11 +5526,9 @@
         <v>1433990.8541</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>25.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
         <v>23.33</v>
       </c>
@@ -5601,11 +5565,9 @@
         <v>1433990.8541</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>26.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>23.33</v>
       </c>
@@ -6539,7 +6501,7 @@
         <v>2447005.419912906</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
@@ -6547,15 +6509,13 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>1.340049292756108</v>
-      </c>
-      <c r="M152" t="n">
-        <v>1.014347826086957</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6580,11 +6540,17 @@
         <v>3100672.186670761</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6613,11 +6579,17 @@
         <v>2567010.357015657</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6646,11 +6618,17 @@
         <v>2511821.447015657</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6679,11 +6657,17 @@
         <v>2511821.447015657</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6712,11 +6696,17 @@
         <v>2426680.901115657</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6748,8 +6738,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6778,15 +6774,23 @@
         <v>2574189.3274027</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>1.400057865409345</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1.014347826086957</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6811,7 +6815,7 @@
         <v>2832165.1235027</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6844,7 +6848,7 @@
         <v>1959688.559006464</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6877,7 +6881,7 @@
         <v>1642775.412538358</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6910,7 +6914,7 @@
         <v>2109450.397090161</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6943,7 +6947,7 @@
         <v>1063470.340690161</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6976,7 +6980,7 @@
         <v>1063470.340690161</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -7009,7 +7013,7 @@
         <v>275875.6037665874</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7042,7 +7046,7 @@
         <v>-492153.9472334125</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -7075,7 +7079,7 @@
         <v>-997780.7592663595</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -7108,7 +7112,7 @@
         <v>-764238.0925823968</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7141,7 +7145,7 @@
         <v>-1140141.377982397</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7977,6 +7981,6 @@
       <c r="M195" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest LBA.xlsx
+++ b/BackTest/2020-01-15 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -562,11 +562,9 @@
         <v>-51999.08109999997</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>23</v>
       </c>
@@ -603,14 +601,10 @@
         <v>-60598.83209999997</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>23.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +634,11 @@
         <v>1061.131900000029</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="J7" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +667,11 @@
         <v>163.4641000000294</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>23.44</v>
-      </c>
-      <c r="J8" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +700,11 @@
         <v>319.7141000000294</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>23.02</v>
-      </c>
-      <c r="J9" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +733,11 @@
         <v>-50422.47289999997</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -804,19 +766,11 @@
         <v>-60141.63509999997</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="J11" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -845,19 +799,11 @@
         <v>-60273.37429999997</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>23.02</v>
-      </c>
-      <c r="J12" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -886,19 +832,11 @@
         <v>-60273.37429999997</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="J13" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -927,19 +865,11 @@
         <v>-60273.37429999997</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -968,19 +898,11 @@
         <v>-60273.37429999997</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="J15" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1015,13 +937,9 @@
         <v>22.95</v>
       </c>
       <c r="J16" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>22.95</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1056,11 +974,11 @@
         <v>23.23</v>
       </c>
       <c r="J17" t="n">
-        <v>23.33</v>
+        <v>22.95</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1091,17 +1009,15 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>23.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>23.33</v>
+        <v>22.95</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1132,19 +1048,11 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="J19" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1173,19 +1081,11 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="J20" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1214,19 +1114,11 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="J21" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1255,19 +1147,11 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="J22" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1296,19 +1180,11 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="J23" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1337,19 +1213,11 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="J24" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1378,19 +1246,11 @@
         <v>-36027.19489999997</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="J25" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1419,19 +1279,11 @@
         <v>-35877.19489999997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="J26" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1460,19 +1312,11 @@
         <v>-35877.19489999997</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1501,19 +1345,11 @@
         <v>-36627.19489999997</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="J28" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1542,19 +1378,11 @@
         <v>-36580.19489999997</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="J29" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1583,19 +1411,11 @@
         <v>-36533.51029999997</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1624,19 +1444,11 @@
         <v>-37623.51029999997</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="J31" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1665,19 +1477,11 @@
         <v>-37316.32229999997</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="J32" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1706,19 +1510,11 @@
         <v>-37316.32229999997</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1747,19 +1543,11 @@
         <v>-38314.32229999997</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1788,19 +1576,11 @@
         <v>-36706.42559999997</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>23.12</v>
-      </c>
-      <c r="J35" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1829,19 +1609,11 @@
         <v>-35141.42559999997</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1870,19 +1642,11 @@
         <v>-35141.42559999997</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23.58</v>
-      </c>
-      <c r="J37" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1911,19 +1675,11 @@
         <v>-35247.38979999998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>23.58</v>
-      </c>
-      <c r="J38" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1952,19 +1708,11 @@
         <v>-35247.38979999998</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1993,19 +1741,11 @@
         <v>-26997.38979999998</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2037,14 +1777,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2076,14 +1810,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2115,14 +1843,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2154,14 +1876,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2193,14 +1909,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2232,14 +1942,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2271,14 +1975,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2310,14 +2008,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2349,14 +2041,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2388,14 +2074,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2427,14 +2107,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2466,14 +2140,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2505,14 +2173,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2541,19 +2203,11 @@
         <v>-194953.3893</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="J54" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2582,19 +2236,11 @@
         <v>-198539.372</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>23</v>
-      </c>
-      <c r="J55" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2629,13 +2275,9 @@
         <v>22.52</v>
       </c>
       <c r="J56" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>22.52</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2670,11 +2312,11 @@
         <v>22.7</v>
       </c>
       <c r="J57" t="n">
-        <v>23.33</v>
+        <v>22.52</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2711,11 +2353,11 @@
         <v>22.7</v>
       </c>
       <c r="J58" t="n">
-        <v>23.33</v>
+        <v>22.52</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2752,13 +2394,9 @@
         <v>22.7</v>
       </c>
       <c r="J59" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>22.7</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2793,11 +2431,11 @@
         <v>22.52</v>
       </c>
       <c r="J60" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2834,7 +2472,7 @@
         <v>22.5</v>
       </c>
       <c r="J61" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2875,7 +2513,7 @@
         <v>22.5</v>
       </c>
       <c r="J62" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2916,7 +2554,7 @@
         <v>22.5</v>
       </c>
       <c r="J63" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2957,7 +2595,7 @@
         <v>22.5</v>
       </c>
       <c r="J64" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2998,7 +2636,7 @@
         <v>22.5</v>
       </c>
       <c r="J65" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3039,7 +2677,7 @@
         <v>22.43</v>
       </c>
       <c r="J66" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3080,7 +2718,7 @@
         <v>22.43</v>
       </c>
       <c r="J67" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3121,7 +2759,7 @@
         <v>22.43</v>
       </c>
       <c r="J68" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3162,7 +2800,7 @@
         <v>22.52</v>
       </c>
       <c r="J69" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3203,7 +2841,7 @@
         <v>22.52</v>
       </c>
       <c r="J70" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3244,7 +2882,7 @@
         <v>22.89</v>
       </c>
       <c r="J71" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3285,7 +2923,7 @@
         <v>22.84</v>
       </c>
       <c r="J72" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3326,7 +2964,7 @@
         <v>22.84</v>
       </c>
       <c r="J73" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3367,7 +3005,7 @@
         <v>22.85</v>
       </c>
       <c r="J74" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3408,7 +3046,7 @@
         <v>22.85</v>
       </c>
       <c r="J75" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3449,7 +3087,7 @@
         <v>22.69</v>
       </c>
       <c r="J76" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3490,7 +3128,7 @@
         <v>22.9</v>
       </c>
       <c r="J77" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3531,7 +3169,7 @@
         <v>22.7</v>
       </c>
       <c r="J78" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3572,7 +3210,7 @@
         <v>22.9</v>
       </c>
       <c r="J79" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3613,7 +3251,7 @@
         <v>23.13</v>
       </c>
       <c r="J80" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3654,7 +3292,7 @@
         <v>22.62</v>
       </c>
       <c r="J81" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3695,7 +3333,7 @@
         <v>22.7</v>
       </c>
       <c r="J82" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3736,7 +3374,7 @@
         <v>22.65</v>
       </c>
       <c r="J83" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3777,7 +3415,7 @@
         <v>22.8</v>
       </c>
       <c r="J84" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3818,7 +3456,7 @@
         <v>22.8</v>
       </c>
       <c r="J85" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3859,7 +3497,7 @@
         <v>22.56</v>
       </c>
       <c r="J86" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3900,7 +3538,7 @@
         <v>22.57</v>
       </c>
       <c r="J87" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3941,7 +3579,7 @@
         <v>22.8</v>
       </c>
       <c r="J88" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3982,7 +3620,7 @@
         <v>22.8</v>
       </c>
       <c r="J89" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4023,7 +3661,7 @@
         <v>22.68</v>
       </c>
       <c r="J90" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -4064,7 +3702,7 @@
         <v>22.68</v>
       </c>
       <c r="J91" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4105,7 +3743,7 @@
         <v>22.56</v>
       </c>
       <c r="J92" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4146,7 +3784,7 @@
         <v>22.55</v>
       </c>
       <c r="J93" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4187,7 +3825,7 @@
         <v>22.55</v>
       </c>
       <c r="J94" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4228,7 +3866,7 @@
         <v>22.5</v>
       </c>
       <c r="J95" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4269,7 +3907,7 @@
         <v>22.5</v>
       </c>
       <c r="J96" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4310,7 +3948,7 @@
         <v>22.5</v>
       </c>
       <c r="J97" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4351,7 +3989,7 @@
         <v>22.5</v>
       </c>
       <c r="J98" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4392,7 +4030,7 @@
         <v>22.8</v>
       </c>
       <c r="J99" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4433,7 +4071,7 @@
         <v>22.4</v>
       </c>
       <c r="J100" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4474,7 +4112,7 @@
         <v>22.4</v>
       </c>
       <c r="J101" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4515,7 +4153,7 @@
         <v>22.5</v>
       </c>
       <c r="J102" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4556,7 +4194,7 @@
         <v>22.5</v>
       </c>
       <c r="J103" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4597,7 +4235,7 @@
         <v>22.72</v>
       </c>
       <c r="J104" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4638,7 +4276,7 @@
         <v>22.72</v>
       </c>
       <c r="J105" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4679,7 +4317,7 @@
         <v>22.79</v>
       </c>
       <c r="J106" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4720,7 +4358,7 @@
         <v>22.51</v>
       </c>
       <c r="J107" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4761,7 +4399,7 @@
         <v>22.6</v>
       </c>
       <c r="J108" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4802,7 +4440,7 @@
         <v>22.53</v>
       </c>
       <c r="J109" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4843,7 +4481,7 @@
         <v>22.86</v>
       </c>
       <c r="J110" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4884,7 +4522,7 @@
         <v>23.48</v>
       </c>
       <c r="J111" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4925,7 +4563,7 @@
         <v>23.48</v>
       </c>
       <c r="J112" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4966,7 +4604,7 @@
         <v>23.48</v>
       </c>
       <c r="J113" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -5007,7 +4645,7 @@
         <v>23.4</v>
       </c>
       <c r="J114" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -5042,13 +4680,11 @@
         <v>-210283.2006</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -5083,13 +4719,11 @@
         <v>-90209.01870000002</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>23.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5124,13 +4758,11 @@
         <v>-90209.01870000002</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5165,13 +4797,11 @@
         <v>-65209.01870000002</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5206,13 +4836,11 @@
         <v>-65209.01870000002</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>23.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5247,13 +4875,11 @@
         <v>-65209.01870000002</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>23.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5288,13 +4914,11 @@
         <v>126752.3579</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>23.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5333,7 +4957,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5368,13 +4992,11 @@
         <v>586955.4060999999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>24.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5413,7 +5035,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5452,7 +5074,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5491,7 +5113,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5530,7 +5152,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5569,7 +5191,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5608,7 +5230,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5647,7 +5269,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5686,7 +5308,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5725,7 +5347,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5764,7 +5386,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5803,7 +5425,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5842,7 +5464,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5881,7 +5503,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5920,7 +5542,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5959,7 +5581,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5998,7 +5620,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -6037,7 +5659,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -6076,7 +5698,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6115,7 +5737,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6154,7 +5776,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6193,7 +5815,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6232,7 +5854,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6271,7 +5893,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6310,7 +5932,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6349,7 +5971,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6388,7 +6010,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6423,21 +6045,23 @@
         <v>1774076.037612906</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>23.33</v>
+        <v>22.7</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>1.228480176211454</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.073410922112802</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6462,17 +6086,11 @@
         <v>2014398.252212906</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6501,17 +6119,11 @@
         <v>2447005.419912906</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6540,17 +6152,11 @@
         <v>3100672.186670761</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6579,17 +6185,11 @@
         <v>2567010.357015657</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6618,17 +6218,11 @@
         <v>2511821.447015657</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6657,17 +6251,11 @@
         <v>2511821.447015657</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6696,17 +6284,11 @@
         <v>2426680.901115657</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6735,17 +6317,11 @@
         <v>2960268.8941027</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6777,20 +6353,12 @@
         <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>1.400057865409345</v>
-      </c>
-      <c r="M159" t="n">
-        <v>1.014347826086957</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6848,7 +6416,7 @@
         <v>1959688.559006464</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6881,7 +6449,7 @@
         <v>1642775.412538358</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6914,7 +6482,7 @@
         <v>2109450.397090161</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -7112,7 +6680,7 @@
         <v>-764238.0925823968</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7145,7 +6713,7 @@
         <v>-1140141.377982397</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7981,6 +7549,6 @@
       <c r="M195" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest LBA.xlsx
+++ b/BackTest/2020-01-15 BackTest LBA.xlsx
@@ -484,14 +484,10 @@
         <v>-60740.13919999997</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-52140.13919999997</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>23</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -931,14 +913,10 @@
         <v>-35715.19489999997</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="J16" t="n">
-        <v>22.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -968,19 +946,11 @@
         <v>-35871.19489999997</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="J17" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1012,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -2269,14 +2233,10 @@
         <v>-197972.372</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="J56" t="n">
-        <v>22.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2306,19 +2266,11 @@
         <v>-197972.372</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2347,19 +2299,11 @@
         <v>-197972.372</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2388,14 +2332,10 @@
         <v>-198346.492</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2430,9 +2370,7 @@
       <c r="I60" t="n">
         <v>22.52</v>
       </c>
-      <c r="J60" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2471,9 +2409,7 @@
       <c r="I61" t="n">
         <v>22.5</v>
       </c>
-      <c r="J61" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2512,9 +2448,7 @@
       <c r="I62" t="n">
         <v>22.5</v>
       </c>
-      <c r="J62" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2553,9 +2487,7 @@
       <c r="I63" t="n">
         <v>22.5</v>
       </c>
-      <c r="J63" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2594,9 +2526,7 @@
       <c r="I64" t="n">
         <v>22.5</v>
       </c>
-      <c r="J64" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2635,9 +2565,7 @@
       <c r="I65" t="n">
         <v>22.5</v>
       </c>
-      <c r="J65" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2676,9 +2604,7 @@
       <c r="I66" t="n">
         <v>22.43</v>
       </c>
-      <c r="J66" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2717,9 +2643,7 @@
       <c r="I67" t="n">
         <v>22.43</v>
       </c>
-      <c r="J67" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2758,9 +2682,7 @@
       <c r="I68" t="n">
         <v>22.43</v>
       </c>
-      <c r="J68" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2799,9 +2721,7 @@
       <c r="I69" t="n">
         <v>22.52</v>
       </c>
-      <c r="J69" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2840,9 +2760,7 @@
       <c r="I70" t="n">
         <v>22.52</v>
       </c>
-      <c r="J70" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2881,9 +2799,7 @@
       <c r="I71" t="n">
         <v>22.89</v>
       </c>
-      <c r="J71" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2922,9 +2838,7 @@
       <c r="I72" t="n">
         <v>22.84</v>
       </c>
-      <c r="J72" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2963,9 +2877,7 @@
       <c r="I73" t="n">
         <v>22.84</v>
       </c>
-      <c r="J73" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,9 +2916,7 @@
       <c r="I74" t="n">
         <v>22.85</v>
       </c>
-      <c r="J74" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3045,9 +2955,7 @@
       <c r="I75" t="n">
         <v>22.85</v>
       </c>
-      <c r="J75" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3086,9 +2994,7 @@
       <c r="I76" t="n">
         <v>22.69</v>
       </c>
-      <c r="J76" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3127,9 +3033,7 @@
       <c r="I77" t="n">
         <v>22.9</v>
       </c>
-      <c r="J77" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,9 +3072,7 @@
       <c r="I78" t="n">
         <v>22.7</v>
       </c>
-      <c r="J78" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3209,9 +3111,7 @@
       <c r="I79" t="n">
         <v>22.9</v>
       </c>
-      <c r="J79" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3250,9 +3150,7 @@
       <c r="I80" t="n">
         <v>23.13</v>
       </c>
-      <c r="J80" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3291,9 +3189,7 @@
       <c r="I81" t="n">
         <v>22.62</v>
       </c>
-      <c r="J81" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3332,9 +3228,7 @@
       <c r="I82" t="n">
         <v>22.7</v>
       </c>
-      <c r="J82" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3373,9 +3267,7 @@
       <c r="I83" t="n">
         <v>22.65</v>
       </c>
-      <c r="J83" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,9 +3306,7 @@
       <c r="I84" t="n">
         <v>22.8</v>
       </c>
-      <c r="J84" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3455,9 +3345,7 @@
       <c r="I85" t="n">
         <v>22.8</v>
       </c>
-      <c r="J85" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3496,9 +3384,7 @@
       <c r="I86" t="n">
         <v>22.56</v>
       </c>
-      <c r="J86" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3537,9 +3423,7 @@
       <c r="I87" t="n">
         <v>22.57</v>
       </c>
-      <c r="J87" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,9 +3462,7 @@
       <c r="I88" t="n">
         <v>22.8</v>
       </c>
-      <c r="J88" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3619,9 +3501,7 @@
       <c r="I89" t="n">
         <v>22.8</v>
       </c>
-      <c r="J89" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3660,9 +3540,7 @@
       <c r="I90" t="n">
         <v>22.68</v>
       </c>
-      <c r="J90" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3701,9 +3579,7 @@
       <c r="I91" t="n">
         <v>22.68</v>
       </c>
-      <c r="J91" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3742,9 +3618,7 @@
       <c r="I92" t="n">
         <v>22.56</v>
       </c>
-      <c r="J92" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3783,9 +3657,7 @@
       <c r="I93" t="n">
         <v>22.55</v>
       </c>
-      <c r="J93" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3824,9 +3696,7 @@
       <c r="I94" t="n">
         <v>22.55</v>
       </c>
-      <c r="J94" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,9 +3735,7 @@
       <c r="I95" t="n">
         <v>22.5</v>
       </c>
-      <c r="J95" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3906,9 +3774,7 @@
       <c r="I96" t="n">
         <v>22.5</v>
       </c>
-      <c r="J96" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3947,9 +3813,7 @@
       <c r="I97" t="n">
         <v>22.5</v>
       </c>
-      <c r="J97" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3988,9 +3852,7 @@
       <c r="I98" t="n">
         <v>22.5</v>
       </c>
-      <c r="J98" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4029,9 +3891,7 @@
       <c r="I99" t="n">
         <v>22.8</v>
       </c>
-      <c r="J99" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4070,9 +3930,7 @@
       <c r="I100" t="n">
         <v>22.4</v>
       </c>
-      <c r="J100" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,9 +3969,7 @@
       <c r="I101" t="n">
         <v>22.4</v>
       </c>
-      <c r="J101" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4152,9 +4008,7 @@
       <c r="I102" t="n">
         <v>22.5</v>
       </c>
-      <c r="J102" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4193,9 +4047,7 @@
       <c r="I103" t="n">
         <v>22.5</v>
       </c>
-      <c r="J103" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4234,9 +4086,7 @@
       <c r="I104" t="n">
         <v>22.72</v>
       </c>
-      <c r="J104" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4275,9 +4125,7 @@
       <c r="I105" t="n">
         <v>22.72</v>
       </c>
-      <c r="J105" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4316,9 +4164,7 @@
       <c r="I106" t="n">
         <v>22.79</v>
       </c>
-      <c r="J106" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4357,9 +4203,7 @@
       <c r="I107" t="n">
         <v>22.51</v>
       </c>
-      <c r="J107" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4398,9 +4242,7 @@
       <c r="I108" t="n">
         <v>22.6</v>
       </c>
-      <c r="J108" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4439,9 +4281,7 @@
       <c r="I109" t="n">
         <v>22.53</v>
       </c>
-      <c r="J109" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4480,9 +4320,7 @@
       <c r="I110" t="n">
         <v>22.86</v>
       </c>
-      <c r="J110" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4521,9 +4359,7 @@
       <c r="I111" t="n">
         <v>23.48</v>
       </c>
-      <c r="J111" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4562,9 +4398,7 @@
       <c r="I112" t="n">
         <v>23.48</v>
       </c>
-      <c r="J112" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4603,9 +4437,7 @@
       <c r="I113" t="n">
         <v>23.48</v>
       </c>
-      <c r="J113" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4644,9 +4476,7 @@
       <c r="I114" t="n">
         <v>23.4</v>
       </c>
-      <c r="J114" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4680,12 +4510,12 @@
         <v>-210283.2006</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>22.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4722,9 +4552,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,9 +4589,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,9 +4626,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4839,9 +4663,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4878,9 +4700,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4917,9 +4737,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4956,9 +4774,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4995,9 +4811,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5034,9 +4848,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,9 +4885,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5112,9 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5151,9 +4959,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5190,9 +4996,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5229,9 +5033,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5268,9 +5070,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5307,9 +5107,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5346,9 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5385,9 +5181,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5424,9 +5218,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5463,9 +5255,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5502,9 +5292,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5541,9 +5329,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,9 +5366,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,9 +5403,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5658,9 +5440,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5697,9 +5477,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5736,9 +5514,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,9 +5551,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5814,9 +5588,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5853,9 +5625,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,9 +5662,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,9 +5699,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5970,9 +5736,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6009,9 +5773,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6045,23 +5807,19 @@
         <v>1774076.037612906</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.228480176211454</v>
-      </c>
-      <c r="M150" t="n">
-        <v>1.073410922112802</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6086,11 +5844,15 @@
         <v>2014398.252212906</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6119,11 +5881,15 @@
         <v>2447005.419912906</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6152,11 +5918,15 @@
         <v>3100672.186670761</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6189,10 +5959,12 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -6317,7 +6089,7 @@
         <v>2960268.8941027</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6416,7 +6188,7 @@
         <v>1959688.559006464</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6449,7 +6221,7 @@
         <v>1642775.412538358</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6482,7 +6254,7 @@
         <v>2109450.397090161</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6515,7 +6287,7 @@
         <v>1063470.340690161</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6548,7 +6320,7 @@
         <v>1063470.340690161</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6581,7 +6353,7 @@
         <v>275875.6037665874</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6614,7 +6386,7 @@
         <v>-492153.9472334125</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6647,7 +6419,7 @@
         <v>-997780.7592663595</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>

--- a/BackTest/2020-01-15 BackTest LBA.xlsx
+++ b/BackTest/2020-01-15 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:L195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>130.4722</v>
       </c>
       <c r="G2" t="n">
-        <v>-60740.13919999997</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>20.1876</v>
       </c>
       <c r="G3" t="n">
-        <v>-60740.13919999997</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>8600</v>
       </c>
       <c r="G4" t="n">
-        <v>-52140.13919999997</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>141.0581</v>
       </c>
       <c r="G5" t="n">
-        <v>-51999.08109999997</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>8599.751</v>
       </c>
       <c r="G6" t="n">
-        <v>-60598.83209999997</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>61659.964</v>
       </c>
       <c r="G7" t="n">
-        <v>1061.131900000029</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>897.6678000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>163.4641000000294</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>156.25</v>
       </c>
       <c r="G9" t="n">
-        <v>319.7141000000294</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>50742.187</v>
       </c>
       <c r="G10" t="n">
-        <v>-50422.47289999997</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>9719.162200000001</v>
       </c>
       <c r="G11" t="n">
-        <v>-60141.63509999997</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>131.7392</v>
       </c>
       <c r="G12" t="n">
-        <v>-60273.37429999997</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>3076.9861</v>
       </c>
       <c r="G13" t="n">
-        <v>-60273.37429999997</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>161.4971</v>
       </c>
       <c r="G14" t="n">
-        <v>-60273.37429999997</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>15322.663</v>
       </c>
       <c r="G15" t="n">
-        <v>-60273.37429999997</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>24558.1794</v>
       </c>
       <c r="G16" t="n">
-        <v>-35715.19489999997</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>156</v>
       </c>
       <c r="G17" t="n">
-        <v>-35871.19489999997</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>26819.5561</v>
       </c>
       <c r="G18" t="n">
-        <v>-35871.19489999997</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>8240.8382</v>
       </c>
       <c r="G19" t="n">
-        <v>-35871.19489999997</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>617.5555000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-35871.19489999997</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>7078</v>
       </c>
       <c r="G21" t="n">
-        <v>-35871.19489999997</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>128.7891</v>
       </c>
       <c r="G22" t="n">
-        <v>-35871.19489999997</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2500</v>
       </c>
       <c r="G23" t="n">
-        <v>-35871.19489999997</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>750</v>
       </c>
       <c r="G24" t="n">
-        <v>-35871.19489999997</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>156</v>
       </c>
       <c r="G25" t="n">
-        <v>-36027.19489999997</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>150</v>
       </c>
       <c r="G26" t="n">
-        <v>-35877.19489999997</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2500</v>
       </c>
       <c r="G27" t="n">
-        <v>-35877.19489999997</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>750</v>
       </c>
       <c r="G28" t="n">
-        <v>-36627.19489999997</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>47</v>
       </c>
       <c r="G29" t="n">
-        <v>-36580.19489999997</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>46.6846</v>
       </c>
       <c r="G30" t="n">
-        <v>-36533.51029999997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1090</v>
       </c>
       <c r="G31" t="n">
-        <v>-37623.51029999997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>307.188</v>
       </c>
       <c r="G32" t="n">
-        <v>-37316.32229999997</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>515.5214</v>
       </c>
       <c r="G33" t="n">
-        <v>-37316.32229999997</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>998</v>
       </c>
       <c r="G34" t="n">
-        <v>-38314.32229999997</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1607.8967</v>
       </c>
       <c r="G35" t="n">
-        <v>-36706.42559999997</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1565</v>
       </c>
       <c r="G36" t="n">
-        <v>-35141.42559999997</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>314.4806</v>
       </c>
       <c r="G37" t="n">
-        <v>-35141.42559999997</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>105.9642</v>
       </c>
       <c r="G38" t="n">
-        <v>-35247.38979999998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>894.0358</v>
       </c>
       <c r="G39" t="n">
-        <v>-35247.38979999998</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>8250</v>
       </c>
       <c r="G40" t="n">
-        <v>-26997.38979999998</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>9804.538699999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-36801.92849999997</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>567</v>
       </c>
       <c r="G42" t="n">
-        <v>-37368.92849999997</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>430.7756</v>
       </c>
       <c r="G43" t="n">
-        <v>-37368.92849999997</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2577.3367</v>
       </c>
       <c r="G44" t="n">
-        <v>-39946.26519999997</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2548.1723</v>
       </c>
       <c r="G45" t="n">
-        <v>-42494.43749999997</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1733.5101</v>
       </c>
       <c r="G46" t="n">
-        <v>-44227.94759999997</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>161</v>
       </c>
       <c r="G47" t="n">
-        <v>-44227.94759999997</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>298.14</v>
       </c>
       <c r="G48" t="n">
-        <v>-44526.08759999997</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>68108.66</v>
       </c>
       <c r="G49" t="n">
-        <v>-112634.7476</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>87316.3648</v>
       </c>
       <c r="G50" t="n">
-        <v>-199951.1124</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>4797.7231</v>
       </c>
       <c r="G51" t="n">
-        <v>-195153.3893</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>30000</v>
       </c>
       <c r="G52" t="n">
-        <v>-225153.3893</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>20000</v>
       </c>
       <c r="G53" t="n">
-        <v>-205153.3893</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>10200</v>
       </c>
       <c r="G54" t="n">
-        <v>-194953.3893</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>3585.9827</v>
       </c>
       <c r="G55" t="n">
-        <v>-198539.372</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>567</v>
       </c>
       <c r="G56" t="n">
-        <v>-197972.372</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>3450</v>
       </c>
       <c r="G57" t="n">
-        <v>-197972.372</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1550</v>
       </c>
       <c r="G58" t="n">
-        <v>-197972.372</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>374.12</v>
       </c>
       <c r="G59" t="n">
-        <v>-198346.492</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,24 +2183,15 @@
         <v>13599.5981</v>
       </c>
       <c r="G60" t="n">
-        <v>-211946.0901</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>22.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2401,24 +2213,15 @@
         <v>7192.2859</v>
       </c>
       <c r="G61" t="n">
-        <v>-211946.0901</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2440,24 +2243,15 @@
         <v>1900</v>
       </c>
       <c r="G62" t="n">
-        <v>-211946.0901</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2479,24 +2273,15 @@
         <v>3000</v>
       </c>
       <c r="G63" t="n">
-        <v>-211946.0901</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2518,24 +2303,15 @@
         <v>5050</v>
       </c>
       <c r="G64" t="n">
-        <v>-211946.0901</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2557,24 +2333,15 @@
         <v>20404.88</v>
       </c>
       <c r="G65" t="n">
-        <v>-232350.9701</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2596,24 +2363,15 @@
         <v>6594.6269</v>
       </c>
       <c r="G66" t="n">
-        <v>-232350.9701</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>22.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2635,24 +2393,19 @@
         <v>48099.5735</v>
       </c>
       <c r="G67" t="n">
-        <v>-232350.9701</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>22.43</v>
       </c>
       <c r="I67" t="n">
         <v>22.43</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2674,24 +2427,23 @@
         <v>43250</v>
       </c>
       <c r="G68" t="n">
-        <v>-189100.9701</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>22.43</v>
       </c>
       <c r="I68" t="n">
         <v>22.43</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2713,24 +2465,23 @@
         <v>34881.3943</v>
       </c>
       <c r="G69" t="n">
-        <v>-189100.9701</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>22.52</v>
       </c>
       <c r="I69" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>22.43</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2752,24 +2503,19 @@
         <v>61</v>
       </c>
       <c r="G70" t="n">
-        <v>-189039.9701</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>22.52</v>
       </c>
       <c r="I70" t="n">
         <v>22.52</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2791,24 +2537,23 @@
         <v>821.2564</v>
       </c>
       <c r="G71" t="n">
-        <v>-189861.2265</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>22.89</v>
       </c>
       <c r="I71" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>22.52</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2830,24 +2575,23 @@
         <v>43605.8269</v>
       </c>
       <c r="G72" t="n">
-        <v>-189861.2265</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>22.84</v>
       </c>
       <c r="I72" t="n">
-        <v>22.84</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>22.52</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2869,24 +2613,19 @@
         <v>10008</v>
       </c>
       <c r="G73" t="n">
-        <v>-179853.2265</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>22.84</v>
       </c>
       <c r="I73" t="n">
         <v>22.84</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2908,24 +2647,23 @@
         <v>20261.1791</v>
       </c>
       <c r="G74" t="n">
-        <v>-179853.2265</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>22.85</v>
       </c>
       <c r="I74" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>22.84</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2947,24 +2685,23 @@
         <v>31601.2754</v>
       </c>
       <c r="G75" t="n">
-        <v>-211454.5019</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>22.85</v>
       </c>
       <c r="I75" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>22.84</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2986,24 +2723,19 @@
         <v>1221</v>
       </c>
       <c r="G76" t="n">
-        <v>-210233.5019</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>22.69</v>
       </c>
       <c r="I76" t="n">
         <v>22.69</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3025,24 +2757,23 @@
         <v>587.961</v>
       </c>
       <c r="G77" t="n">
-        <v>-210821.4629</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>22.9</v>
       </c>
       <c r="I77" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>22.69</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3064,24 +2795,23 @@
         <v>1797.8298</v>
       </c>
       <c r="G78" t="n">
-        <v>-209023.6331</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>22.7</v>
       </c>
       <c r="I78" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>22.69</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3103,24 +2833,19 @@
         <v>600</v>
       </c>
       <c r="G79" t="n">
-        <v>-208423.6331</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>22.9</v>
       </c>
       <c r="I79" t="n">
         <v>22.9</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3142,24 +2867,23 @@
         <v>41532.0076</v>
       </c>
       <c r="G80" t="n">
-        <v>-249955.6407</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>23.13</v>
       </c>
       <c r="I80" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3181,24 +2905,23 @@
         <v>271.8395</v>
       </c>
       <c r="G81" t="n">
-        <v>-249683.8012</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>22.62</v>
       </c>
       <c r="I81" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3220,24 +2943,23 @@
         <v>23419.1328</v>
       </c>
       <c r="G82" t="n">
-        <v>-273102.934</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>22.7</v>
       </c>
       <c r="I82" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3259,24 +2981,23 @@
         <v>23</v>
       </c>
       <c r="G83" t="n">
-        <v>-273079.934</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>22.65</v>
       </c>
       <c r="I83" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3298,24 +3019,23 @@
         <v>248.8395</v>
       </c>
       <c r="G84" t="n">
-        <v>-273079.934</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>22.8</v>
       </c>
       <c r="I84" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3337,24 +3057,23 @@
         <v>28106.6996</v>
       </c>
       <c r="G85" t="n">
-        <v>-301186.6336</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>22.8</v>
       </c>
       <c r="I85" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3376,24 +3095,23 @@
         <v>8385.7443</v>
       </c>
       <c r="G86" t="n">
-        <v>-292800.8893</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>22.56</v>
       </c>
       <c r="I86" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3415,24 +3133,23 @@
         <v>772.3848</v>
       </c>
       <c r="G87" t="n">
-        <v>-292028.5045</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>22.57</v>
       </c>
       <c r="I87" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3454,24 +3171,23 @@
         <v>2175.4569</v>
       </c>
       <c r="G88" t="n">
-        <v>-292028.5045</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>22.8</v>
       </c>
       <c r="I88" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3493,24 +3209,23 @@
         <v>3259.8039</v>
       </c>
       <c r="G89" t="n">
-        <v>-295288.3084</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>22.8</v>
       </c>
       <c r="I89" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3532,24 +3247,23 @@
         <v>4839.3267</v>
       </c>
       <c r="G90" t="n">
-        <v>-295288.3084</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>22.68</v>
       </c>
       <c r="I90" t="n">
-        <v>22.68</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3571,24 +3285,23 @@
         <v>18000</v>
       </c>
       <c r="G91" t="n">
-        <v>-313288.3084</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>22.68</v>
       </c>
       <c r="I91" t="n">
-        <v>22.68</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3610,24 +3323,23 @@
         <v>23462.5617</v>
       </c>
       <c r="G92" t="n">
-        <v>-336750.8701</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>22.56</v>
       </c>
       <c r="I92" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3649,24 +3361,21 @@
         <v>4762.9812</v>
       </c>
       <c r="G93" t="n">
-        <v>-336750.8701</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3688,24 +3397,21 @@
         <v>998.6856</v>
       </c>
       <c r="G94" t="n">
-        <v>-337749.5557</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3727,24 +3433,21 @@
         <v>359.8685</v>
       </c>
       <c r="G95" t="n">
-        <v>-337749.5557</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3766,24 +3469,21 @@
         <v>1522.955</v>
       </c>
       <c r="G96" t="n">
-        <v>-337749.5557</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3805,24 +3505,21 @@
         <v>905.0506</v>
       </c>
       <c r="G97" t="n">
-        <v>-337749.5557</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3844,24 +3541,21 @@
         <v>24400</v>
       </c>
       <c r="G98" t="n">
-        <v>-313349.5557</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3883,24 +3577,21 @@
         <v>18377.5079</v>
       </c>
       <c r="G99" t="n">
-        <v>-331727.0636000001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3922,24 +3613,21 @@
         <v>4390</v>
       </c>
       <c r="G100" t="n">
-        <v>-331727.0636000001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3961,24 +3649,21 @@
         <v>1461</v>
       </c>
       <c r="G101" t="n">
-        <v>-330266.0636000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4000,24 +3685,21 @@
         <v>1446.7557</v>
       </c>
       <c r="G102" t="n">
-        <v>-330266.0636000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4039,24 +3721,21 @@
         <v>17370.2704</v>
       </c>
       <c r="G103" t="n">
-        <v>-312895.7932000001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4078,24 +3757,21 @@
         <v>1066.4967</v>
       </c>
       <c r="G104" t="n">
-        <v>-312895.7932000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4117,24 +3793,21 @@
         <v>23</v>
       </c>
       <c r="G105" t="n">
-        <v>-312872.7932000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4156,24 +3829,21 @@
         <v>302.432</v>
       </c>
       <c r="G106" t="n">
-        <v>-313175.2252</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4195,24 +3865,21 @@
         <v>576.8822</v>
       </c>
       <c r="G107" t="n">
-        <v>-312598.3430000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4234,24 +3901,21 @@
         <v>115110.7514</v>
       </c>
       <c r="G108" t="n">
-        <v>-427709.0944000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4273,24 +3937,21 @@
         <v>37400</v>
       </c>
       <c r="G109" t="n">
-        <v>-390309.0944000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4312,24 +3973,21 @@
         <v>31899.4638</v>
       </c>
       <c r="G110" t="n">
-        <v>-358409.6306</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4351,24 +4009,21 @@
         <v>524</v>
       </c>
       <c r="G111" t="n">
-        <v>-358409.6306</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4390,24 +4045,21 @@
         <v>88675.4127</v>
       </c>
       <c r="G112" t="n">
-        <v>-358409.6306</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4429,24 +4081,21 @@
         <v>4385.8009</v>
       </c>
       <c r="G113" t="n">
-        <v>-362795.4315</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4468,24 +4117,21 @@
         <v>153912.6723</v>
       </c>
       <c r="G114" t="n">
-        <v>-208882.7592</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4507,24 +4153,21 @@
         <v>1400.4414</v>
       </c>
       <c r="G115" t="n">
-        <v>-210283.2006</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4546,22 +4189,21 @@
         <v>120074.1819</v>
       </c>
       <c r="G116" t="n">
-        <v>-90209.01870000002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4583,22 +4225,21 @@
         <v>26628.3783</v>
       </c>
       <c r="G117" t="n">
-        <v>-90209.01870000002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4620,22 +4261,21 @@
         <v>25000</v>
       </c>
       <c r="G118" t="n">
-        <v>-65209.01870000002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4657,22 +4297,21 @@
         <v>1702.908</v>
       </c>
       <c r="G119" t="n">
-        <v>-65209.01870000002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4694,22 +4333,21 @@
         <v>144136.506</v>
       </c>
       <c r="G120" t="n">
-        <v>-65209.01870000002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4731,22 +4369,21 @@
         <v>191961.3766</v>
       </c>
       <c r="G121" t="n">
-        <v>126752.3579</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4768,22 +4405,21 @@
         <v>283633.6281</v>
       </c>
       <c r="G122" t="n">
-        <v>410385.9859999999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4805,22 +4441,21 @@
         <v>176569.4201</v>
       </c>
       <c r="G123" t="n">
-        <v>586955.4060999999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4842,22 +4477,21 @@
         <v>191513.8671</v>
       </c>
       <c r="G124" t="n">
-        <v>778469.2731999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4879,22 +4513,21 @@
         <v>12309.1064</v>
       </c>
       <c r="G125" t="n">
-        <v>766160.1667999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4916,22 +4549,21 @@
         <v>192374.3992</v>
       </c>
       <c r="G126" t="n">
-        <v>958534.5659999999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4953,22 +4585,21 @@
         <v>475456.2881</v>
       </c>
       <c r="G127" t="n">
-        <v>1433990.8541</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4990,22 +4621,21 @@
         <v>9407.374900000001</v>
       </c>
       <c r="G128" t="n">
-        <v>1433990.8541</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5027,22 +4657,21 @@
         <v>884.0955</v>
       </c>
       <c r="G129" t="n">
-        <v>1434874.9496</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,22 +4693,21 @@
         <v>14200</v>
       </c>
       <c r="G130" t="n">
-        <v>1420674.9496</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5101,22 +4729,21 @@
         <v>230795.2058</v>
       </c>
       <c r="G131" t="n">
-        <v>1651470.1554</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,22 +4765,21 @@
         <v>194355.0012928417</v>
       </c>
       <c r="G132" t="n">
-        <v>1845825.156692842</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5175,22 +4801,21 @@
         <v>13771.82</v>
       </c>
       <c r="G133" t="n">
-        <v>1859596.976692842</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5212,22 +4837,21 @@
         <v>70140.53516472744</v>
       </c>
       <c r="G134" t="n">
-        <v>1929737.511857569</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5249,22 +4873,21 @@
         <v>156054.2189740612</v>
       </c>
       <c r="G135" t="n">
-        <v>1773683.292883508</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5286,22 +4909,21 @@
         <v>2521.1046</v>
       </c>
       <c r="G136" t="n">
-        <v>1771162.188283508</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5323,22 +4945,21 @@
         <v>89751.246</v>
       </c>
       <c r="G137" t="n">
-        <v>1681410.942283508</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5360,22 +4981,21 @@
         <v>12379.0125</v>
       </c>
       <c r="G138" t="n">
-        <v>1693789.954783508</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5397,22 +5017,21 @@
         <v>75718.57339999999</v>
       </c>
       <c r="G139" t="n">
-        <v>1769508.528183508</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5434,22 +5053,21 @@
         <v>156243.7339</v>
       </c>
       <c r="G140" t="n">
-        <v>1925752.262083508</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5471,22 +5089,21 @@
         <v>663430.7786860114</v>
       </c>
       <c r="G141" t="n">
-        <v>1262321.483397496</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5508,22 +5125,21 @@
         <v>215713.3323</v>
       </c>
       <c r="G142" t="n">
-        <v>1478034.815697496</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5545,22 +5161,21 @@
         <v>62766.7322</v>
       </c>
       <c r="G143" t="n">
-        <v>1540801.547897496</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5582,22 +5197,21 @@
         <v>9217.066971947987</v>
       </c>
       <c r="G144" t="n">
-        <v>1531584.480925548</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5619,22 +5233,21 @@
         <v>72703.87791264241</v>
       </c>
       <c r="G145" t="n">
-        <v>1458880.603012906</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5656,22 +5269,21 @@
         <v>14753.6028</v>
       </c>
       <c r="G146" t="n">
-        <v>1444127.000212906</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5693,22 +5305,21 @@
         <v>84451.8348</v>
       </c>
       <c r="G147" t="n">
-        <v>1528578.835012906</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5730,22 +5341,21 @@
         <v>199325.4191</v>
       </c>
       <c r="G148" t="n">
-        <v>1727904.254112906</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5767,22 +5377,21 @@
         <v>300037.9155</v>
       </c>
       <c r="G149" t="n">
-        <v>1427866.338612906</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5804,22 +5413,21 @@
         <v>346209.699</v>
       </c>
       <c r="G150" t="n">
-        <v>1774076.037612906</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5841,22 +5449,21 @@
         <v>240322.2146</v>
       </c>
       <c r="G151" t="n">
-        <v>2014398.252212906</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5878,22 +5485,21 @@
         <v>432607.1677</v>
       </c>
       <c r="G152" t="n">
-        <v>2447005.419912906</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5915,22 +5521,21 @@
         <v>653666.7667578545</v>
       </c>
       <c r="G153" t="n">
-        <v>3100672.186670761</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5952,20 +5557,21 @@
         <v>533661.8296551033</v>
       </c>
       <c r="G154" t="n">
-        <v>2567010.357015657</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
       </c>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5987,18 +5593,21 @@
         <v>55188.91</v>
       </c>
       <c r="G155" t="n">
-        <v>2511821.447015657</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6020,18 +5629,21 @@
         <v>166386.9025</v>
       </c>
       <c r="G156" t="n">
-        <v>2511821.447015657</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6053,18 +5665,21 @@
         <v>85140.5459</v>
       </c>
       <c r="G157" t="n">
-        <v>2426680.901115657</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6086,18 +5701,21 @@
         <v>533587.9929870423</v>
       </c>
       <c r="G158" t="n">
-        <v>2960268.8941027</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6119,18 +5737,23 @@
         <v>386079.5667</v>
       </c>
       <c r="G159" t="n">
-        <v>2574189.3274027</v>
-      </c>
-      <c r="H159" t="n">
         <v>2</v>
       </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1.426441048034935</v>
+      </c>
       <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>1.073410922112802</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6152,18 +5775,15 @@
         <v>257975.7961</v>
       </c>
       <c r="G160" t="n">
-        <v>2832165.1235027</v>
-      </c>
-      <c r="H160" t="n">
         <v>2</v>
       </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6185,18 +5805,15 @@
         <v>872476.5644962358</v>
       </c>
       <c r="G161" t="n">
-        <v>1959688.559006464</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,18 +5835,15 @@
         <v>316913.1464681063</v>
       </c>
       <c r="G162" t="n">
-        <v>1642775.412538358</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6251,18 +5865,15 @@
         <v>466674.9845518033</v>
       </c>
       <c r="G163" t="n">
-        <v>2109450.397090161</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6284,18 +5895,15 @@
         <v>1045980.0564</v>
       </c>
       <c r="G164" t="n">
-        <v>1063470.340690161</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6317,18 +5925,15 @@
         <v>164519.0638</v>
       </c>
       <c r="G165" t="n">
-        <v>1063470.340690161</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6350,18 +5955,15 @@
         <v>787594.7369235732</v>
       </c>
       <c r="G166" t="n">
-        <v>275875.6037665874</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6383,18 +5985,15 @@
         <v>768029.551</v>
       </c>
       <c r="G167" t="n">
-        <v>-492153.9472334125</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6416,18 +6015,15 @@
         <v>505626.812032947</v>
       </c>
       <c r="G168" t="n">
-        <v>-997780.7592663595</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6449,18 +6045,15 @@
         <v>233542.6666839627</v>
       </c>
       <c r="G169" t="n">
-        <v>-764238.0925823968</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6482,18 +6075,15 @@
         <v>375903.2854</v>
       </c>
       <c r="G170" t="n">
-        <v>-1140141.377982397</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6515,18 +6105,15 @@
         <v>158091.4534</v>
       </c>
       <c r="G171" t="n">
-        <v>-982049.9245823969</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6548,18 +6135,15 @@
         <v>320627.7138</v>
       </c>
       <c r="G172" t="n">
-        <v>-1302677.638382397</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6581,18 +6165,15 @@
         <v>238195.5916</v>
       </c>
       <c r="G173" t="n">
-        <v>-1064482.046782397</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6614,18 +6195,15 @@
         <v>209393.9383</v>
       </c>
       <c r="G174" t="n">
-        <v>-1273875.985082397</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6647,18 +6225,15 @@
         <v>46542.3635</v>
       </c>
       <c r="G175" t="n">
-        <v>-1227333.621582397</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6680,18 +6255,15 @@
         <v>236657.6555763198</v>
       </c>
       <c r="G176" t="n">
-        <v>-1463991.277158717</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6713,18 +6285,15 @@
         <v>157362.115</v>
       </c>
       <c r="G177" t="n">
-        <v>-1621353.392158717</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6746,18 +6315,15 @@
         <v>177822.922</v>
       </c>
       <c r="G178" t="n">
-        <v>-1443530.470158717</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6779,18 +6345,15 @@
         <v>25930.2473753689</v>
       </c>
       <c r="G179" t="n">
-        <v>-1417600.222783348</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6812,18 +6375,15 @@
         <v>91206.84005291446</v>
       </c>
       <c r="G180" t="n">
-        <v>-1508807.062836262</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6845,18 +6405,15 @@
         <v>122253.5703</v>
       </c>
       <c r="G181" t="n">
-        <v>-1631060.633136262</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6878,18 +6435,15 @@
         <v>537420.0048</v>
       </c>
       <c r="G182" t="n">
-        <v>-2168480.637936262</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6911,18 +6465,15 @@
         <v>341347.9071</v>
       </c>
       <c r="G183" t="n">
-        <v>-2509828.545036262</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6944,18 +6495,15 @@
         <v>161838.4515</v>
       </c>
       <c r="G184" t="n">
-        <v>-2347990.093536262</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6977,18 +6525,15 @@
         <v>87903.5935</v>
       </c>
       <c r="G185" t="n">
-        <v>-2347990.093536262</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7010,18 +6555,15 @@
         <v>635343.5632236802</v>
       </c>
       <c r="G186" t="n">
-        <v>-1712646.530312582</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7043,18 +6585,15 @@
         <v>59671.6098</v>
       </c>
       <c r="G187" t="n">
-        <v>-1772318.140112582</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7076,18 +6615,15 @@
         <v>225653.8713</v>
       </c>
       <c r="G188" t="n">
-        <v>-1546664.268812582</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7109,18 +6645,15 @@
         <v>106</v>
       </c>
       <c r="G189" t="n">
-        <v>-1546770.268812582</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7142,18 +6675,15 @@
         <v>721735.2958</v>
       </c>
       <c r="G190" t="n">
-        <v>-2268505.564612582</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7175,18 +6705,15 @@
         <v>489308.9750490821</v>
       </c>
       <c r="G191" t="n">
-        <v>-1779196.5895635</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7208,18 +6735,15 @@
         <v>332838.2876</v>
       </c>
       <c r="G192" t="n">
-        <v>-2112034.8771635</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7241,18 +6765,15 @@
         <v>351177.3519</v>
       </c>
       <c r="G193" t="n">
-        <v>-1760857.5252635</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7274,18 +6795,15 @@
         <v>80837.92909999999</v>
       </c>
       <c r="G194" t="n">
-        <v>-1841695.4543635</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7307,18 +6825,15 @@
         <v>74140.8579</v>
       </c>
       <c r="G195" t="n">
-        <v>-1841695.4543635</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
